--- a/descent/src/descent-bdd.xlsx
+++ b/descent/src/descent-bdd.xlsx
@@ -30,20 +30,6 @@
     <author>Raphael Tourneur</author>
   </authors>
   <commentList>
-    <comment ref="A67" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Ajouter les packs lieutenants</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="A104" authorId="0" shapeId="0">
       <text>
         <r>
@@ -107,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3490" uniqueCount="1365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3897" uniqueCount="1388">
   <si>
     <t>Warrior</t>
   </si>
@@ -4209,6 +4195,75 @@
   </si>
   <si>
     <t>DemonLord</t>
+  </si>
+  <si>
+    <t>Dark Priest</t>
+  </si>
+  <si>
+    <t>Chaos Beast</t>
+  </si>
+  <si>
+    <t>Blood Ape</t>
+  </si>
+  <si>
+    <t>Deep Elf</t>
+  </si>
+  <si>
+    <t>Troll</t>
+  </si>
+  <si>
+    <t>Shade</t>
+  </si>
+  <si>
+    <t>Lava Beetle</t>
+  </si>
+  <si>
+    <t>Medusa</t>
+  </si>
+  <si>
+    <t>Wendigo</t>
+  </si>
+  <si>
+    <t>Ice Wyrm</t>
+  </si>
+  <si>
+    <t>DarkPriest</t>
+  </si>
+  <si>
+    <t>LavaBeetle</t>
+  </si>
+  <si>
+    <t>IceWyrm</t>
+  </si>
+  <si>
+    <t>BloodApe</t>
+  </si>
+  <si>
+    <t>ChaosBeast</t>
+  </si>
+  <si>
+    <t>DeepElf</t>
+  </si>
+  <si>
+    <t>Crow Hag</t>
+  </si>
+  <si>
+    <t>CrowHag</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>ACT</t>
+  </si>
+  <si>
+    <t>MONSTER_STAT</t>
+  </si>
+  <si>
+    <t>MONSTER_DEFENSE</t>
+  </si>
+  <si>
+    <t>MONSTER_ATTACK</t>
   </si>
 </sst>
 </file>
@@ -5313,10 +5368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T683"/>
+  <dimension ref="A1:T797"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A628" workbookViewId="0">
-      <selection activeCell="D643" sqref="D643"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A797" sqref="A797"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26058,7 +26113,7 @@
         <v>monstertrait.civilized</v>
       </c>
       <c r="D626" t="str">
-        <f>LOWER(B626)&amp;".png"</f>
+        <f t="shared" ref="D626:D635" si="84">LOWER(B626)&amp;".png"</f>
         <v>civilized.png</v>
       </c>
       <c r="K626" t="str">
@@ -26073,15 +26128,15 @@
         <v>1297</v>
       </c>
       <c r="C627" t="str">
-        <f t="shared" ref="C627:C635" si="84">LOWER(REPLACE(A$625,SEARCH("_",A$625),1,""))&amp;"."&amp;LOWER(B627)</f>
+        <f t="shared" ref="C627:C635" si="85">LOWER(REPLACE(A$625,SEARCH("_",A$625),1,""))&amp;"."&amp;LOWER(B627)</f>
         <v>monstertrait.cold</v>
       </c>
       <c r="D627" t="str">
-        <f>LOWER(B627)&amp;".png"</f>
+        <f t="shared" si="84"/>
         <v>cold.png</v>
       </c>
       <c r="K627" t="str">
-        <f t="shared" ref="K627:K629" si="85">"insert into "&amp;A$625&amp;" ("&amp;B$625&amp;", "&amp;C$625&amp;", "&amp;D$625&amp;")
+        <f t="shared" ref="K627:K629" si="86">"insert into "&amp;A$625&amp;" ("&amp;B$625&amp;", "&amp;C$625&amp;", "&amp;D$625&amp;")
 values ('"&amp;B627&amp;"', '"&amp;C627&amp;"','"&amp;D627&amp;"');"</f>
         <v>insert into MONSTER_TRAIT (NAME, MESSAGE_CODE, ICON)
 values ('Cold', 'monstertrait.cold','cold.png');</v>
@@ -26092,15 +26147,15 @@
         <v>1298</v>
       </c>
       <c r="C628" t="str">
+        <f t="shared" si="85"/>
+        <v>monstertrait.dark</v>
+      </c>
+      <c r="D628" t="str">
         <f t="shared" si="84"/>
-        <v>monstertrait.dark</v>
-      </c>
-      <c r="D628" t="str">
-        <f>LOWER(B628)&amp;".png"</f>
         <v>dark.png</v>
       </c>
       <c r="K628" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>insert into MONSTER_TRAIT (NAME, MESSAGE_CODE, ICON)
 values ('Dark', 'monstertrait.dark','dark.png');</v>
       </c>
@@ -26110,15 +26165,15 @@
         <v>1299</v>
       </c>
       <c r="C629" t="str">
+        <f t="shared" si="85"/>
+        <v>monstertrait.hot</v>
+      </c>
+      <c r="D629" t="str">
         <f t="shared" si="84"/>
-        <v>monstertrait.hot</v>
-      </c>
-      <c r="D629" t="str">
-        <f>LOWER(B629)&amp;".png"</f>
         <v>hot.png</v>
       </c>
       <c r="K629" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>insert into MONSTER_TRAIT (NAME, MESSAGE_CODE, ICON)
 values ('Hot', 'monstertrait.hot','hot.png');</v>
       </c>
@@ -26128,11 +26183,11 @@
         <v>1300</v>
       </c>
       <c r="C630" t="str">
+        <f t="shared" si="85"/>
+        <v>monstertrait.building</v>
+      </c>
+      <c r="D630" t="str">
         <f t="shared" si="84"/>
-        <v>monstertrait.building</v>
-      </c>
-      <c r="D630" t="str">
-        <f>LOWER(B630)&amp;".png"</f>
         <v>building.png</v>
       </c>
       <c r="K630" t="str">
@@ -26147,15 +26202,15 @@
         <v>1301</v>
       </c>
       <c r="C631" t="str">
+        <f t="shared" si="85"/>
+        <v>monstertrait.water</v>
+      </c>
+      <c r="D631" t="str">
         <f t="shared" si="84"/>
-        <v>monstertrait.water</v>
-      </c>
-      <c r="D631" t="str">
-        <f>LOWER(B631)&amp;".png"</f>
         <v>water.png</v>
       </c>
       <c r="K631" t="str">
-        <f t="shared" ref="K631:K633" si="86">"insert into "&amp;A$625&amp;" ("&amp;B$625&amp;", "&amp;C$625&amp;", "&amp;D$625&amp;")
+        <f t="shared" ref="K631:K633" si="87">"insert into "&amp;A$625&amp;" ("&amp;B$625&amp;", "&amp;C$625&amp;", "&amp;D$625&amp;")
 values ('"&amp;B631&amp;"', '"&amp;C631&amp;"','"&amp;D631&amp;"');"</f>
         <v>insert into MONSTER_TRAIT (NAME, MESSAGE_CODE, ICON)
 values ('Water', 'monstertrait.water','water.png');</v>
@@ -26166,15 +26221,15 @@
         <v>1302</v>
       </c>
       <c r="C632" t="str">
+        <f t="shared" si="85"/>
+        <v>monstertrait.mountain</v>
+      </c>
+      <c r="D632" t="str">
         <f t="shared" si="84"/>
-        <v>monstertrait.mountain</v>
-      </c>
-      <c r="D632" t="str">
-        <f>LOWER(B632)&amp;".png"</f>
         <v>mountain.png</v>
       </c>
       <c r="K632" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>insert into MONSTER_TRAIT (NAME, MESSAGE_CODE, ICON)
 values ('Mountain', 'monstertrait.mountain','mountain.png');</v>
       </c>
@@ -26184,15 +26239,15 @@
         <v>1303</v>
       </c>
       <c r="C633" t="str">
+        <f t="shared" si="85"/>
+        <v>monstertrait.wilderness</v>
+      </c>
+      <c r="D633" t="str">
         <f t="shared" si="84"/>
-        <v>monstertrait.wilderness</v>
-      </c>
-      <c r="D633" t="str">
-        <f>LOWER(B633)&amp;".png"</f>
         <v>wilderness.png</v>
       </c>
       <c r="K633" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>insert into MONSTER_TRAIT (NAME, MESSAGE_CODE, ICON)
 values ('Wilderness', 'monstertrait.wilderness','wilderness.png');</v>
       </c>
@@ -26202,15 +26257,15 @@
         <v>1304</v>
       </c>
       <c r="C634" t="str">
+        <f t="shared" si="85"/>
+        <v>monstertrait.cursed</v>
+      </c>
+      <c r="D634" t="str">
         <f t="shared" si="84"/>
-        <v>monstertrait.cursed</v>
-      </c>
-      <c r="D634" t="str">
-        <f>LOWER(B634)&amp;".png"</f>
         <v>cursed.png</v>
       </c>
       <c r="K634" t="str">
-        <f t="shared" ref="K634:K635" si="87">"insert into "&amp;A$625&amp;" ("&amp;B$625&amp;", "&amp;C$625&amp;", "&amp;D$625&amp;")
+        <f t="shared" ref="K634:K635" si="88">"insert into "&amp;A$625&amp;" ("&amp;B$625&amp;", "&amp;C$625&amp;", "&amp;D$625&amp;")
 values ('"&amp;B634&amp;"', '"&amp;C634&amp;"','"&amp;D634&amp;"');"</f>
         <v>insert into MONSTER_TRAIT (NAME, MESSAGE_CODE, ICON)
 values ('Cursed', 'monstertrait.cursed','cursed.png');</v>
@@ -26221,15 +26276,15 @@
         <v>1305</v>
       </c>
       <c r="C635" t="str">
+        <f t="shared" si="85"/>
+        <v>monstertrait.cave</v>
+      </c>
+      <c r="D635" t="str">
         <f t="shared" si="84"/>
-        <v>monstertrait.cave</v>
-      </c>
-      <c r="D635" t="str">
-        <f>LOWER(B635)&amp;".png"</f>
         <v>cave.png</v>
       </c>
       <c r="K635" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>insert into MONSTER_TRAIT (NAME, MESSAGE_CODE, ICON)
 values ('Cave', 'monstertrait.cave','cave.png');</v>
       </c>
@@ -26265,11 +26320,11 @@
         <v>1307</v>
       </c>
       <c r="C638" t="str">
-        <f t="shared" ref="C638:C640" si="88">LOWER(REPLACE(A$636,SEARCH("_",A$636),1,""))&amp;"."&amp;LOWER(B638)</f>
+        <f t="shared" ref="C638:C640" si="89">LOWER(REPLACE(A$636,SEARCH("_",A$636),1,""))&amp;"."&amp;LOWER(B638)</f>
         <v>monstersize.medium</v>
       </c>
       <c r="K638" t="str">
-        <f t="shared" ref="K638:K640" si="89">"insert into "&amp;A$636&amp;" ("&amp;B$636&amp;", "&amp;C$636&amp;")
+        <f t="shared" ref="K638:K640" si="90">"insert into "&amp;A$636&amp;" ("&amp;B$636&amp;", "&amp;C$636&amp;")
 values ('"&amp;B638&amp;"', '"&amp;C638&amp;"');"</f>
         <v>insert into MONSTER_SIZE (NAME, MESSAGE_CODE)
 values ('Medium', 'monstersize.medium');</v>
@@ -26280,11 +26335,11 @@
         <v>1324</v>
       </c>
       <c r="C639" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>monstersize.huge</v>
       </c>
       <c r="K639" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>insert into MONSTER_SIZE (NAME, MESSAGE_CODE)
 values ('Huge', 'monstersize.huge');</v>
       </c>
@@ -26294,11 +26349,11 @@
         <v>1308</v>
       </c>
       <c r="C640" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>monstersize.massive</v>
       </c>
       <c r="K640" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>insert into MONSTER_SIZE (NAME, MESSAGE_CODE)
 values ('Massive', 'monstersize.massive');</v>
       </c>
@@ -26394,7 +26449,7 @@
         <v>63</v>
       </c>
       <c r="D644" t="str">
-        <f t="shared" ref="D644:D680" si="90">LOWER(REPLACE(A$642,SEARCH("_",A$642),1,""))&amp;"."&amp;LOWER(K644)&amp;"."&amp;LOWER(C644)</f>
+        <f t="shared" ref="D644:D696" si="91">LOWER(REPLACE(A$642,SEARCH("_",A$642),1,""))&amp;"."&amp;LOWER(K644)&amp;"."&amp;LOWER(C644)</f>
         <v>monstergroup.zombie.d2e</v>
       </c>
       <c r="E644" t="s">
@@ -26419,19 +26474,19 @@
         <v>1310</v>
       </c>
       <c r="P644" t="str">
-        <f t="shared" ref="P644:P680" si="91">"insert into "&amp;A$642&amp;" ("&amp;B$642&amp;", "&amp;C$642&amp;", "&amp;D$642&amp;", "&amp;E$642&amp;", "&amp;F$642&amp;", "&amp;I$642&amp;", "&amp;J$642&amp;")
+        <f t="shared" ref="P644:P690" si="92">"insert into "&amp;A$642&amp;" ("&amp;B$642&amp;", "&amp;C$642&amp;", "&amp;D$642&amp;", "&amp;E$642&amp;", "&amp;F$642&amp;", "&amp;I$642&amp;", "&amp;J$642&amp;")
 values ('"&amp;B644&amp;"', '"&amp;C644&amp;"', '"&amp;D644&amp;"', '"&amp;E644&amp;"', '"&amp;F644&amp;"', "&amp;I644&amp;", "&amp;J644&amp;");"</f>
         <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
 values ('Zombie', 'D2E', 'monstergroup.zombie.d2e', 'Melee', 'Small', 1, 4);</v>
       </c>
       <c r="Q644" t="str">
-        <f t="shared" ref="Q644:Q680" si="92">"insert into "&amp;A$642&amp;"_TRAIT ("&amp;A$642&amp;", "&amp;C$642&amp;", MONSTER_TRAIT)
+        <f t="shared" ref="Q644:Q689" si="93">"insert into "&amp;A$642&amp;"_TRAIT ("&amp;A$642&amp;", "&amp;C$642&amp;", MONSTER_TRAIT)
 values ('"&amp;B644&amp;"', '"&amp;C644&amp;"', '"&amp;G644&amp;"');"</f>
         <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
 values ('Zombie', 'D2E', 'Building');</v>
       </c>
       <c r="R644" t="str">
-        <f t="shared" ref="R644:R680" si="93">"insert into "&amp;A$642&amp;"_TRAIT ("&amp;A$642&amp;", "&amp;C$642&amp;", MONSTER_TRAIT)
+        <f t="shared" ref="R644:R689" si="94">"insert into "&amp;A$642&amp;"_TRAIT ("&amp;A$642&amp;", "&amp;C$642&amp;", MONSTER_TRAIT)
 values ('"&amp;B644&amp;"', '"&amp;C644&amp;"', '"&amp;H644&amp;"');"</f>
         <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
 values ('Zombie', 'D2E', 'Cursed');</v>
@@ -26445,7 +26500,7 @@
         <v>63</v>
       </c>
       <c r="D645" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>monstergroup.cavespider.d2e</v>
       </c>
       <c r="E645" t="s">
@@ -26470,17 +26525,17 @@
         <v>1349</v>
       </c>
       <c r="P645" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
 values ('Cave Spider', 'D2E', 'monstergroup.cavespider.d2e', 'Melee', 'Small', 1, 4);</v>
       </c>
       <c r="Q645" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
 values ('Cave Spider', 'D2E', 'Wilderness');</v>
       </c>
       <c r="R645" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
 values ('Cave Spider', 'D2E', 'Cave');</v>
       </c>
@@ -26493,7 +26548,7 @@
         <v>63</v>
       </c>
       <c r="D646" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>monstergroup.fleshmoulders.d2e</v>
       </c>
       <c r="E646" t="s">
@@ -26518,17 +26573,17 @@
         <v>1350</v>
       </c>
       <c r="P646" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
 values ('Flesh Moulders', 'D2E', 'monstergroup.fleshmoulders.d2e', 'Ranged', 'Small', 1, 3);</v>
       </c>
       <c r="Q646" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
 values ('Flesh Moulders', 'D2E', 'Cursed');</v>
       </c>
       <c r="R646" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
 values ('Flesh Moulders', 'D2E', 'Civilized');</v>
       </c>
@@ -26541,7 +26596,7 @@
         <v>63</v>
       </c>
       <c r="D647" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>monstergroup.barghest.d2e</v>
       </c>
       <c r="E647" t="s">
@@ -26566,17 +26621,17 @@
         <v>1312</v>
       </c>
       <c r="P647" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
 values ('Barghest', 'D2E', 'monstergroup.barghest.d2e', 'Melee', 'Medium', 1, 3);</v>
       </c>
       <c r="Q647" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
 values ('Barghest', 'D2E', 'Wilderness');</v>
       </c>
       <c r="R647" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
 values ('Barghest', 'D2E', 'Dark');</v>
       </c>
@@ -26589,7 +26644,7 @@
         <v>63</v>
       </c>
       <c r="D648" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>monstergroup.ettin.d2e</v>
       </c>
       <c r="E648" t="s">
@@ -26614,17 +26669,17 @@
         <v>1314</v>
       </c>
       <c r="P648" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
 values ('Ettin', 'D2E', 'monstergroup.ettin.d2e', 'Melee', 'Huge', 1, 1);</v>
       </c>
       <c r="Q648" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
 values ('Ettin', 'D2E', 'Mountain');</v>
       </c>
       <c r="R648" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
 values ('Ettin', 'D2E', 'Cave');</v>
       </c>
@@ -26637,7 +26692,7 @@
         <v>63</v>
       </c>
       <c r="D649" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>monstergroup.elemental.d2e</v>
       </c>
       <c r="E649" t="s">
@@ -26662,17 +26717,17 @@
         <v>1315</v>
       </c>
       <c r="P649" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
 values ('Elemental', 'D2E', 'monstergroup.elemental.d2e', 'Ranged', 'Huge', 1, 1);</v>
       </c>
       <c r="Q649" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
 values ('Elemental', 'D2E', 'Cold');</v>
       </c>
       <c r="R649" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
 values ('Elemental', 'D2E', 'Hot');</v>
       </c>
@@ -26685,7 +26740,7 @@
         <v>63</v>
       </c>
       <c r="D650" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>monstergroup.merriod.d2e</v>
       </c>
       <c r="E650" t="s">
@@ -26710,17 +26765,17 @@
         <v>1316</v>
       </c>
       <c r="P650" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
 values ('Merriod', 'D2E', 'monstergroup.merriod.d2e', 'Melee', 'Huge', 1, 1);</v>
       </c>
       <c r="Q650" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
 values ('Merriod', 'D2E', 'Wilderness');</v>
       </c>
       <c r="R650" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
 values ('Merriod', 'D2E', 'Water');</v>
       </c>
@@ -26733,7 +26788,7 @@
         <v>63</v>
       </c>
       <c r="D651" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>monstergroup.shadowdragon.d2e</v>
       </c>
       <c r="E651" t="s">
@@ -26758,17 +26813,17 @@
         <v>1351</v>
       </c>
       <c r="P651" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
 values ('Shadow Dragon', 'D2E', 'monstergroup.shadowdragon.d2e', 'Melee', 'Massive', 1, 1);</v>
       </c>
       <c r="Q651" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
 values ('Shadow Dragon', 'D2E', 'Dark');</v>
       </c>
       <c r="R651" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
 values ('Shadow Dragon', 'D2E', 'Cave');</v>
       </c>
@@ -26781,7 +26836,7 @@
         <v>71</v>
       </c>
       <c r="D652" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>monstergroup.fireimp.lotw</v>
       </c>
       <c r="E652" t="s">
@@ -26806,17 +26861,17 @@
         <v>1352</v>
       </c>
       <c r="P652" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
 values ('Fire Imp', 'LotW', 'monstergroup.fireimp.lotw', 'Ranged', 'Small', 2, 3);</v>
       </c>
       <c r="Q652" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
 values ('Fire Imp', 'LotW', 'Hot');</v>
       </c>
       <c r="R652" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
 values ('Fire Imp', 'LotW', 'Cursed');</v>
       </c>
@@ -26829,7 +26884,7 @@
         <v>71</v>
       </c>
       <c r="D653" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>monstergroup.hybridsentinel.lotw</v>
       </c>
       <c r="E653" t="s">
@@ -26854,17 +26909,17 @@
         <v>1353</v>
       </c>
       <c r="P653" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
 values ('Hybrid Sentinel', 'LotW', 'monstergroup.hybridsentinel.lotw', 'Melee', 'Small', 1, 2);</v>
       </c>
       <c r="Q653" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
 values ('Hybrid Sentinel', 'LotW', 'Mountain');</v>
       </c>
       <c r="R653" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
 values ('Hybrid Sentinel', 'LotW', 'Cave');</v>
       </c>
@@ -26877,7 +26932,7 @@
         <v>64</v>
       </c>
       <c r="D654" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>monstergroup.goblinwitcher.lor</v>
       </c>
       <c r="E654" t="s">
@@ -26902,17 +26957,17 @@
         <v>1354</v>
       </c>
       <c r="P654" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
 values ('Goblin Witcher', 'LoR', 'monstergroup.goblinwitcher.lor', 'Ranged', 'Small', 1, 3);</v>
       </c>
       <c r="Q654" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
 values ('Goblin Witcher', 'LoR', 'Building');</v>
       </c>
       <c r="R654" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
 values ('Goblin Witcher', 'LoR', 'Cursed');</v>
       </c>
@@ -26925,7 +26980,7 @@
         <v>64</v>
       </c>
       <c r="D655" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>monstergroup.volucrixreaver.lor</v>
       </c>
       <c r="E655" t="s">
@@ -26950,17 +27005,17 @@
         <v>1355</v>
       </c>
       <c r="P655" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
 values ('Volucrix Reaver', 'LoR', 'monstergroup.volucrixreaver.lor', 'Melee', 'Small', 1, 3);</v>
       </c>
       <c r="Q655" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
 values ('Volucrix Reaver', 'LoR', 'Building');</v>
       </c>
       <c r="R655" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
 values ('Volucrix Reaver', 'LoR', 'Mountain');</v>
       </c>
@@ -26973,7 +27028,7 @@
         <v>64</v>
       </c>
       <c r="D656" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>monstergroup.arachyura.lor</v>
       </c>
       <c r="E656" t="s">
@@ -26998,1188 +27053,6236 @@
         <v>1322</v>
       </c>
       <c r="P656" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
 values ('Arachyura', 'LoR', 'monstergroup.arachyura.lor', 'Melee', 'Huge', 1, 1);</v>
       </c>
       <c r="Q656" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
 values ('Arachyura', 'LoR', 'Wilderness');</v>
       </c>
       <c r="R656" t="str">
+        <f t="shared" si="94"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Arachyura', 'LoR', 'Cursed');</v>
+      </c>
+    </row>
+    <row r="657" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B657" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C657" t="s">
+        <v>64</v>
+      </c>
+      <c r="D657" t="str">
+        <f t="shared" si="91"/>
+        <v>monstergroup.carriondrake.lor</v>
+      </c>
+      <c r="E657" t="s">
+        <v>399</v>
+      </c>
+      <c r="F657" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G657" t="s">
+        <v>1301</v>
+      </c>
+      <c r="H657" t="s">
+        <v>1298</v>
+      </c>
+      <c r="I657">
+        <v>1</v>
+      </c>
+      <c r="J657">
+        <v>2</v>
+      </c>
+      <c r="K657" t="s">
+        <v>1356</v>
+      </c>
+      <c r="P657" t="str">
+        <f t="shared" si="92"/>
+        <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
+values ('Carrion Drake', 'LoR', 'monstergroup.carriondrake.lor', 'Melee', 'Small', 1, 2);</v>
+      </c>
+      <c r="Q657" t="str">
         <f t="shared" si="93"/>
         <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
-values ('Arachyura', 'LoR', 'Cursed');</v>
-      </c>
-    </row>
-    <row r="657" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B657" t="s">
-        <v>1323</v>
-      </c>
-      <c r="C657" t="s">
-        <v>64</v>
-      </c>
-      <c r="D657" t="str">
-        <f t="shared" si="90"/>
-        <v>monstergroup.carriondrake.lor</v>
-      </c>
-      <c r="E657" t="s">
+values ('Carrion Drake', 'LoR', 'Water');</v>
+      </c>
+      <c r="R657" t="str">
+        <f t="shared" si="94"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Carrion Drake', 'LoR', 'Dark');</v>
+      </c>
+    </row>
+    <row r="658" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B658" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C658" t="s">
+        <v>72</v>
+      </c>
+      <c r="D658" t="str">
+        <f t="shared" si="91"/>
+        <v>monstergroup.harpy.tt</v>
+      </c>
+      <c r="E658" t="s">
         <v>399</v>
       </c>
-      <c r="F657" t="s">
+      <c r="F658" t="s">
         <v>1306</v>
       </c>
-      <c r="G657" t="s">
-        <v>1301</v>
-      </c>
-      <c r="H657" t="s">
-        <v>1298</v>
-      </c>
-      <c r="I657">
-        <v>1</v>
-      </c>
-      <c r="J657">
-        <v>2</v>
-      </c>
-      <c r="K657" t="s">
-        <v>1356</v>
-      </c>
-      <c r="P657" t="str">
-        <f t="shared" si="91"/>
+      <c r="G658" t="s">
+        <v>1303</v>
+      </c>
+      <c r="H658" t="s">
+        <v>1302</v>
+      </c>
+      <c r="I658">
+        <v>1</v>
+      </c>
+      <c r="J658">
+        <v>3</v>
+      </c>
+      <c r="K658" t="s">
+        <v>1325</v>
+      </c>
+      <c r="P658" t="str">
+        <f t="shared" si="92"/>
         <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
-values ('Carrion Drake', 'LoR', 'monstergroup.carriondrake.lor', 'Melee', 'Small', 1, 2);</v>
-      </c>
-      <c r="Q657" t="str">
-        <f t="shared" si="92"/>
-        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
-values ('Carrion Drake', 'LoR', 'Water');</v>
-      </c>
-      <c r="R657" t="str">
+values ('Harpy', 'TT', 'monstergroup.harpy.tt', 'Melee', 'Small', 1, 3);</v>
+      </c>
+      <c r="Q658" t="str">
         <f t="shared" si="93"/>
         <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
-values ('Carrion Drake', 'LoR', 'Dark');</v>
-      </c>
-    </row>
-    <row r="658" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B658" t="s">
-        <v>1325</v>
-      </c>
-      <c r="C658" t="s">
+values ('Harpy', 'TT', 'Wilderness');</v>
+      </c>
+      <c r="R658" t="str">
+        <f t="shared" si="94"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Harpy', 'TT', 'Mountain');</v>
+      </c>
+    </row>
+    <row r="659" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B659" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C659" t="s">
         <v>72</v>
       </c>
-      <c r="D658" t="str">
-        <f t="shared" si="90"/>
-        <v>monstergroup.harpy.tt</v>
-      </c>
-      <c r="E658" t="s">
+      <c r="D659" t="str">
+        <f t="shared" si="91"/>
+        <v>monstergroup.plagueworm.tt</v>
+      </c>
+      <c r="E659" t="s">
         <v>399</v>
       </c>
-      <c r="F658" t="s">
-        <v>1306</v>
-      </c>
-      <c r="G658" t="s">
-        <v>1303</v>
-      </c>
-      <c r="H658" t="s">
-        <v>1302</v>
-      </c>
-      <c r="I658">
-        <v>1</v>
-      </c>
-      <c r="J658">
-        <v>3</v>
-      </c>
-      <c r="K658" t="s">
-        <v>1325</v>
-      </c>
-      <c r="P658" t="str">
-        <f t="shared" si="91"/>
+      <c r="F659" t="s">
+        <v>1307</v>
+      </c>
+      <c r="G659" t="s">
+        <v>1301</v>
+      </c>
+      <c r="H659" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I659">
+        <v>1</v>
+      </c>
+      <c r="J659">
+        <v>2</v>
+      </c>
+      <c r="K659" t="s">
+        <v>1357</v>
+      </c>
+      <c r="P659" t="str">
+        <f t="shared" si="92"/>
         <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
-values ('Harpy', 'TT', 'monstergroup.harpy.tt', 'Melee', 'Small', 1, 3);</v>
-      </c>
-      <c r="Q658" t="str">
-        <f t="shared" si="92"/>
-        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
-values ('Harpy', 'TT', 'Wilderness');</v>
-      </c>
-      <c r="R658" t="str">
+values ('Plague Worm', 'TT', 'monstergroup.plagueworm.tt', 'Melee', 'Medium', 1, 2);</v>
+      </c>
+      <c r="Q659" t="str">
         <f t="shared" si="93"/>
         <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
-values ('Harpy', 'TT', 'Mountain');</v>
-      </c>
-    </row>
-    <row r="659" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B659" t="s">
-        <v>1326</v>
-      </c>
-      <c r="C659" t="s">
-        <v>72</v>
-      </c>
-      <c r="D659" t="str">
-        <f t="shared" si="90"/>
-        <v>monstergroup.plagueworm.tt</v>
-      </c>
-      <c r="E659" t="s">
+values ('Plague Worm', 'TT', 'Water');</v>
+      </c>
+      <c r="R659" t="str">
+        <f t="shared" si="94"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Plague Worm', 'TT', 'Cave');</v>
+      </c>
+    </row>
+    <row r="660" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B660" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C660" t="s">
+        <v>66</v>
+      </c>
+      <c r="D660" t="str">
+        <f t="shared" si="91"/>
+        <v>monstergroup.ratswarm.son</v>
+      </c>
+      <c r="E660" t="s">
         <v>399</v>
       </c>
-      <c r="F659" t="s">
+      <c r="F660" t="s">
         <v>1307</v>
       </c>
-      <c r="G659" t="s">
-        <v>1301</v>
-      </c>
-      <c r="H659" t="s">
-        <v>1305</v>
-      </c>
-      <c r="I659">
-        <v>1</v>
-      </c>
-      <c r="J659">
-        <v>2</v>
-      </c>
-      <c r="K659" t="s">
-        <v>1357</v>
-      </c>
-      <c r="P659" t="str">
-        <f t="shared" si="91"/>
+      <c r="G660" t="s">
+        <v>1300</v>
+      </c>
+      <c r="H660" t="s">
+        <v>1298</v>
+      </c>
+      <c r="I660">
+        <v>1</v>
+      </c>
+      <c r="J660">
+        <v>3</v>
+      </c>
+      <c r="K660" t="s">
+        <v>1358</v>
+      </c>
+      <c r="P660" t="str">
+        <f t="shared" si="92"/>
         <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
-values ('Plague Worm', 'TT', 'monstergroup.plagueworm.tt', 'Melee', 'Medium', 1, 2);</v>
-      </c>
-      <c r="Q659" t="str">
-        <f t="shared" si="92"/>
-        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
-values ('Plague Worm', 'TT', 'Water');</v>
-      </c>
-      <c r="R659" t="str">
+values ('Rat Swarm', 'SoN', 'monstergroup.ratswarm.son', 'Melee', 'Medium', 1, 3);</v>
+      </c>
+      <c r="Q660" t="str">
         <f t="shared" si="93"/>
         <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
-values ('Plague Worm', 'TT', 'Cave');</v>
-      </c>
-    </row>
-    <row r="660" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B660" t="s">
-        <v>1327</v>
-      </c>
-      <c r="C660" t="s">
+values ('Rat Swarm', 'SoN', 'Building');</v>
+      </c>
+      <c r="R660" t="str">
+        <f t="shared" si="94"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Rat Swarm', 'SoN', 'Dark');</v>
+      </c>
+    </row>
+    <row r="661" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B661" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C661" t="s">
         <v>66</v>
       </c>
-      <c r="D660" t="str">
-        <f t="shared" si="90"/>
-        <v>monstergroup.ratswarm.son</v>
-      </c>
-      <c r="E660" t="s">
+      <c r="D661" t="str">
+        <f t="shared" si="91"/>
+        <v>monstergroup.changelin.son</v>
+      </c>
+      <c r="E661" t="s">
         <v>399</v>
       </c>
-      <c r="F660" t="s">
-        <v>1307</v>
-      </c>
-      <c r="G660" t="s">
-        <v>1300</v>
-      </c>
-      <c r="H660" t="s">
-        <v>1298</v>
-      </c>
-      <c r="I660">
-        <v>1</v>
-      </c>
-      <c r="J660">
+      <c r="F661" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G661" t="s">
+        <v>1304</v>
+      </c>
+      <c r="H661" t="s">
+        <v>1296</v>
+      </c>
+      <c r="I661">
+        <v>1</v>
+      </c>
+      <c r="J661">
         <v>3</v>
       </c>
-      <c r="K660" t="s">
-        <v>1358</v>
-      </c>
-      <c r="P660" t="str">
-        <f t="shared" si="91"/>
+      <c r="K661" t="s">
+        <v>1328</v>
+      </c>
+      <c r="P661" t="str">
+        <f t="shared" si="92"/>
         <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
-values ('Rat Swarm', 'SoN', 'monstergroup.ratswarm.son', 'Melee', 'Medium', 1, 3);</v>
-      </c>
-      <c r="Q660" t="str">
-        <f t="shared" si="92"/>
-        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
-values ('Rat Swarm', 'SoN', 'Building');</v>
-      </c>
-      <c r="R660" t="str">
+values ('Changelin', 'SoN', 'monstergroup.changelin.son', 'Melee', 'Small', 1, 3);</v>
+      </c>
+      <c r="Q661" t="str">
         <f t="shared" si="93"/>
         <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
-values ('Rat Swarm', 'SoN', 'Dark');</v>
-      </c>
-    </row>
-    <row r="661" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B661" t="s">
-        <v>1328</v>
-      </c>
-      <c r="C661" t="s">
+values ('Changelin', 'SoN', 'Cursed');</v>
+      </c>
+      <c r="R661" t="str">
+        <f t="shared" si="94"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Changelin', 'SoN', 'Civilized');</v>
+      </c>
+    </row>
+    <row r="662" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B662" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C662" t="s">
         <v>66</v>
       </c>
-      <c r="D661" t="str">
-        <f t="shared" si="90"/>
-        <v>monstergroup.changelin.son</v>
-      </c>
-      <c r="E661" t="s">
+      <c r="D662" t="str">
+        <f t="shared" si="91"/>
+        <v>monstergroup.ironbound.son</v>
+      </c>
+      <c r="E662" t="s">
         <v>399</v>
       </c>
-      <c r="F661" t="s">
+      <c r="F662" t="s">
         <v>1306</v>
       </c>
-      <c r="G661" t="s">
-        <v>1304</v>
-      </c>
-      <c r="H661" t="s">
+      <c r="G662" t="s">
         <v>1296</v>
       </c>
-      <c r="I661">
-        <v>1</v>
-      </c>
-      <c r="J661">
-        <v>3</v>
-      </c>
-      <c r="K661" t="s">
-        <v>1328</v>
-      </c>
-      <c r="P661" t="str">
-        <f t="shared" si="91"/>
+      <c r="H662" t="s">
+        <v>1300</v>
+      </c>
+      <c r="I662">
+        <v>1</v>
+      </c>
+      <c r="J662">
+        <v>1</v>
+      </c>
+      <c r="K662" t="s">
+        <v>1329</v>
+      </c>
+      <c r="P662" t="str">
+        <f t="shared" si="92"/>
         <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
-values ('Changelin', 'SoN', 'monstergroup.changelin.son', 'Melee', 'Small', 1, 3);</v>
-      </c>
-      <c r="Q661" t="str">
-        <f t="shared" si="92"/>
-        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
-values ('Changelin', 'SoN', 'Cursed');</v>
-      </c>
-      <c r="R661" t="str">
+values ('Ironbound', 'SoN', 'monstergroup.ironbound.son', 'Melee', 'Small', 1, 1);</v>
+      </c>
+      <c r="Q662" t="str">
         <f t="shared" si="93"/>
         <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
-values ('Changelin', 'SoN', 'Civilized');</v>
-      </c>
-    </row>
-    <row r="662" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B662" t="s">
-        <v>1329</v>
-      </c>
-      <c r="C662" t="s">
+values ('Ironbound', 'SoN', 'Civilized');</v>
+      </c>
+      <c r="R662" t="str">
+        <f t="shared" si="94"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Ironbound', 'SoN', 'Building');</v>
+      </c>
+    </row>
+    <row r="663" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B663" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C663" t="s">
         <v>66</v>
       </c>
-      <c r="D662" t="str">
-        <f t="shared" si="90"/>
-        <v>monstergroup.ironbound.son</v>
-      </c>
-      <c r="E662" t="s">
+      <c r="D663" t="str">
+        <f t="shared" si="91"/>
+        <v>monstergroup.ynfernaelhulk.son</v>
+      </c>
+      <c r="E663" t="s">
         <v>399</v>
       </c>
-      <c r="F662" t="s">
-        <v>1306</v>
-      </c>
-      <c r="G662" t="s">
-        <v>1296</v>
-      </c>
-      <c r="H662" t="s">
-        <v>1300</v>
-      </c>
-      <c r="I662">
-        <v>1</v>
-      </c>
-      <c r="J662">
-        <v>1</v>
-      </c>
-      <c r="K662" t="s">
-        <v>1329</v>
-      </c>
-      <c r="P662" t="str">
-        <f t="shared" si="91"/>
+      <c r="F663" t="s">
+        <v>1324</v>
+      </c>
+      <c r="G663" t="s">
+        <v>1299</v>
+      </c>
+      <c r="H663" t="s">
+        <v>1304</v>
+      </c>
+      <c r="I663">
+        <v>1</v>
+      </c>
+      <c r="J663">
+        <v>1</v>
+      </c>
+      <c r="K663" t="s">
+        <v>1359</v>
+      </c>
+      <c r="P663" t="str">
+        <f t="shared" si="92"/>
         <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
-values ('Ironbound', 'SoN', 'monstergroup.ironbound.son', 'Melee', 'Small', 1, 1);</v>
-      </c>
-      <c r="Q662" t="str">
-        <f t="shared" si="92"/>
-        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
-values ('Ironbound', 'SoN', 'Civilized');</v>
-      </c>
-      <c r="R662" t="str">
+values ('Ynfernael Hulk', 'SoN', 'monstergroup.ynfernaelhulk.son', 'Melee', 'Huge', 1, 1);</v>
+      </c>
+      <c r="Q663" t="str">
         <f t="shared" si="93"/>
         <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
-values ('Ironbound', 'SoN', 'Building');</v>
-      </c>
-    </row>
-    <row r="663" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B663" t="s">
-        <v>1330</v>
-      </c>
-      <c r="C663" t="s">
-        <v>66</v>
-      </c>
-      <c r="D663" t="str">
-        <f t="shared" si="90"/>
-        <v>monstergroup.ynfernaelhulk.son</v>
-      </c>
-      <c r="E663" t="s">
-        <v>399</v>
-      </c>
-      <c r="F663" t="s">
-        <v>1324</v>
-      </c>
-      <c r="G663" t="s">
-        <v>1299</v>
-      </c>
-      <c r="H663" t="s">
-        <v>1304</v>
-      </c>
-      <c r="I663">
-        <v>1</v>
-      </c>
-      <c r="J663">
-        <v>1</v>
-      </c>
-      <c r="K663" t="s">
-        <v>1359</v>
-      </c>
-      <c r="P663" t="str">
+values ('Ynfernael Hulk', 'SoN', 'Hot');</v>
+      </c>
+      <c r="R663" t="str">
+        <f t="shared" si="94"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Ynfernael Hulk', 'SoN', 'Cursed');</v>
+      </c>
+    </row>
+    <row r="664" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B664" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C664" t="s">
+        <v>67</v>
+      </c>
+      <c r="D664" t="str">
         <f t="shared" si="91"/>
+        <v>monstergroup.bandit.mor</v>
+      </c>
+      <c r="E664" t="s">
+        <v>400</v>
+      </c>
+      <c r="F664" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G664" t="s">
+        <v>1303</v>
+      </c>
+      <c r="H664" t="s">
+        <v>1300</v>
+      </c>
+      <c r="I664">
+        <v>1</v>
+      </c>
+      <c r="J664">
+        <v>4</v>
+      </c>
+      <c r="K664" t="s">
+        <v>1331</v>
+      </c>
+      <c r="P664" t="str">
+        <f t="shared" si="92"/>
         <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
-values ('Ynfernael Hulk', 'SoN', 'monstergroup.ynfernaelhulk.son', 'Melee', 'Huge', 1, 1);</v>
-      </c>
-      <c r="Q663" t="str">
-        <f t="shared" si="92"/>
-        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
-values ('Ynfernael Hulk', 'SoN', 'Hot');</v>
-      </c>
-      <c r="R663" t="str">
+values ('Bandit', 'MoR', 'monstergroup.bandit.mor', 'Ranged', 'Small', 1, 4);</v>
+      </c>
+      <c r="Q664" t="str">
         <f t="shared" si="93"/>
         <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
-values ('Ynfernael Hulk', 'SoN', 'Cursed');</v>
-      </c>
-    </row>
-    <row r="664" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B664" t="s">
-        <v>1331</v>
-      </c>
-      <c r="C664" t="s">
+values ('Bandit', 'MoR', 'Wilderness');</v>
+      </c>
+      <c r="R664" t="str">
+        <f t="shared" si="94"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Bandit', 'MoR', 'Building');</v>
+      </c>
+    </row>
+    <row r="665" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B665" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C665" t="s">
         <v>67</v>
       </c>
-      <c r="D664" t="str">
-        <f t="shared" si="90"/>
-        <v>monstergroup.bandit.mor</v>
-      </c>
-      <c r="E664" t="s">
+      <c r="D665" t="str">
+        <f t="shared" si="91"/>
+        <v>monstergroup.wraith.mor</v>
+      </c>
+      <c r="E665" t="s">
         <v>400</v>
       </c>
-      <c r="F664" t="s">
+      <c r="F665" t="s">
         <v>1306</v>
       </c>
-      <c r="G664" t="s">
-        <v>1303</v>
-      </c>
-      <c r="H664" t="s">
-        <v>1300</v>
-      </c>
-      <c r="I664">
-        <v>1</v>
-      </c>
-      <c r="J664">
-        <v>4</v>
-      </c>
-      <c r="K664" t="s">
-        <v>1331</v>
-      </c>
-      <c r="P664" t="str">
-        <f t="shared" si="91"/>
+      <c r="G665" t="s">
+        <v>1296</v>
+      </c>
+      <c r="H665" t="s">
+        <v>1304</v>
+      </c>
+      <c r="I665">
+        <v>1</v>
+      </c>
+      <c r="J665">
+        <v>2</v>
+      </c>
+      <c r="K665" t="s">
+        <v>1332</v>
+      </c>
+      <c r="P665" t="str">
+        <f t="shared" si="92"/>
         <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
-values ('Bandit', 'MoR', 'monstergroup.bandit.mor', 'Ranged', 'Small', 1, 4);</v>
-      </c>
-      <c r="Q664" t="str">
-        <f t="shared" si="92"/>
-        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
-values ('Bandit', 'MoR', 'Wilderness');</v>
-      </c>
-      <c r="R664" t="str">
+values ('Wraith', 'MoR', 'monstergroup.wraith.mor', 'Ranged', 'Small', 1, 2);</v>
+      </c>
+      <c r="Q665" t="str">
         <f t="shared" si="93"/>
         <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
-values ('Bandit', 'MoR', 'Building');</v>
-      </c>
-    </row>
-    <row r="665" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B665" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C665" t="s">
-        <v>67</v>
-      </c>
-      <c r="D665" t="str">
-        <f t="shared" si="90"/>
-        <v>monstergroup.wraith.mor</v>
-      </c>
-      <c r="E665" t="s">
-        <v>400</v>
-      </c>
-      <c r="F665" t="s">
+values ('Wraith', 'MoR', 'Civilized');</v>
+      </c>
+      <c r="R665" t="str">
+        <f t="shared" si="94"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Wraith', 'MoR', 'Cursed');</v>
+      </c>
+    </row>
+    <row r="666" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A666" s="1">
+        <v>1</v>
+      </c>
+      <c r="B666" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C666" t="s">
+        <v>65</v>
+      </c>
+      <c r="D666" t="str">
+        <f t="shared" si="91"/>
+        <v>monstergroup.beastman.dck</v>
+      </c>
+      <c r="E666" t="s">
+        <v>399</v>
+      </c>
+      <c r="F666" t="s">
         <v>1306</v>
       </c>
-      <c r="G665" t="s">
-        <v>1296</v>
-      </c>
-      <c r="H665" t="s">
-        <v>1304</v>
-      </c>
-      <c r="I665">
-        <v>1</v>
-      </c>
-      <c r="J665">
-        <v>2</v>
-      </c>
-      <c r="K665" t="s">
-        <v>1332</v>
-      </c>
-      <c r="P665" t="str">
-        <f t="shared" si="91"/>
+      <c r="G666" t="s">
+        <v>1302</v>
+      </c>
+      <c r="H666" t="s">
+        <v>1303</v>
+      </c>
+      <c r="I666">
+        <v>1</v>
+      </c>
+      <c r="J666">
+        <v>3</v>
+      </c>
+      <c r="K666" t="s">
+        <v>1333</v>
+      </c>
+      <c r="P666" t="str">
+        <f t="shared" si="92"/>
         <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
-values ('Wraith', 'MoR', 'monstergroup.wraith.mor', 'Ranged', 'Small', 1, 2);</v>
-      </c>
-      <c r="Q665" t="str">
-        <f t="shared" si="92"/>
-        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
-values ('Wraith', 'MoR', 'Civilized');</v>
-      </c>
-      <c r="R665" t="str">
+values ('Beastman', 'DCK', 'monstergroup.beastman.dck', 'Melee', 'Small', 1, 3);</v>
+      </c>
+      <c r="Q666" t="str">
         <f t="shared" si="93"/>
         <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
-values ('Wraith', 'MoR', 'Cursed');</v>
-      </c>
-    </row>
-    <row r="666" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B666" t="s">
-        <v>1333</v>
-      </c>
-      <c r="C666" t="s">
+values ('Beastman', 'DCK', 'Mountain');</v>
+      </c>
+      <c r="R666" t="str">
+        <f t="shared" si="94"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Beastman', 'DCK', 'Wilderness');</v>
+      </c>
+    </row>
+    <row r="667" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A667" s="1">
+        <v>2</v>
+      </c>
+      <c r="B667" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C667" t="s">
         <v>65</v>
       </c>
-      <c r="D666" t="str">
-        <f t="shared" si="90"/>
-        <v>monstergroup.beastman.dck</v>
-      </c>
-      <c r="E666" t="s">
-        <v>399</v>
-      </c>
-      <c r="F666" t="s">
+      <c r="D667" t="str">
+        <f t="shared" si="91"/>
+        <v>monstergroup.skeletonarcher.dck</v>
+      </c>
+      <c r="E667" t="s">
+        <v>400</v>
+      </c>
+      <c r="F667" t="s">
         <v>1306</v>
       </c>
-      <c r="G666" t="s">
-        <v>1302</v>
-      </c>
-      <c r="H666" t="s">
-        <v>1303</v>
-      </c>
-      <c r="I666">
-        <v>1</v>
-      </c>
-      <c r="J666">
-        <v>3</v>
-      </c>
-      <c r="K666" t="s">
-        <v>1333</v>
-      </c>
-      <c r="P666" t="str">
-        <f t="shared" si="91"/>
+      <c r="G667" t="s">
+        <v>1296</v>
+      </c>
+      <c r="H667" t="s">
+        <v>1304</v>
+      </c>
+      <c r="I667">
+        <v>1</v>
+      </c>
+      <c r="J667">
+        <v>4</v>
+      </c>
+      <c r="K667" t="s">
+        <v>1360</v>
+      </c>
+      <c r="P667" t="str">
+        <f t="shared" si="92"/>
         <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
-values ('Beastman', 'DCK', 'monstergroup.beastman.dck', 'Melee', 'Small', 1, 3);</v>
-      </c>
-      <c r="Q666" t="str">
-        <f t="shared" si="92"/>
-        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
-values ('Beastman', 'DCK', 'Mountain');</v>
-      </c>
-      <c r="R666" t="str">
+values ('Skeleton Archer', 'DCK', 'monstergroup.skeletonarcher.dck', 'Ranged', 'Small', 1, 4);</v>
+      </c>
+      <c r="Q667" t="str">
         <f t="shared" si="93"/>
         <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
-values ('Beastman', 'DCK', 'Wilderness');</v>
-      </c>
-    </row>
-    <row r="667" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B667" t="s">
-        <v>1334</v>
-      </c>
-      <c r="C667" t="s">
+values ('Skeleton Archer', 'DCK', 'Civilized');</v>
+      </c>
+      <c r="R667" t="str">
+        <f t="shared" si="94"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Skeleton Archer', 'DCK', 'Cursed');</v>
+      </c>
+    </row>
+    <row r="668" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A668" s="1">
+        <v>3</v>
+      </c>
+      <c r="B668" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C668" t="s">
         <v>65</v>
       </c>
-      <c r="D667" t="str">
-        <f t="shared" si="90"/>
-        <v>monstergroup.skeletonarcher.dck</v>
-      </c>
-      <c r="E667" t="s">
+      <c r="D668" t="str">
+        <f t="shared" si="91"/>
+        <v>monstergroup.banespider.dck</v>
+      </c>
+      <c r="E668" t="s">
         <v>400</v>
       </c>
-      <c r="F667" t="s">
-        <v>1306</v>
-      </c>
-      <c r="G667" t="s">
-        <v>1296</v>
-      </c>
-      <c r="H667" t="s">
-        <v>1304</v>
-      </c>
-      <c r="I667">
-        <v>1</v>
-      </c>
-      <c r="J667">
-        <v>4</v>
-      </c>
-      <c r="K667" t="s">
-        <v>1360</v>
-      </c>
-      <c r="P667" t="str">
-        <f t="shared" si="91"/>
+      <c r="F668" t="s">
+        <v>1324</v>
+      </c>
+      <c r="G668" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H668" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I668">
+        <v>1</v>
+      </c>
+      <c r="J668">
+        <v>2</v>
+      </c>
+      <c r="K668" t="s">
+        <v>1361</v>
+      </c>
+      <c r="P668" t="str">
+        <f t="shared" si="92"/>
         <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
-values ('Skeleton Archer', 'DCK', 'monstergroup.skeletonarcher.dck', 'Ranged', 'Small', 1, 4);</v>
-      </c>
-      <c r="Q667" t="str">
-        <f t="shared" si="92"/>
-        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
-values ('Skeleton Archer', 'DCK', 'Civilized');</v>
-      </c>
-      <c r="R667" t="str">
+values ('Bane Spider', 'DCK', 'monstergroup.banespider.dck', 'Ranged', 'Huge', 1, 2);</v>
+      </c>
+      <c r="Q668" t="str">
         <f t="shared" si="93"/>
         <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
-values ('Skeleton Archer', 'DCK', 'Cursed');</v>
-      </c>
-    </row>
-    <row r="668" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B668" t="s">
-        <v>1335</v>
-      </c>
-      <c r="C668" t="s">
+values ('Bane Spider', 'DCK', 'Dark');</v>
+      </c>
+      <c r="R668" t="str">
+        <f t="shared" si="94"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Bane Spider', 'DCK', 'Cave');</v>
+      </c>
+    </row>
+    <row r="669" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A669" s="1">
+        <v>4</v>
+      </c>
+      <c r="B669" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C669" t="s">
         <v>65</v>
       </c>
-      <c r="D668" t="str">
-        <f t="shared" si="90"/>
-        <v>monstergroup.banespider.dck</v>
-      </c>
-      <c r="E668" t="s">
-        <v>400</v>
-      </c>
-      <c r="F668" t="s">
-        <v>1324</v>
-      </c>
-      <c r="G668" t="s">
-        <v>1298</v>
-      </c>
-      <c r="H668" t="s">
+      <c r="D669" t="str">
+        <f t="shared" si="91"/>
+        <v>monstergroup.razorwing.dck</v>
+      </c>
+      <c r="E669" t="s">
+        <v>399</v>
+      </c>
+      <c r="F669" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G669" t="s">
+        <v>1303</v>
+      </c>
+      <c r="H669" t="s">
         <v>1305</v>
       </c>
-      <c r="I668">
-        <v>1</v>
-      </c>
-      <c r="J668">
-        <v>2</v>
-      </c>
-      <c r="K668" t="s">
-        <v>1361</v>
-      </c>
-      <c r="P668" t="str">
-        <f t="shared" si="91"/>
+      <c r="I669">
+        <v>1</v>
+      </c>
+      <c r="J669">
+        <v>3</v>
+      </c>
+      <c r="K669" t="s">
+        <v>1336</v>
+      </c>
+      <c r="P669" t="str">
+        <f t="shared" si="92"/>
         <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
-values ('Bane Spider', 'DCK', 'monstergroup.banespider.dck', 'Ranged', 'Huge', 1, 2);</v>
-      </c>
-      <c r="Q668" t="str">
-        <f t="shared" si="92"/>
-        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
-values ('Bane Spider', 'DCK', 'Dark');</v>
-      </c>
-      <c r="R668" t="str">
+values ('Razorwing', 'DCK', 'monstergroup.razorwing.dck', 'Melee', 'Small', 1, 3);</v>
+      </c>
+      <c r="Q669" t="str">
         <f t="shared" si="93"/>
         <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
-values ('Bane Spider', 'DCK', 'Cave');</v>
-      </c>
-    </row>
-    <row r="669" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B669" t="s">
-        <v>1336</v>
-      </c>
-      <c r="C669" t="s">
+values ('Razorwing', 'DCK', 'Wilderness');</v>
+      </c>
+      <c r="R669" t="str">
+        <f t="shared" si="94"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Razorwing', 'DCK', 'Cave');</v>
+      </c>
+    </row>
+    <row r="670" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A670" s="1">
+        <v>5</v>
+      </c>
+      <c r="B670" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C670" t="s">
         <v>65</v>
       </c>
-      <c r="D669" t="str">
-        <f t="shared" si="90"/>
-        <v>monstergroup.razorwing.dck</v>
-      </c>
-      <c r="E669" t="s">
+      <c r="D670" t="str">
+        <f t="shared" si="91"/>
+        <v>monstergroup.hellhound.dck</v>
+      </c>
+      <c r="E670" t="s">
         <v>399</v>
       </c>
-      <c r="F669" t="s">
-        <v>1306</v>
-      </c>
-      <c r="G669" t="s">
-        <v>1303</v>
-      </c>
-      <c r="H669" t="s">
-        <v>1305</v>
-      </c>
-      <c r="I669">
-        <v>1</v>
-      </c>
-      <c r="J669">
+      <c r="F670" t="s">
+        <v>1307</v>
+      </c>
+      <c r="G670" t="s">
+        <v>1304</v>
+      </c>
+      <c r="H670" t="s">
+        <v>1299</v>
+      </c>
+      <c r="I670">
+        <v>1</v>
+      </c>
+      <c r="J670">
         <v>3</v>
       </c>
-      <c r="K669" t="s">
-        <v>1336</v>
-      </c>
-      <c r="P669" t="str">
-        <f t="shared" si="91"/>
+      <c r="K670" t="s">
+        <v>1362</v>
+      </c>
+      <c r="P670" t="str">
+        <f t="shared" si="92"/>
         <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
-values ('Razorwing', 'DCK', 'monstergroup.razorwing.dck', 'Melee', 'Small', 1, 3);</v>
-      </c>
-      <c r="Q669" t="str">
-        <f t="shared" si="92"/>
-        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
-values ('Razorwing', 'DCK', 'Wilderness');</v>
-      </c>
-      <c r="R669" t="str">
+values ('Hell Hound', 'DCK', 'monstergroup.hellhound.dck', 'Melee', 'Medium', 1, 3);</v>
+      </c>
+      <c r="Q670" t="str">
         <f t="shared" si="93"/>
         <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
-values ('Razorwing', 'DCK', 'Cave');</v>
-      </c>
-    </row>
-    <row r="670" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B670" t="s">
-        <v>1337</v>
-      </c>
-      <c r="C670" t="s">
+values ('Hell Hound', 'DCK', 'Cursed');</v>
+      </c>
+      <c r="R670" t="str">
+        <f t="shared" si="94"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Hell Hound', 'DCK', 'Hot');</v>
+      </c>
+    </row>
+    <row r="671" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A671" s="1">
+        <v>6</v>
+      </c>
+      <c r="B671" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C671" t="s">
         <v>65</v>
       </c>
-      <c r="D670" t="str">
-        <f t="shared" si="90"/>
-        <v>monstergroup.hellhound.dck</v>
-      </c>
-      <c r="E670" t="s">
-        <v>399</v>
-      </c>
-      <c r="F670" t="s">
-        <v>1307</v>
-      </c>
-      <c r="G670" t="s">
-        <v>1304</v>
-      </c>
-      <c r="H670" t="s">
-        <v>1299</v>
-      </c>
-      <c r="I670">
-        <v>1</v>
-      </c>
-      <c r="J670">
+      <c r="D671" t="str">
+        <f t="shared" si="91"/>
+        <v>monstergroup.sorcerer.dck</v>
+      </c>
+      <c r="E671" t="s">
+        <v>400</v>
+      </c>
+      <c r="F671" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G671" t="s">
+        <v>1296</v>
+      </c>
+      <c r="H671" t="s">
+        <v>1300</v>
+      </c>
+      <c r="I671">
+        <v>1</v>
+      </c>
+      <c r="J671">
         <v>3</v>
       </c>
-      <c r="K670" t="s">
-        <v>1362</v>
-      </c>
-      <c r="P670" t="str">
-        <f t="shared" si="91"/>
+      <c r="K671" t="s">
+        <v>1338</v>
+      </c>
+      <c r="P671" t="str">
+        <f t="shared" si="92"/>
         <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
-values ('Hell Hound', 'DCK', 'monstergroup.hellhound.dck', 'Melee', 'Medium', 1, 3);</v>
-      </c>
-      <c r="Q670" t="str">
-        <f t="shared" si="92"/>
-        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
-values ('Hell Hound', 'DCK', 'Cursed');</v>
-      </c>
-      <c r="R670" t="str">
+values ('Sorcerer', 'DCK', 'monstergroup.sorcerer.dck', 'Ranged', 'Small', 1, 3);</v>
+      </c>
+      <c r="Q671" t="str">
         <f t="shared" si="93"/>
         <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
-values ('Hell Hound', 'DCK', 'Hot');</v>
-      </c>
-    </row>
-    <row r="671" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B671" t="s">
-        <v>1338</v>
-      </c>
-      <c r="C671" t="s">
+values ('Sorcerer', 'DCK', 'Civilized');</v>
+      </c>
+      <c r="R671" t="str">
+        <f t="shared" si="94"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Sorcerer', 'DCK', 'Building');</v>
+      </c>
+    </row>
+    <row r="672" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A672" s="1">
+        <v>7</v>
+      </c>
+      <c r="B672" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C672" t="s">
         <v>65</v>
       </c>
-      <c r="D671" t="str">
-        <f t="shared" si="90"/>
-        <v>monstergroup.sorcerer.dck</v>
-      </c>
-      <c r="E671" t="s">
-        <v>400</v>
-      </c>
-      <c r="F671" t="s">
-        <v>1306</v>
-      </c>
-      <c r="G671" t="s">
-        <v>1296</v>
-      </c>
-      <c r="H671" t="s">
+      <c r="D672" t="str">
+        <f t="shared" si="91"/>
+        <v>monstergroup.ogre.dck</v>
+      </c>
+      <c r="E672" t="s">
+        <v>399</v>
+      </c>
+      <c r="F672" t="s">
+        <v>1324</v>
+      </c>
+      <c r="G672" t="s">
         <v>1300</v>
       </c>
-      <c r="I671">
-        <v>1</v>
-      </c>
-      <c r="J671">
-        <v>3</v>
-      </c>
-      <c r="K671" t="s">
-        <v>1338</v>
-      </c>
-      <c r="P671" t="str">
-        <f t="shared" si="91"/>
+      <c r="H672" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I672">
+        <v>1</v>
+      </c>
+      <c r="J672">
+        <v>1</v>
+      </c>
+      <c r="K672" t="s">
+        <v>1339</v>
+      </c>
+      <c r="P672" t="str">
+        <f t="shared" si="92"/>
         <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
-values ('Sorcerer', 'DCK', 'monstergroup.sorcerer.dck', 'Ranged', 'Small', 1, 3);</v>
-      </c>
-      <c r="Q671" t="str">
-        <f t="shared" si="92"/>
-        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
-values ('Sorcerer', 'DCK', 'Civilized');</v>
-      </c>
-      <c r="R671" t="str">
+values ('Ogre', 'DCK', 'monstergroup.ogre.dck', 'Melee', 'Huge', 1, 1);</v>
+      </c>
+      <c r="Q672" t="str">
         <f t="shared" si="93"/>
         <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
-values ('Sorcerer', 'DCK', 'Building');</v>
-      </c>
-    </row>
-    <row r="672" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B672" t="s">
-        <v>1339</v>
-      </c>
-      <c r="C672" t="s">
+values ('Ogre', 'DCK', 'Building');</v>
+      </c>
+      <c r="R672" t="str">
+        <f t="shared" si="94"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Ogre', 'DCK', 'Cave');</v>
+      </c>
+    </row>
+    <row r="673" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A673" s="1">
+        <v>8</v>
+      </c>
+      <c r="B673" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C673" t="s">
         <v>65</v>
       </c>
-      <c r="D672" t="str">
-        <f t="shared" si="90"/>
-        <v>monstergroup.ogre.dck</v>
-      </c>
-      <c r="E672" t="s">
-        <v>399</v>
-      </c>
-      <c r="F672" t="s">
+      <c r="D673" t="str">
+        <f t="shared" si="91"/>
+        <v>monstergroup.manticore.dck</v>
+      </c>
+      <c r="E673" t="s">
+        <v>400</v>
+      </c>
+      <c r="F673" t="s">
         <v>1324</v>
       </c>
-      <c r="G672" t="s">
-        <v>1300</v>
-      </c>
-      <c r="H672" t="s">
-        <v>1305</v>
-      </c>
-      <c r="I672">
-        <v>1</v>
-      </c>
-      <c r="J672">
-        <v>1</v>
-      </c>
-      <c r="K672" t="s">
-        <v>1339</v>
-      </c>
-      <c r="P672" t="str">
-        <f t="shared" si="91"/>
+      <c r="G673" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H673" t="s">
+        <v>1303</v>
+      </c>
+      <c r="I673">
+        <v>1</v>
+      </c>
+      <c r="J673">
+        <v>1</v>
+      </c>
+      <c r="K673" t="s">
+        <v>1340</v>
+      </c>
+      <c r="P673" t="str">
+        <f t="shared" si="92"/>
         <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
-values ('Ogre', 'DCK', 'monstergroup.ogre.dck', 'Melee', 'Huge', 1, 1);</v>
-      </c>
-      <c r="Q672" t="str">
-        <f t="shared" si="92"/>
-        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
-values ('Ogre', 'DCK', 'Building');</v>
-      </c>
-      <c r="R672" t="str">
+values ('Manticore', 'DCK', 'monstergroup.manticore.dck', 'Ranged', 'Huge', 1, 1);</v>
+      </c>
+      <c r="Q673" t="str">
         <f t="shared" si="93"/>
         <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
-values ('Ogre', 'DCK', 'Cave');</v>
-      </c>
-    </row>
-    <row r="673" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B673" t="s">
-        <v>1340</v>
-      </c>
-      <c r="C673" t="s">
+values ('Manticore', 'DCK', 'Dark');</v>
+      </c>
+      <c r="R673" t="str">
+        <f t="shared" si="94"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Manticore', 'DCK', 'Wilderness');</v>
+      </c>
+    </row>
+    <row r="674" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A674" s="1">
+        <v>9</v>
+      </c>
+      <c r="B674" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C674" t="s">
         <v>65</v>
       </c>
-      <c r="D673" t="str">
-        <f t="shared" si="90"/>
-        <v>monstergroup.manticore.dck</v>
-      </c>
-      <c r="E673" t="s">
+      <c r="D674" t="str">
+        <f t="shared" si="91"/>
+        <v>monstergroup.naga.dck</v>
+      </c>
+      <c r="E674" t="s">
         <v>400</v>
       </c>
-      <c r="F673" t="s">
+      <c r="F674" t="s">
         <v>1324</v>
       </c>
-      <c r="G673" t="s">
-        <v>1298</v>
-      </c>
-      <c r="H673" t="s">
-        <v>1303</v>
-      </c>
-      <c r="I673">
-        <v>1</v>
-      </c>
-      <c r="J673">
-        <v>1</v>
-      </c>
-      <c r="K673" t="s">
-        <v>1340</v>
-      </c>
-      <c r="P673" t="str">
-        <f t="shared" si="91"/>
+      <c r="G674" t="s">
+        <v>1301</v>
+      </c>
+      <c r="H674" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I674">
+        <v>1</v>
+      </c>
+      <c r="J674">
+        <v>2</v>
+      </c>
+      <c r="K674" t="s">
+        <v>1341</v>
+      </c>
+      <c r="P674" t="str">
+        <f t="shared" si="92"/>
         <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
-values ('Manticore', 'DCK', 'monstergroup.manticore.dck', 'Ranged', 'Huge', 1, 1);</v>
-      </c>
-      <c r="Q673" t="str">
-        <f t="shared" si="92"/>
-        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
-values ('Manticore', 'DCK', 'Dark');</v>
-      </c>
-      <c r="R673" t="str">
+values ('Naga', 'DCK', 'monstergroup.naga.dck', 'Ranged', 'Huge', 1, 2);</v>
+      </c>
+      <c r="Q674" t="str">
         <f t="shared" si="93"/>
         <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
-values ('Manticore', 'DCK', 'Wilderness');</v>
-      </c>
-    </row>
-    <row r="674" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B674" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C674" t="s">
+values ('Naga', 'DCK', 'Water');</v>
+      </c>
+      <c r="R674" t="str">
+        <f t="shared" si="94"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Naga', 'DCK', 'Cave');</v>
+      </c>
+    </row>
+    <row r="675" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A675" s="1">
+        <v>10</v>
+      </c>
+      <c r="B675" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C675" t="s">
         <v>65</v>
       </c>
-      <c r="D674" t="str">
-        <f t="shared" si="90"/>
-        <v>monstergroup.naga.dck</v>
-      </c>
-      <c r="E674" t="s">
-        <v>400</v>
-      </c>
-      <c r="F674" t="s">
+      <c r="D675" t="str">
+        <f t="shared" si="91"/>
+        <v>monstergroup.giant.dck</v>
+      </c>
+      <c r="E675" t="s">
+        <v>399</v>
+      </c>
+      <c r="F675" t="s">
         <v>1324</v>
       </c>
-      <c r="G674" t="s">
-        <v>1301</v>
-      </c>
-      <c r="H674" t="s">
-        <v>1305</v>
-      </c>
-      <c r="I674">
-        <v>1</v>
-      </c>
-      <c r="J674">
-        <v>2</v>
-      </c>
-      <c r="K674" t="s">
-        <v>1341</v>
-      </c>
-      <c r="P674" t="str">
-        <f t="shared" si="91"/>
+      <c r="G675" t="s">
+        <v>1302</v>
+      </c>
+      <c r="H675" t="s">
+        <v>1303</v>
+      </c>
+      <c r="I675">
+        <v>1</v>
+      </c>
+      <c r="J675">
+        <v>1</v>
+      </c>
+      <c r="K675" t="s">
+        <v>1342</v>
+      </c>
+      <c r="P675" t="str">
+        <f t="shared" si="92"/>
         <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
-values ('Naga', 'DCK', 'monstergroup.naga.dck', 'Ranged', 'Huge', 1, 2);</v>
-      </c>
-      <c r="Q674" t="str">
-        <f t="shared" si="92"/>
-        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
-values ('Naga', 'DCK', 'Water');</v>
-      </c>
-      <c r="R674" t="str">
+values ('Giant', 'DCK', 'monstergroup.giant.dck', 'Melee', 'Huge', 1, 1);</v>
+      </c>
+      <c r="Q675" t="str">
         <f t="shared" si="93"/>
         <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
-values ('Naga', 'DCK', 'Cave');</v>
-      </c>
-    </row>
-    <row r="675" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B675" t="s">
-        <v>1342</v>
-      </c>
-      <c r="C675" t="s">
+values ('Giant', 'DCK', 'Mountain');</v>
+      </c>
+      <c r="R675" t="str">
+        <f t="shared" si="94"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Giant', 'DCK', 'Wilderness');</v>
+      </c>
+    </row>
+    <row r="676" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A676" s="1">
+        <v>11</v>
+      </c>
+      <c r="B676" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C676" t="s">
         <v>65</v>
       </c>
-      <c r="D675" t="str">
-        <f t="shared" si="90"/>
-        <v>monstergroup.giant.dck</v>
-      </c>
-      <c r="E675" t="s">
-        <v>399</v>
-      </c>
-      <c r="F675" t="s">
-        <v>1324</v>
-      </c>
-      <c r="G675" t="s">
-        <v>1302</v>
-      </c>
-      <c r="H675" t="s">
-        <v>1303</v>
-      </c>
-      <c r="I675">
-        <v>1</v>
-      </c>
-      <c r="J675">
-        <v>1</v>
-      </c>
-      <c r="K675" t="s">
-        <v>1342</v>
-      </c>
-      <c r="P675" t="str">
+      <c r="D676" t="str">
         <f t="shared" si="91"/>
+        <v>monstergroup.cryptdragon.dck</v>
+      </c>
+      <c r="E676" t="s">
+        <v>400</v>
+      </c>
+      <c r="F676" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G676" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H676" t="s">
+        <v>1304</v>
+      </c>
+      <c r="I676">
+        <v>1</v>
+      </c>
+      <c r="J676">
+        <v>1</v>
+      </c>
+      <c r="K676" t="s">
+        <v>1363</v>
+      </c>
+      <c r="P676" t="str">
+        <f t="shared" si="92"/>
         <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
-values ('Giant', 'DCK', 'monstergroup.giant.dck', 'Melee', 'Huge', 1, 1);</v>
-      </c>
-      <c r="Q675" t="str">
-        <f t="shared" si="92"/>
-        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
-values ('Giant', 'DCK', 'Mountain');</v>
-      </c>
-      <c r="R675" t="str">
+values ('Crypt Dragon', 'DCK', 'monstergroup.cryptdragon.dck', 'Ranged', 'Massive', 1, 1);</v>
+      </c>
+      <c r="Q676" t="str">
         <f t="shared" si="93"/>
         <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
-values ('Giant', 'DCK', 'Wilderness');</v>
-      </c>
-    </row>
-    <row r="676" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B676" t="s">
-        <v>1343</v>
-      </c>
-      <c r="C676" t="s">
+values ('Crypt Dragon', 'DCK', 'Dark');</v>
+      </c>
+      <c r="R676" t="str">
+        <f t="shared" si="94"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Crypt Dragon', 'DCK', 'Cursed');</v>
+      </c>
+    </row>
+    <row r="677" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A677" s="1">
+        <v>12</v>
+      </c>
+      <c r="B677" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C677" t="s">
         <v>65</v>
       </c>
-      <c r="D676" t="str">
-        <f t="shared" si="90"/>
-        <v>monstergroup.cryptdragon.dck</v>
-      </c>
-      <c r="E676" t="s">
+      <c r="D677" t="str">
+        <f t="shared" si="91"/>
+        <v>monstergroup.demonlord.dck</v>
+      </c>
+      <c r="E677" t="s">
         <v>400</v>
       </c>
-      <c r="F676" t="s">
-        <v>1308</v>
-      </c>
-      <c r="G676" t="s">
-        <v>1298</v>
-      </c>
-      <c r="H676" t="s">
+      <c r="F677" t="s">
+        <v>1324</v>
+      </c>
+      <c r="G677" t="s">
         <v>1304</v>
       </c>
-      <c r="I676">
-        <v>1</v>
-      </c>
-      <c r="J676">
-        <v>1</v>
-      </c>
-      <c r="K676" t="s">
-        <v>1363</v>
-      </c>
-      <c r="P676" t="str">
-        <f t="shared" si="91"/>
+      <c r="H677" t="s">
+        <v>1299</v>
+      </c>
+      <c r="I677">
+        <v>1</v>
+      </c>
+      <c r="J677">
+        <v>1</v>
+      </c>
+      <c r="K677" t="s">
+        <v>1364</v>
+      </c>
+      <c r="P677" t="str">
+        <f t="shared" si="92"/>
         <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
-values ('Crypt Dragon', 'DCK', 'monstergroup.cryptdragon.dck', 'Ranged', 'Massive', 1, 1);</v>
-      </c>
-      <c r="Q676" t="str">
-        <f t="shared" si="92"/>
-        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
-values ('Crypt Dragon', 'DCK', 'Dark');</v>
-      </c>
-      <c r="R676" t="str">
+values ('Demon Lord', 'DCK', 'monstergroup.demonlord.dck', 'Ranged', 'Huge', 1, 1);</v>
+      </c>
+      <c r="Q677" t="str">
         <f t="shared" si="93"/>
         <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
-values ('Crypt Dragon', 'DCK', 'Cursed');</v>
-      </c>
-    </row>
-    <row r="677" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B677" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C677" t="s">
+values ('Demon Lord', 'DCK', 'Cursed');</v>
+      </c>
+      <c r="R677" t="str">
+        <f t="shared" si="94"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Demon Lord', 'DCK', 'Hot');</v>
+      </c>
+    </row>
+    <row r="678" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A678" s="1">
+        <v>1</v>
+      </c>
+      <c r="B678" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C678" t="s">
         <v>65</v>
       </c>
-      <c r="D677" t="str">
-        <f t="shared" si="90"/>
-        <v>monstergroup.demonlord.dck</v>
-      </c>
-      <c r="E677" t="s">
-        <v>400</v>
-      </c>
-      <c r="F677" t="s">
-        <v>1324</v>
-      </c>
-      <c r="G677" t="s">
-        <v>1304</v>
-      </c>
-      <c r="H677" t="s">
-        <v>1299</v>
-      </c>
-      <c r="I677">
-        <v>1</v>
-      </c>
-      <c r="J677">
-        <v>1</v>
-      </c>
-      <c r="K677" t="s">
-        <v>1364</v>
-      </c>
-      <c r="P677" t="str">
+      <c r="D678" t="str">
         <f t="shared" si="91"/>
+        <v>monstergroup.kobold.dck</v>
+      </c>
+      <c r="E678" t="s">
+        <v>399</v>
+      </c>
+      <c r="F678" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G678" t="s">
+        <v>1300</v>
+      </c>
+      <c r="H678" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I678">
+        <v>3</v>
+      </c>
+      <c r="J678">
+        <v>6</v>
+      </c>
+      <c r="K678" t="s">
+        <v>1345</v>
+      </c>
+      <c r="P678" t="str">
+        <f t="shared" si="92"/>
         <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
-values ('Demon Lord', 'DCK', 'monstergroup.demonlord.dck', 'Ranged', 'Huge', 1, 1);</v>
-      </c>
-      <c r="Q677" t="str">
-        <f t="shared" si="92"/>
-        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
-values ('Demon Lord', 'DCK', 'Cursed');</v>
-      </c>
-      <c r="R677" t="str">
+values ('Kobold', 'DCK', 'monstergroup.kobold.dck', 'Melee', 'Small', 3, 6);</v>
+      </c>
+      <c r="Q678" t="str">
         <f t="shared" si="93"/>
         <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
-values ('Demon Lord', 'DCK', 'Hot');</v>
-      </c>
-    </row>
-    <row r="678" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B678" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C678" t="s">
+values ('Kobold', 'DCK', 'Building');</v>
+      </c>
+      <c r="R678" t="str">
+        <f t="shared" si="94"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Kobold', 'DCK', 'Cave');</v>
+      </c>
+    </row>
+    <row r="679" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A679" s="1">
+        <v>2</v>
+      </c>
+      <c r="B679" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C679" t="s">
         <v>65</v>
       </c>
-      <c r="D678" t="str">
-        <f t="shared" si="90"/>
-        <v>monstergroup.kobold.dck</v>
-      </c>
-      <c r="E678" t="s">
+      <c r="D679" t="str">
+        <f t="shared" si="91"/>
+        <v>monstergroup.ferrox.dck</v>
+      </c>
+      <c r="E679" t="s">
         <v>399</v>
       </c>
-      <c r="F678" t="s">
+      <c r="F679" t="s">
         <v>1306</v>
       </c>
-      <c r="G678" t="s">
-        <v>1300</v>
-      </c>
-      <c r="H678" t="s">
+      <c r="G679" t="s">
+        <v>1301</v>
+      </c>
+      <c r="H679" t="s">
         <v>1305</v>
       </c>
-      <c r="I678">
+      <c r="I679">
+        <v>1</v>
+      </c>
+      <c r="J679">
         <v>3</v>
       </c>
-      <c r="J678">
-        <v>6</v>
-      </c>
-      <c r="K678" t="s">
-        <v>1345</v>
-      </c>
-      <c r="P678" t="str">
-        <f t="shared" si="91"/>
+      <c r="K679" t="s">
+        <v>1346</v>
+      </c>
+      <c r="P679" t="str">
+        <f t="shared" si="92"/>
         <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
-values ('Kobold', 'DCK', 'monstergroup.kobold.dck', 'Melee', 'Small', 3, 6);</v>
-      </c>
-      <c r="Q678" t="str">
-        <f t="shared" si="92"/>
-        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
-values ('Kobold', 'DCK', 'Building');</v>
-      </c>
-      <c r="R678" t="str">
+values ('Ferrox', 'DCK', 'monstergroup.ferrox.dck', 'Melee', 'Small', 1, 3);</v>
+      </c>
+      <c r="Q679" t="str">
         <f t="shared" si="93"/>
         <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
-values ('Kobold', 'DCK', 'Cave');</v>
-      </c>
-    </row>
-    <row r="679" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B679" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C679" t="s">
+values ('Ferrox', 'DCK', 'Water');</v>
+      </c>
+      <c r="R679" t="str">
+        <f t="shared" si="94"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Ferrox', 'DCK', 'Cave');</v>
+      </c>
+    </row>
+    <row r="680" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A680" s="1">
+        <v>3</v>
+      </c>
+      <c r="B680" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C680" t="s">
         <v>65</v>
       </c>
-      <c r="D679" t="str">
-        <f t="shared" si="90"/>
-        <v>monstergroup.ferrox.dck</v>
-      </c>
-      <c r="E679" t="s">
+      <c r="D680" t="str">
+        <f t="shared" si="91"/>
+        <v>monstergroup.golem.dck</v>
+      </c>
+      <c r="E680" t="s">
         <v>399</v>
       </c>
-      <c r="F679" t="s">
-        <v>1306</v>
-      </c>
-      <c r="G679" t="s">
-        <v>1301</v>
-      </c>
-      <c r="H679" t="s">
-        <v>1305</v>
-      </c>
-      <c r="I679">
-        <v>1</v>
-      </c>
-      <c r="J679">
-        <v>3</v>
-      </c>
-      <c r="K679" t="s">
-        <v>1346</v>
-      </c>
-      <c r="P679" t="str">
-        <f t="shared" si="91"/>
+      <c r="F680" t="s">
+        <v>1324</v>
+      </c>
+      <c r="G680" t="s">
+        <v>1300</v>
+      </c>
+      <c r="H680" t="s">
+        <v>1304</v>
+      </c>
+      <c r="I680">
+        <v>1</v>
+      </c>
+      <c r="J680">
+        <v>1</v>
+      </c>
+      <c r="K680" t="s">
+        <v>1347</v>
+      </c>
+      <c r="P680" t="str">
+        <f t="shared" si="92"/>
         <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
-values ('Ferrox', 'DCK', 'monstergroup.ferrox.dck', 'Melee', 'Small', 1, 3);</v>
-      </c>
-      <c r="Q679" t="str">
-        <f t="shared" si="92"/>
-        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
-values ('Ferrox', 'DCK', 'Water');</v>
-      </c>
-      <c r="R679" t="str">
+values ('Golem', 'DCK', 'monstergroup.golem.dck', 'Melee', 'Huge', 1, 1);</v>
+      </c>
+      <c r="Q680" t="str">
         <f t="shared" si="93"/>
         <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
-values ('Ferrox', 'DCK', 'Cave');</v>
-      </c>
-    </row>
-    <row r="680" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B680" t="s">
-        <v>1347</v>
-      </c>
-      <c r="C680" t="s">
+values ('Golem', 'DCK', 'Building');</v>
+      </c>
+      <c r="R680" t="str">
+        <f t="shared" si="94"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Golem', 'DCK', 'Cursed');</v>
+      </c>
+    </row>
+    <row r="681" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A681" s="1">
+        <v>1</v>
+      </c>
+      <c r="B681" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C681" t="s">
         <v>65</v>
       </c>
-      <c r="D680" t="str">
-        <f t="shared" si="90"/>
-        <v>monstergroup.golem.dck</v>
-      </c>
-      <c r="E680" t="s">
-        <v>399</v>
-      </c>
-      <c r="F680" t="s">
-        <v>1324</v>
-      </c>
-      <c r="G680" t="s">
-        <v>1300</v>
-      </c>
-      <c r="H680" t="s">
+      <c r="D681" t="str">
+        <f t="shared" si="91"/>
+        <v>monstergroup.darkpriest.dck</v>
+      </c>
+      <c r="E681" t="s">
+        <v>400</v>
+      </c>
+      <c r="F681" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G681" t="s">
+        <v>1296</v>
+      </c>
+      <c r="H681" t="s">
         <v>1304</v>
       </c>
-      <c r="I680">
-        <v>1</v>
-      </c>
-      <c r="J680">
-        <v>1</v>
-      </c>
-      <c r="K680" t="s">
-        <v>1347</v>
-      </c>
-      <c r="P680" t="str">
-        <f t="shared" si="91"/>
+      <c r="I681">
+        <v>1</v>
+      </c>
+      <c r="J681">
+        <v>3</v>
+      </c>
+      <c r="K681" t="s">
+        <v>1375</v>
+      </c>
+      <c r="P681" t="str">
+        <f t="shared" si="92"/>
         <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
-values ('Golem', 'DCK', 'monstergroup.golem.dck', 'Melee', 'Huge', 1, 1);</v>
-      </c>
-      <c r="Q680" t="str">
-        <f t="shared" si="92"/>
-        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
-values ('Golem', 'DCK', 'Building');</v>
-      </c>
-      <c r="R680" t="str">
+values ('Dark Priest', 'DCK', 'monstergroup.darkpriest.dck', 'Ranged', 'Small', 1, 3);</v>
+      </c>
+      <c r="Q681" t="str">
         <f t="shared" si="93"/>
         <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
-values ('Golem', 'DCK', 'Cursed');</v>
+values ('Dark Priest', 'DCK', 'Civilized');</v>
+      </c>
+      <c r="R681" t="str">
+        <f t="shared" si="94"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Dark Priest', 'DCK', 'Cursed');</v>
+      </c>
+    </row>
+    <row r="682" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A682" s="1">
+        <v>2</v>
+      </c>
+      <c r="B682" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C682" t="s">
+        <v>65</v>
+      </c>
+      <c r="D682" t="str">
+        <f t="shared" si="91"/>
+        <v>monstergroup.bloodape.dck</v>
+      </c>
+      <c r="E682" t="s">
+        <v>399</v>
+      </c>
+      <c r="F682" t="s">
+        <v>1307</v>
+      </c>
+      <c r="G682" t="s">
+        <v>1299</v>
+      </c>
+      <c r="H682" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I682">
+        <v>1</v>
+      </c>
+      <c r="J682">
+        <v>2</v>
+      </c>
+      <c r="K682" t="s">
+        <v>1378</v>
+      </c>
+      <c r="P682" t="str">
+        <f t="shared" si="92"/>
+        <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
+values ('Blood Ape', 'DCK', 'monstergroup.bloodape.dck', 'Melee', 'Medium', 1, 2);</v>
+      </c>
+      <c r="Q682" t="str">
+        <f t="shared" si="93"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Blood Ape', 'DCK', 'Hot');</v>
+      </c>
+      <c r="R682" t="str">
+        <f t="shared" si="94"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Blood Ape', 'DCK', 'Cave');</v>
       </c>
     </row>
     <row r="683" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A683" t="s">
+      <c r="A683" s="1">
+        <v>3</v>
+      </c>
+      <c r="B683" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C683" t="s">
+        <v>65</v>
+      </c>
+      <c r="D683" t="str">
+        <f t="shared" si="91"/>
+        <v>monstergroup.chaosbeast.dck</v>
+      </c>
+      <c r="E683" t="s">
+        <v>400</v>
+      </c>
+      <c r="F683" t="s">
+        <v>1324</v>
+      </c>
+      <c r="G683" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H683" t="s">
+        <v>1304</v>
+      </c>
+      <c r="I683">
+        <v>1</v>
+      </c>
+      <c r="J683">
+        <v>2</v>
+      </c>
+      <c r="K683" t="s">
+        <v>1379</v>
+      </c>
+      <c r="P683" t="str">
+        <f t="shared" si="92"/>
+        <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
+values ('Chaos Beast', 'DCK', 'monstergroup.chaosbeast.dck', 'Ranged', 'Huge', 1, 2);</v>
+      </c>
+      <c r="Q683" t="str">
+        <f t="shared" si="93"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Chaos Beast', 'DCK', 'Dark');</v>
+      </c>
+      <c r="R683" t="str">
+        <f t="shared" si="94"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Chaos Beast', 'DCK', 'Cursed');</v>
+      </c>
+    </row>
+    <row r="684" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A684" s="1">
+        <v>4</v>
+      </c>
+      <c r="B684" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C684" t="s">
+        <v>65</v>
+      </c>
+      <c r="D684" t="str">
+        <f t="shared" si="91"/>
+        <v>monstergroup.deepelf.dck</v>
+      </c>
+      <c r="E684" t="s">
+        <v>399</v>
+      </c>
+      <c r="F684" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G684" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H684" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I684">
+        <v>1</v>
+      </c>
+      <c r="J684">
+        <v>1</v>
+      </c>
+      <c r="K684" t="s">
+        <v>1380</v>
+      </c>
+      <c r="P684" t="str">
+        <f t="shared" si="92"/>
+        <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
+values ('Deep Elf', 'DCK', 'monstergroup.deepelf.dck', 'Melee', 'Small', 1, 1);</v>
+      </c>
+      <c r="Q684" t="str">
+        <f t="shared" si="93"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Deep Elf', 'DCK', 'Dark');</v>
+      </c>
+      <c r="R684" t="str">
+        <f t="shared" si="94"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Deep Elf', 'DCK', 'Cave');</v>
+      </c>
+    </row>
+    <row r="685" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A685" s="1">
+        <v>5</v>
+      </c>
+      <c r="B685" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C685" t="s">
+        <v>65</v>
+      </c>
+      <c r="D685" t="str">
+        <f t="shared" si="91"/>
+        <v>monstergroup.troll.dck</v>
+      </c>
+      <c r="E685" t="s">
+        <v>399</v>
+      </c>
+      <c r="F685" t="s">
+        <v>1324</v>
+      </c>
+      <c r="G685" t="s">
+        <v>1302</v>
+      </c>
+      <c r="H685" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I685">
+        <v>1</v>
+      </c>
+      <c r="J685">
+        <v>1</v>
+      </c>
+      <c r="K685" t="s">
+        <v>1369</v>
+      </c>
+      <c r="P685" t="str">
+        <f t="shared" si="92"/>
+        <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
+values ('Troll', 'DCK', 'monstergroup.troll.dck', 'Melee', 'Huge', 1, 1);</v>
+      </c>
+      <c r="Q685" t="str">
+        <f t="shared" si="93"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Troll', 'DCK', 'Mountain');</v>
+      </c>
+      <c r="R685" t="str">
+        <f t="shared" si="94"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Troll', 'DCK', 'Cave');</v>
+      </c>
+    </row>
+    <row r="686" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A686">
+        <v>1</v>
+      </c>
+      <c r="B686" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C686" t="s">
+        <v>65</v>
+      </c>
+      <c r="D686" t="str">
+        <f t="shared" si="91"/>
+        <v>monstergroup.shade.dck</v>
+      </c>
+      <c r="E686" t="s">
+        <v>399</v>
+      </c>
+      <c r="F686" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G686" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H686" t="s">
+        <v>1304</v>
+      </c>
+      <c r="I686">
+        <v>1</v>
+      </c>
+      <c r="J686">
+        <v>4</v>
+      </c>
+      <c r="K686" t="s">
+        <v>1370</v>
+      </c>
+      <c r="P686" t="str">
+        <f t="shared" si="92"/>
+        <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
+values ('Shade', 'DCK', 'monstergroup.shade.dck', 'Melee', 'Small', 1, 4);</v>
+      </c>
+      <c r="Q686" t="str">
+        <f t="shared" si="93"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Shade', 'DCK', 'Dark');</v>
+      </c>
+      <c r="R686" t="str">
+        <f t="shared" si="94"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Shade', 'DCK', 'Cursed');</v>
+      </c>
+    </row>
+    <row r="687" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A687" s="1">
+        <v>2</v>
+      </c>
+      <c r="B687" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C687" t="s">
+        <v>65</v>
+      </c>
+      <c r="D687" t="str">
+        <f t="shared" si="91"/>
+        <v>monstergroup.lavabeetle.dck</v>
+      </c>
+      <c r="E687" t="s">
+        <v>400</v>
+      </c>
+      <c r="F687" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G687" t="s">
+        <v>1299</v>
+      </c>
+      <c r="H687" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I687">
+        <v>1</v>
+      </c>
+      <c r="J687">
+        <v>3</v>
+      </c>
+      <c r="K687" t="s">
+        <v>1376</v>
+      </c>
+      <c r="P687" t="str">
+        <f t="shared" si="92"/>
+        <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
+values ('Lava Beetle', 'DCK', 'monstergroup.lavabeetle.dck', 'Ranged', 'Small', 1, 3);</v>
+      </c>
+      <c r="Q687" t="str">
+        <f t="shared" si="93"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Lava Beetle', 'DCK', 'Hot');</v>
+      </c>
+      <c r="R687" t="str">
+        <f t="shared" si="94"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Lava Beetle', 'DCK', 'Cave');</v>
+      </c>
+    </row>
+    <row r="688" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A688" s="1">
+        <v>3</v>
+      </c>
+      <c r="B688" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C688" t="s">
+        <v>65</v>
+      </c>
+      <c r="D688" t="str">
+        <f t="shared" si="91"/>
+        <v>monstergroup.medusa.dck</v>
+      </c>
+      <c r="E688" t="s">
+        <v>400</v>
+      </c>
+      <c r="F688" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G688" t="s">
+        <v>1300</v>
+      </c>
+      <c r="H688" t="s">
+        <v>1304</v>
+      </c>
+      <c r="I688">
+        <v>1</v>
+      </c>
+      <c r="J688">
+        <v>2</v>
+      </c>
+      <c r="K688" t="s">
+        <v>1372</v>
+      </c>
+      <c r="P688" t="str">
+        <f t="shared" si="92"/>
+        <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
+values ('Medusa', 'DCK', 'monstergroup.medusa.dck', 'Ranged', 'Small', 1, 2);</v>
+      </c>
+      <c r="Q688" t="str">
+        <f t="shared" si="93"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Medusa', 'DCK', 'Building');</v>
+      </c>
+      <c r="R688" t="str">
+        <f t="shared" si="94"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Medusa', 'DCK', 'Cursed');</v>
+      </c>
+    </row>
+    <row r="689" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A689" s="1">
+        <v>4</v>
+      </c>
+      <c r="B689" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C689" t="s">
+        <v>65</v>
+      </c>
+      <c r="D689" t="str">
+        <f t="shared" si="91"/>
+        <v>monstergroup.wendigo.dck</v>
+      </c>
+      <c r="E689" t="s">
+        <v>399</v>
+      </c>
+      <c r="F689" t="s">
+        <v>1307</v>
+      </c>
+      <c r="G689" t="s">
+        <v>1297</v>
+      </c>
+      <c r="H689" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I689">
+        <v>1</v>
+      </c>
+      <c r="J689">
+        <v>2</v>
+      </c>
+      <c r="K689" t="s">
+        <v>1373</v>
+      </c>
+      <c r="P689" t="str">
+        <f t="shared" si="92"/>
+        <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
+values ('Wendigo', 'DCK', 'monstergroup.wendigo.dck', 'Melee', 'Medium', 1, 2);</v>
+      </c>
+      <c r="Q689" t="str">
+        <f t="shared" si="93"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Wendigo', 'DCK', 'Cold');</v>
+      </c>
+      <c r="R689" t="str">
+        <f t="shared" si="94"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Wendigo', 'DCK', 'Cave');</v>
+      </c>
+    </row>
+    <row r="690" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A690">
+        <v>5</v>
+      </c>
+      <c r="B690" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C690" t="s">
+        <v>65</v>
+      </c>
+      <c r="D690" t="str">
+        <f t="shared" si="91"/>
+        <v>monstergroup.icewyrm.dck</v>
+      </c>
+      <c r="E690" t="s">
+        <v>399</v>
+      </c>
+      <c r="F690" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G690" t="s">
+        <v>1297</v>
+      </c>
+      <c r="H690" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I690">
+        <v>1</v>
+      </c>
+      <c r="J690">
+        <v>1</v>
+      </c>
+      <c r="K690" t="s">
+        <v>1377</v>
+      </c>
+      <c r="P690" t="str">
+        <f t="shared" si="92"/>
+        <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
+values ('Ice Wyrm', 'DCK', 'monstergroup.icewyrm.dck', 'Melee', 'Massive', 1, 1);</v>
+      </c>
+      <c r="Q690" t="str">
+        <f t="shared" ref="Q690" si="95">"insert into "&amp;A$642&amp;"_TRAIT ("&amp;A$642&amp;", "&amp;C$642&amp;", MONSTER_TRAIT)
+values ('"&amp;B690&amp;"', '"&amp;C690&amp;"', '"&amp;G690&amp;"');"</f>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Ice Wyrm', 'DCK', 'Cold');</v>
+      </c>
+      <c r="R690" t="str">
+        <f t="shared" ref="R690" si="96">"insert into "&amp;A$642&amp;"_TRAIT ("&amp;A$642&amp;", "&amp;C$642&amp;", MONSTER_TRAIT)
+values ('"&amp;B690&amp;"', '"&amp;C690&amp;"', '"&amp;H690&amp;"');"</f>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Ice Wyrm', 'DCK', 'Cave');</v>
+      </c>
+    </row>
+    <row r="691" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A691">
+        <v>1</v>
+      </c>
+      <c r="B691" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C691" t="s">
+        <v>74</v>
+      </c>
+      <c r="D691" t="str">
+        <f t="shared" si="91"/>
+        <v>monstergroup.beastman.ooto</v>
+      </c>
+      <c r="E691" t="s">
+        <v>399</v>
+      </c>
+      <c r="F691" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G691" t="s">
+        <v>1302</v>
+      </c>
+      <c r="H691" t="s">
+        <v>1303</v>
+      </c>
+      <c r="I691">
+        <v>1</v>
+      </c>
+      <c r="J691">
+        <v>3</v>
+      </c>
+      <c r="K691" t="s">
+        <v>1333</v>
+      </c>
+      <c r="P691" t="str">
+        <f t="shared" ref="P691:P711" si="97">"insert into "&amp;A$642&amp;" ("&amp;B$642&amp;", "&amp;C$642&amp;", "&amp;D$642&amp;", "&amp;E$642&amp;", "&amp;F$642&amp;", "&amp;I$642&amp;", "&amp;J$642&amp;")
+values ('"&amp;B691&amp;"', '"&amp;C691&amp;"', '"&amp;D691&amp;"', '"&amp;E691&amp;"', '"&amp;F691&amp;"', "&amp;I691&amp;", "&amp;J691&amp;");"</f>
+        <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
+values ('Beastman', 'OotO', 'monstergroup.beastman.ooto', 'Melee', 'Small', 1, 3);</v>
+      </c>
+      <c r="Q691" t="str">
+        <f t="shared" ref="Q691:Q711" si="98">"insert into "&amp;A$642&amp;"_TRAIT ("&amp;A$642&amp;", "&amp;C$642&amp;", MONSTER_TRAIT)
+values ('"&amp;B691&amp;"', '"&amp;C691&amp;"', '"&amp;G691&amp;"');"</f>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Beastman', 'OotO', 'Mountain');</v>
+      </c>
+      <c r="R691" t="str">
+        <f t="shared" ref="R691:R711" si="99">"insert into "&amp;A$642&amp;"_TRAIT ("&amp;A$642&amp;", "&amp;C$642&amp;", MONSTER_TRAIT)
+values ('"&amp;B691&amp;"', '"&amp;C691&amp;"', '"&amp;H691&amp;"');"</f>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Beastman', 'OotO', 'Wilderness');</v>
+      </c>
+    </row>
+    <row r="692" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A692">
+        <v>2</v>
+      </c>
+      <c r="B692" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C692" t="s">
+        <v>74</v>
+      </c>
+      <c r="D692" t="str">
+        <f t="shared" si="91"/>
+        <v>monstergroup.banespider.ooto</v>
+      </c>
+      <c r="E692" t="s">
+        <v>400</v>
+      </c>
+      <c r="F692" t="s">
+        <v>1324</v>
+      </c>
+      <c r="G692" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H692" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I692">
+        <v>1</v>
+      </c>
+      <c r="J692">
+        <v>2</v>
+      </c>
+      <c r="K692" t="s">
+        <v>1361</v>
+      </c>
+      <c r="P692" t="str">
+        <f t="shared" si="97"/>
+        <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
+values ('Bane Spider', 'OotO', 'monstergroup.banespider.ooto', 'Ranged', 'Huge', 1, 2);</v>
+      </c>
+      <c r="Q692" t="str">
+        <f t="shared" si="98"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Bane Spider', 'OotO', 'Dark');</v>
+      </c>
+      <c r="R692" t="str">
+        <f t="shared" si="99"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Bane Spider', 'OotO', 'Cave');</v>
+      </c>
+    </row>
+    <row r="693" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A693">
+        <v>3</v>
+      </c>
+      <c r="B693" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C693" t="s">
+        <v>74</v>
+      </c>
+      <c r="D693" t="str">
+        <f t="shared" si="91"/>
+        <v>monstergroup.razorwing.ooto</v>
+      </c>
+      <c r="E693" t="s">
+        <v>399</v>
+      </c>
+      <c r="F693" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G693" t="s">
+        <v>1303</v>
+      </c>
+      <c r="H693" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I693">
+        <v>1</v>
+      </c>
+      <c r="J693">
+        <v>3</v>
+      </c>
+      <c r="K693" t="s">
+        <v>1336</v>
+      </c>
+      <c r="P693" t="str">
+        <f t="shared" si="97"/>
+        <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
+values ('Razorwing', 'OotO', 'monstergroup.razorwing.ooto', 'Melee', 'Small', 1, 3);</v>
+      </c>
+      <c r="Q693" t="str">
+        <f t="shared" si="98"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Razorwing', 'OotO', 'Wilderness');</v>
+      </c>
+      <c r="R693" t="str">
+        <f t="shared" si="99"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Razorwing', 'OotO', 'Cave');</v>
+      </c>
+    </row>
+    <row r="694" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A694">
+        <v>1</v>
+      </c>
+      <c r="B694" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C694" t="s">
+        <v>68</v>
+      </c>
+      <c r="D694" t="str">
+        <f t="shared" si="91"/>
+        <v>monstergroup.giant.cod</v>
+      </c>
+      <c r="E694" t="s">
+        <v>399</v>
+      </c>
+      <c r="F694" t="s">
+        <v>1324</v>
+      </c>
+      <c r="G694" t="s">
+        <v>1302</v>
+      </c>
+      <c r="H694" t="s">
+        <v>1303</v>
+      </c>
+      <c r="I694">
+        <v>1</v>
+      </c>
+      <c r="J694">
+        <v>1</v>
+      </c>
+      <c r="K694" t="s">
+        <v>1342</v>
+      </c>
+      <c r="P694" t="str">
+        <f t="shared" si="97"/>
+        <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
+values ('Giant', 'CoD', 'monstergroup.giant.cod', 'Melee', 'Huge', 1, 1);</v>
+      </c>
+      <c r="Q694" t="str">
+        <f t="shared" si="98"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Giant', 'CoD', 'Mountain');</v>
+      </c>
+      <c r="R694" t="str">
+        <f t="shared" si="99"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Giant', 'CoD', 'Wilderness');</v>
+      </c>
+    </row>
+    <row r="695" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A695">
+        <v>2</v>
+      </c>
+      <c r="B695" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C695" t="s">
+        <v>68</v>
+      </c>
+      <c r="D695" t="str">
+        <f t="shared" si="91"/>
+        <v>monstergroup.chaosbeast.cod</v>
+      </c>
+      <c r="E695" t="s">
+        <v>400</v>
+      </c>
+      <c r="F695" t="s">
+        <v>1324</v>
+      </c>
+      <c r="G695" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H695" t="s">
+        <v>1304</v>
+      </c>
+      <c r="I695">
+        <v>1</v>
+      </c>
+      <c r="J695">
+        <v>2</v>
+      </c>
+      <c r="K695" t="s">
+        <v>1379</v>
+      </c>
+      <c r="P695" t="str">
+        <f t="shared" si="97"/>
+        <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
+values ('Chaos Beast', 'CoD', 'monstergroup.chaosbeast.cod', 'Ranged', 'Huge', 1, 2);</v>
+      </c>
+      <c r="Q695" t="str">
+        <f t="shared" si="98"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Chaos Beast', 'CoD', 'Dark');</v>
+      </c>
+      <c r="R695" t="str">
+        <f t="shared" si="99"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Chaos Beast', 'CoD', 'Cursed');</v>
+      </c>
+    </row>
+    <row r="696" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A696">
+        <v>3</v>
+      </c>
+      <c r="B696" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C696" t="s">
+        <v>68</v>
+      </c>
+      <c r="D696" t="str">
+        <f t="shared" si="91"/>
+        <v>monstergroup.lavabeetle.cod</v>
+      </c>
+      <c r="E696" t="s">
+        <v>400</v>
+      </c>
+      <c r="F696" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G696" t="s">
+        <v>1299</v>
+      </c>
+      <c r="H696" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I696">
+        <v>1</v>
+      </c>
+      <c r="J696">
+        <v>3</v>
+      </c>
+      <c r="K696" t="s">
+        <v>1376</v>
+      </c>
+      <c r="P696" t="str">
+        <f t="shared" si="97"/>
+        <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
+values ('Lava Beetle', 'CoD', 'monstergroup.lavabeetle.cod', 'Ranged', 'Small', 1, 3);</v>
+      </c>
+      <c r="Q696" t="str">
+        <f t="shared" si="98"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Lava Beetle', 'CoD', 'Hot');</v>
+      </c>
+      <c r="R696" t="str">
+        <f t="shared" si="99"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Lava Beetle', 'CoD', 'Cave');</v>
+      </c>
+    </row>
+    <row r="697" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A697">
+        <v>1</v>
+      </c>
+      <c r="B697" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C697" t="s">
+        <v>73</v>
+      </c>
+      <c r="D697" t="str">
+        <f t="shared" ref="D697:D711" si="100">LOWER(REPLACE(A$642,SEARCH("_",A$642),1,""))&amp;"."&amp;LOWER(K697)&amp;"."&amp;LOWER(C697)</f>
+        <v>monstergroup.sorcerer.cotf</v>
+      </c>
+      <c r="E697" t="s">
+        <v>400</v>
+      </c>
+      <c r="F697" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G697" t="s">
+        <v>1296</v>
+      </c>
+      <c r="H697" t="s">
+        <v>1300</v>
+      </c>
+      <c r="I697">
+        <v>1</v>
+      </c>
+      <c r="J697">
+        <v>3</v>
+      </c>
+      <c r="K697" t="s">
+        <v>1338</v>
+      </c>
+      <c r="P697" t="str">
+        <f t="shared" si="97"/>
+        <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
+values ('Sorcerer', 'CotF', 'monstergroup.sorcerer.cotf', 'Ranged', 'Small', 1, 3);</v>
+      </c>
+      <c r="Q697" t="str">
+        <f t="shared" si="98"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Sorcerer', 'CotF', 'Civilized');</v>
+      </c>
+      <c r="R697" t="str">
+        <f t="shared" si="99"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Sorcerer', 'CotF', 'Building');</v>
+      </c>
+    </row>
+    <row r="698" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A698">
+        <v>2</v>
+      </c>
+      <c r="B698" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C698" t="s">
+        <v>73</v>
+      </c>
+      <c r="D698" t="str">
+        <f t="shared" si="100"/>
+        <v>monstergroup.golem.cotf</v>
+      </c>
+      <c r="E698" t="s">
+        <v>399</v>
+      </c>
+      <c r="F698" t="s">
+        <v>1324</v>
+      </c>
+      <c r="G698" t="s">
+        <v>1300</v>
+      </c>
+      <c r="H698" t="s">
+        <v>1304</v>
+      </c>
+      <c r="I698">
+        <v>1</v>
+      </c>
+      <c r="J698">
+        <v>1</v>
+      </c>
+      <c r="K698" t="s">
+        <v>1347</v>
+      </c>
+      <c r="P698" t="str">
+        <f t="shared" si="97"/>
+        <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
+values ('Golem', 'CotF', 'monstergroup.golem.cotf', 'Melee', 'Huge', 1, 1);</v>
+      </c>
+      <c r="Q698" t="str">
+        <f t="shared" si="98"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Golem', 'CotF', 'Building');</v>
+      </c>
+      <c r="R698" t="str">
+        <f t="shared" si="99"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Golem', 'CotF', 'Cursed');</v>
+      </c>
+    </row>
+    <row r="699" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A699">
+        <v>3</v>
+      </c>
+      <c r="B699" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C699" t="s">
+        <v>73</v>
+      </c>
+      <c r="D699" t="str">
+        <f t="shared" si="100"/>
+        <v>monstergroup.medusa.cotf</v>
+      </c>
+      <c r="E699" t="s">
+        <v>400</v>
+      </c>
+      <c r="F699" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G699" t="s">
+        <v>1300</v>
+      </c>
+      <c r="H699" t="s">
+        <v>1304</v>
+      </c>
+      <c r="I699">
+        <v>1</v>
+      </c>
+      <c r="J699">
+        <v>2</v>
+      </c>
+      <c r="K699" t="s">
+        <v>1372</v>
+      </c>
+      <c r="P699" t="str">
+        <f t="shared" si="97"/>
+        <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
+values ('Medusa', 'CotF', 'monstergroup.medusa.cotf', 'Ranged', 'Small', 1, 2);</v>
+      </c>
+      <c r="Q699" t="str">
+        <f t="shared" si="98"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Medusa', 'CotF', 'Building');</v>
+      </c>
+      <c r="R699" t="str">
+        <f t="shared" si="99"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Medusa', 'CotF', 'Cursed');</v>
+      </c>
+    </row>
+    <row r="700" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A700">
+        <v>1</v>
+      </c>
+      <c r="B700" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C700" t="s">
+        <v>69</v>
+      </c>
+      <c r="D700" t="str">
+        <f t="shared" si="100"/>
+        <v>monstergroup.cryptdragon.god</v>
+      </c>
+      <c r="E700" t="s">
+        <v>400</v>
+      </c>
+      <c r="F700" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G700" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H700" t="s">
+        <v>1304</v>
+      </c>
+      <c r="I700">
+        <v>1</v>
+      </c>
+      <c r="J700">
+        <v>1</v>
+      </c>
+      <c r="K700" t="s">
+        <v>1363</v>
+      </c>
+      <c r="P700" t="str">
+        <f t="shared" si="97"/>
+        <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
+values ('Crypt Dragon', 'GoD', 'monstergroup.cryptdragon.god', 'Ranged', 'Massive', 1, 1);</v>
+      </c>
+      <c r="Q700" t="str">
+        <f t="shared" si="98"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Crypt Dragon', 'GoD', 'Dark');</v>
+      </c>
+      <c r="R700" t="str">
+        <f t="shared" si="99"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Crypt Dragon', 'GoD', 'Cursed');</v>
+      </c>
+    </row>
+    <row r="701" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A701">
+        <v>2</v>
+      </c>
+      <c r="B701" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C701" t="s">
+        <v>69</v>
+      </c>
+      <c r="D701" t="str">
+        <f t="shared" si="100"/>
+        <v>monstergroup.darkpriest.god</v>
+      </c>
+      <c r="E701" t="s">
+        <v>400</v>
+      </c>
+      <c r="F701" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G701" t="s">
+        <v>1296</v>
+      </c>
+      <c r="H701" t="s">
+        <v>1304</v>
+      </c>
+      <c r="I701">
+        <v>1</v>
+      </c>
+      <c r="J701">
+        <v>3</v>
+      </c>
+      <c r="K701" t="s">
+        <v>1375</v>
+      </c>
+      <c r="P701" t="str">
+        <f t="shared" si="97"/>
+        <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
+values ('Dark Priest', 'GoD', 'monstergroup.darkpriest.god', 'Ranged', 'Small', 1, 3);</v>
+      </c>
+      <c r="Q701" t="str">
+        <f t="shared" si="98"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Dark Priest', 'GoD', 'Civilized');</v>
+      </c>
+      <c r="R701" t="str">
+        <f t="shared" si="99"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Dark Priest', 'GoD', 'Cursed');</v>
+      </c>
+    </row>
+    <row r="702" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A702">
+        <v>3</v>
+      </c>
+      <c r="B702" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C702" t="s">
+        <v>69</v>
+      </c>
+      <c r="D702" t="str">
+        <f t="shared" si="100"/>
+        <v>monstergroup.wendigo.god</v>
+      </c>
+      <c r="E702" t="s">
+        <v>399</v>
+      </c>
+      <c r="F702" t="s">
+        <v>1324</v>
+      </c>
+      <c r="G702" t="s">
+        <v>1297</v>
+      </c>
+      <c r="H702" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I702">
+        <v>1</v>
+      </c>
+      <c r="J702">
+        <v>2</v>
+      </c>
+      <c r="K702" t="s">
+        <v>1373</v>
+      </c>
+      <c r="P702" t="str">
+        <f t="shared" si="97"/>
+        <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
+values ('Wendigo', 'GoD', 'monstergroup.wendigo.god', 'Melee', 'Huge', 1, 2);</v>
+      </c>
+      <c r="Q702" t="str">
+        <f t="shared" si="98"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Wendigo', 'GoD', 'Cold');</v>
+      </c>
+      <c r="R702" t="str">
+        <f t="shared" si="99"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Wendigo', 'GoD', 'Cave');</v>
+      </c>
+    </row>
+    <row r="703" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A703">
+        <v>1</v>
+      </c>
+      <c r="B703" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C703" t="s">
+        <v>70</v>
+      </c>
+      <c r="D703" t="str">
+        <f t="shared" si="100"/>
+        <v>monstergroup.ogre.vod</v>
+      </c>
+      <c r="E703" t="s">
+        <v>399</v>
+      </c>
+      <c r="F703" t="s">
+        <v>1324</v>
+      </c>
+      <c r="G703" t="s">
+        <v>1300</v>
+      </c>
+      <c r="H703" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I703">
+        <v>1</v>
+      </c>
+      <c r="J703">
+        <v>1</v>
+      </c>
+      <c r="K703" t="s">
+        <v>1339</v>
+      </c>
+      <c r="P703" t="str">
+        <f t="shared" si="97"/>
+        <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
+values ('Ogre', 'VoD', 'monstergroup.ogre.vod', 'Melee', 'Huge', 1, 1);</v>
+      </c>
+      <c r="Q703" t="str">
+        <f t="shared" si="98"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Ogre', 'VoD', 'Building');</v>
+      </c>
+      <c r="R703" t="str">
+        <f t="shared" si="99"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Ogre', 'VoD', 'Cave');</v>
+      </c>
+    </row>
+    <row r="704" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A704">
+        <v>2</v>
+      </c>
+      <c r="B704" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C704" t="s">
+        <v>70</v>
+      </c>
+      <c r="D704" t="str">
+        <f t="shared" si="100"/>
+        <v>monstergroup.manticore.vod</v>
+      </c>
+      <c r="E704" t="s">
+        <v>400</v>
+      </c>
+      <c r="F704" t="s">
+        <v>1324</v>
+      </c>
+      <c r="G704" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H704" t="s">
+        <v>1303</v>
+      </c>
+      <c r="I704">
+        <v>1</v>
+      </c>
+      <c r="J704">
+        <v>1</v>
+      </c>
+      <c r="K704" t="s">
+        <v>1340</v>
+      </c>
+      <c r="P704" t="str">
+        <f t="shared" si="97"/>
+        <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
+values ('Manticore', 'VoD', 'monstergroup.manticore.vod', 'Ranged', 'Huge', 1, 1);</v>
+      </c>
+      <c r="Q704" t="str">
+        <f t="shared" si="98"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Manticore', 'VoD', 'Dark');</v>
+      </c>
+      <c r="R704" t="str">
+        <f t="shared" si="99"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Manticore', 'VoD', 'Wilderness');</v>
+      </c>
+    </row>
+    <row r="705" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A705">
+        <v>3</v>
+      </c>
+      <c r="B705" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C705" t="s">
+        <v>70</v>
+      </c>
+      <c r="D705" t="str">
+        <f t="shared" si="100"/>
+        <v>monstergroup.troll.vod</v>
+      </c>
+      <c r="E705" t="s">
+        <v>399</v>
+      </c>
+      <c r="F705" t="s">
+        <v>1324</v>
+      </c>
+      <c r="G705" t="s">
+        <v>1302</v>
+      </c>
+      <c r="H705" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I705">
+        <v>1</v>
+      </c>
+      <c r="J705">
+        <v>1</v>
+      </c>
+      <c r="K705" t="s">
+        <v>1369</v>
+      </c>
+      <c r="P705" t="str">
+        <f t="shared" si="97"/>
+        <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
+values ('Troll', 'VoD', 'monstergroup.troll.vod', 'Melee', 'Huge', 1, 1);</v>
+      </c>
+      <c r="Q705" t="str">
+        <f t="shared" si="98"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Troll', 'VoD', 'Mountain');</v>
+      </c>
+      <c r="R705" t="str">
+        <f t="shared" si="99"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Troll', 'VoD', 'Cave');</v>
+      </c>
+    </row>
+    <row r="706" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A706">
+        <v>1</v>
+      </c>
+      <c r="B706" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C706" t="s">
+        <v>75</v>
+      </c>
+      <c r="D706" t="str">
+        <f t="shared" si="100"/>
+        <v>monstergroup.hellhound.botw</v>
+      </c>
+      <c r="E706" t="s">
+        <v>399</v>
+      </c>
+      <c r="F706" t="s">
+        <v>1307</v>
+      </c>
+      <c r="G706" t="s">
+        <v>1304</v>
+      </c>
+      <c r="H706" t="s">
+        <v>1299</v>
+      </c>
+      <c r="I706">
+        <v>1</v>
+      </c>
+      <c r="J706">
+        <v>3</v>
+      </c>
+      <c r="K706" t="s">
+        <v>1362</v>
+      </c>
+      <c r="P706" t="str">
+        <f t="shared" si="97"/>
+        <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
+values ('Hell Hound', 'BotW', 'monstergroup.hellhound.botw', 'Melee', 'Medium', 1, 3);</v>
+      </c>
+      <c r="Q706" t="str">
+        <f t="shared" si="98"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Hell Hound', 'BotW', 'Cursed');</v>
+      </c>
+      <c r="R706" t="str">
+        <f t="shared" si="99"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Hell Hound', 'BotW', 'Hot');</v>
+      </c>
+    </row>
+    <row r="707" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A707">
+        <v>2</v>
+      </c>
+      <c r="B707" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C707" t="s">
+        <v>75</v>
+      </c>
+      <c r="D707" t="str">
+        <f t="shared" si="100"/>
+        <v>monstergroup.kobold.botw</v>
+      </c>
+      <c r="E707" t="s">
+        <v>399</v>
+      </c>
+      <c r="F707" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G707" t="s">
+        <v>1300</v>
+      </c>
+      <c r="H707" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I707">
+        <v>3</v>
+      </c>
+      <c r="J707">
+        <v>9</v>
+      </c>
+      <c r="K707" t="s">
+        <v>1345</v>
+      </c>
+      <c r="P707" t="str">
+        <f t="shared" si="97"/>
+        <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
+values ('Kobold', 'BotW', 'monstergroup.kobold.botw', 'Melee', 'Small', 3, 9);</v>
+      </c>
+      <c r="Q707" t="str">
+        <f t="shared" si="98"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Kobold', 'BotW', 'Building');</v>
+      </c>
+      <c r="R707" t="str">
+        <f t="shared" si="99"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Kobold', 'BotW', 'Cave');</v>
+      </c>
+    </row>
+    <row r="708" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A708">
+        <v>3</v>
+      </c>
+      <c r="B708" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C708" t="s">
+        <v>75</v>
+      </c>
+      <c r="D708" t="str">
+        <f t="shared" si="100"/>
+        <v>monstergroup.deepelf.botw</v>
+      </c>
+      <c r="E708" t="s">
+        <v>399</v>
+      </c>
+      <c r="F708" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G708" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H708" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I708">
+        <v>1</v>
+      </c>
+      <c r="J708">
+        <v>1</v>
+      </c>
+      <c r="K708" t="s">
+        <v>1380</v>
+      </c>
+      <c r="P708" t="str">
+        <f t="shared" si="97"/>
+        <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
+values ('Deep Elf', 'BotW', 'monstergroup.deepelf.botw', 'Melee', 'Small', 1, 1);</v>
+      </c>
+      <c r="Q708" t="str">
+        <f t="shared" si="98"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Deep Elf', 'BotW', 'Dark');</v>
+      </c>
+      <c r="R708" t="str">
+        <f t="shared" si="99"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Deep Elf', 'BotW', 'Cave');</v>
+      </c>
+    </row>
+    <row r="709" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A709">
+        <v>1</v>
+      </c>
+      <c r="B709" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C709" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D709" t="str">
+        <f t="shared" si="100"/>
+        <v>monstergroup.skeletonarcher.toc</v>
+      </c>
+      <c r="E709" t="s">
+        <v>400</v>
+      </c>
+      <c r="F709" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G709" t="s">
+        <v>1296</v>
+      </c>
+      <c r="H709" t="s">
+        <v>1304</v>
+      </c>
+      <c r="I709">
+        <v>1</v>
+      </c>
+      <c r="J709">
+        <v>4</v>
+      </c>
+      <c r="K709" t="s">
+        <v>1360</v>
+      </c>
+      <c r="P709" t="str">
+        <f t="shared" si="97"/>
+        <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
+values ('Skeleton Archer', 'ToC', 'monstergroup.skeletonarcher.toc', 'Ranged', 'Small', 1, 4);</v>
+      </c>
+      <c r="Q709" t="str">
+        <f t="shared" si="98"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Skeleton Archer', 'ToC', 'Civilized');</v>
+      </c>
+      <c r="R709" t="str">
+        <f t="shared" si="99"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Skeleton Archer', 'ToC', 'Cursed');</v>
+      </c>
+    </row>
+    <row r="710" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A710">
+        <v>2</v>
+      </c>
+      <c r="B710" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C710" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D710" t="str">
+        <f t="shared" si="100"/>
+        <v>monstergroup.demonlord.toc</v>
+      </c>
+      <c r="E710" t="s">
+        <v>400</v>
+      </c>
+      <c r="F710" t="s">
+        <v>1324</v>
+      </c>
+      <c r="G710" t="s">
+        <v>1304</v>
+      </c>
+      <c r="H710" t="s">
+        <v>1299</v>
+      </c>
+      <c r="I710">
+        <v>1</v>
+      </c>
+      <c r="J710">
+        <v>1</v>
+      </c>
+      <c r="K710" t="s">
+        <v>1364</v>
+      </c>
+      <c r="P710" t="str">
+        <f t="shared" si="97"/>
+        <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
+values ('Demon Lord', 'ToC', 'monstergroup.demonlord.toc', 'Ranged', 'Huge', 1, 1);</v>
+      </c>
+      <c r="Q710" t="str">
+        <f t="shared" si="98"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Demon Lord', 'ToC', 'Cursed');</v>
+      </c>
+      <c r="R710" t="str">
+        <f t="shared" si="99"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Demon Lord', 'ToC', 'Hot');</v>
+      </c>
+    </row>
+    <row r="711" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A711">
+        <v>3</v>
+      </c>
+      <c r="B711" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C711" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D711" t="str">
+        <f t="shared" si="100"/>
+        <v>monstergroup.crowhag.toc</v>
+      </c>
+      <c r="E711" t="s">
+        <v>400</v>
+      </c>
+      <c r="F711" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G711" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H711" t="s">
+        <v>1296</v>
+      </c>
+      <c r="I711">
+        <v>1</v>
+      </c>
+      <c r="J711">
+        <v>3</v>
+      </c>
+      <c r="K711" t="s">
+        <v>1382</v>
+      </c>
+      <c r="P711" t="str">
+        <f t="shared" si="97"/>
+        <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
+values ('Crow Hag', 'ToC', 'monstergroup.crowhag.toc', 'Ranged', 'Small', 1, 3);</v>
+      </c>
+      <c r="Q711" t="str">
+        <f t="shared" si="98"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Crow Hag', 'ToC', 'Dark');</v>
+      </c>
+      <c r="R711" t="str">
+        <f t="shared" si="99"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Crow Hag', 'ToC', 'Civilized');</v>
+      </c>
+    </row>
+    <row r="712" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A712">
+        <v>1</v>
+      </c>
+      <c r="B712" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C712" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="D712" t="str">
+        <f t="shared" ref="D712" si="101">LOWER(REPLACE(A$642,SEARCH("_",A$642),1,""))&amp;"."&amp;LOWER(K712)&amp;"."&amp;LOWER(C712)</f>
+        <v>monstergroup.naga.sots</v>
+      </c>
+      <c r="E712" t="s">
+        <v>400</v>
+      </c>
+      <c r="F712" t="s">
+        <v>1324</v>
+      </c>
+      <c r="G712" t="s">
+        <v>1301</v>
+      </c>
+      <c r="H712" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I712">
+        <v>1</v>
+      </c>
+      <c r="J712">
+        <v>2</v>
+      </c>
+      <c r="K712" t="s">
+        <v>1341</v>
+      </c>
+      <c r="P712" t="str">
+        <f t="shared" ref="P712" si="102">"insert into "&amp;A$642&amp;" ("&amp;B$642&amp;", "&amp;C$642&amp;", "&amp;D$642&amp;", "&amp;E$642&amp;", "&amp;F$642&amp;", "&amp;I$642&amp;", "&amp;J$642&amp;")
+values ('"&amp;B712&amp;"', '"&amp;C712&amp;"', '"&amp;D712&amp;"', '"&amp;E712&amp;"', '"&amp;F712&amp;"', "&amp;I712&amp;", "&amp;J712&amp;");"</f>
+        <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
+values ('Naga', 'SotS', 'monstergroup.naga.sots', 'Ranged', 'Huge', 1, 2);</v>
+      </c>
+      <c r="Q712" t="str">
+        <f t="shared" ref="Q712" si="103">"insert into "&amp;A$642&amp;"_TRAIT ("&amp;A$642&amp;", "&amp;C$642&amp;", MONSTER_TRAIT)
+values ('"&amp;B712&amp;"', '"&amp;C712&amp;"', '"&amp;G712&amp;"');"</f>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Naga', 'SotS', 'Water');</v>
+      </c>
+      <c r="R712" t="str">
+        <f t="shared" ref="R712" si="104">"insert into "&amp;A$642&amp;"_TRAIT ("&amp;A$642&amp;", "&amp;C$642&amp;", MONSTER_TRAIT)
+values ('"&amp;B712&amp;"', '"&amp;C712&amp;"', '"&amp;H712&amp;"');"</f>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Naga', 'SotS', 'Cave');</v>
+      </c>
+    </row>
+    <row r="713" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A713">
+        <v>2</v>
+      </c>
+      <c r="B713" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C713" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="D713" t="str">
+        <f t="shared" ref="D713:D714" si="105">LOWER(REPLACE(A$642,SEARCH("_",A$642),1,""))&amp;"."&amp;LOWER(K713)&amp;"."&amp;LOWER(C713)</f>
+        <v>monstergroup.ferrox.sots</v>
+      </c>
+      <c r="E713" t="s">
+        <v>399</v>
+      </c>
+      <c r="F713" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G713" t="s">
+        <v>1301</v>
+      </c>
+      <c r="H713" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I713">
+        <v>1</v>
+      </c>
+      <c r="J713">
+        <v>3</v>
+      </c>
+      <c r="K713" t="s">
+        <v>1346</v>
+      </c>
+      <c r="P713" t="str">
+        <f t="shared" ref="P713:P714" si="106">"insert into "&amp;A$642&amp;" ("&amp;B$642&amp;", "&amp;C$642&amp;", "&amp;D$642&amp;", "&amp;E$642&amp;", "&amp;F$642&amp;", "&amp;I$642&amp;", "&amp;J$642&amp;")
+values ('"&amp;B713&amp;"', '"&amp;C713&amp;"', '"&amp;D713&amp;"', '"&amp;E713&amp;"', '"&amp;F713&amp;"', "&amp;I713&amp;", "&amp;J713&amp;");"</f>
+        <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
+values ('Ferrox', 'SotS', 'monstergroup.ferrox.sots', 'Melee', 'Small', 1, 3);</v>
+      </c>
+      <c r="Q713" t="str">
+        <f t="shared" ref="Q713:Q714" si="107">"insert into "&amp;A$642&amp;"_TRAIT ("&amp;A$642&amp;", "&amp;C$642&amp;", MONSTER_TRAIT)
+values ('"&amp;B713&amp;"', '"&amp;C713&amp;"', '"&amp;G713&amp;"');"</f>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Ferrox', 'SotS', 'Water');</v>
+      </c>
+      <c r="R713" t="str">
+        <f t="shared" ref="R713:R714" si="108">"insert into "&amp;A$642&amp;"_TRAIT ("&amp;A$642&amp;", "&amp;C$642&amp;", MONSTER_TRAIT)
+values ('"&amp;B713&amp;"', '"&amp;C713&amp;"', '"&amp;H713&amp;"');"</f>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Ferrox', 'SotS', 'Cave');</v>
+      </c>
+    </row>
+    <row r="714" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A714">
+        <v>3</v>
+      </c>
+      <c r="B714" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C714" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="D714" t="str">
+        <f t="shared" si="105"/>
+        <v>monstergroup.bloodape.sots</v>
+      </c>
+      <c r="E714" t="s">
+        <v>399</v>
+      </c>
+      <c r="F714" t="s">
+        <v>1307</v>
+      </c>
+      <c r="G714" t="s">
+        <v>1299</v>
+      </c>
+      <c r="H714" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I714">
+        <v>1</v>
+      </c>
+      <c r="J714">
+        <v>2</v>
+      </c>
+      <c r="K714" t="s">
+        <v>1378</v>
+      </c>
+      <c r="P714" t="str">
+        <f t="shared" si="106"/>
+        <v>insert into MONSTER_GROUP (NAME, EXPANSION, MESSAGE_CODE, ATTACK_TYPE, MONSTER_SIZE, MASTER, MINION)
+values ('Blood Ape', 'SotS', 'monstergroup.bloodape.sots', 'Melee', 'Medium', 1, 2);</v>
+      </c>
+      <c r="Q714" t="str">
+        <f t="shared" si="107"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Blood Ape', 'SotS', 'Hot');</v>
+      </c>
+      <c r="R714" t="str">
+        <f t="shared" si="108"/>
+        <v>insert into MONSTER_GROUP_TRAIT (MONSTER_GROUP, EXPANSION, MONSTER_TRAIT)
+values ('Blood Ape', 'SotS', 'Cave');</v>
+      </c>
+    </row>
+    <row r="716" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A716" t="s">
         <v>1288</v>
       </c>
-      <c r="B683" s="3" t="s">
+      <c r="B716" s="3" t="s">
         <v>1287</v>
       </c>
-      <c r="C683" s="3" t="s">
+      <c r="C716" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D716" s="3" t="s">
         <v>1295</v>
       </c>
-      <c r="D683" t="s">
+      <c r="E716" t="s">
         <v>1289</v>
       </c>
-      <c r="E683" t="s">
+      <c r="F716" t="s">
         <v>1290</v>
+      </c>
+      <c r="G716" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H716" t="s">
+        <v>1290</v>
+      </c>
+      <c r="I716" t="s">
+        <v>1289</v>
+      </c>
+      <c r="J716" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="717" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B717" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C717" t="s">
+        <v>63</v>
+      </c>
+      <c r="D717">
+        <v>2</v>
+      </c>
+      <c r="E717">
+        <v>1</v>
+      </c>
+      <c r="F717">
+        <v>2</v>
+      </c>
+      <c r="G717">
+        <v>1</v>
+      </c>
+      <c r="H717">
+        <v>3</v>
+      </c>
+      <c r="I717">
+        <v>1</v>
+      </c>
+      <c r="J717">
+        <v>4</v>
+      </c>
+      <c r="K717" t="str">
+        <f>"insert into "&amp;A$716&amp;" ("&amp;B$716&amp;", "&amp;C$716&amp;", "&amp;D$716&amp;", "&amp;E$716&amp;", "&amp;F$716&amp;")
+values ('"&amp;B717&amp;"', '"&amp;C717&amp;"', "&amp;D717&amp;", "&amp;E717&amp;", "&amp;F717&amp;");"</f>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Goblin Archer', 'D2E', 2, 1, 2);</v>
+      </c>
+      <c r="L717" t="str">
+        <f>"insert into "&amp;A$716&amp;" ("&amp;B$716&amp;", "&amp;C$716&amp;", "&amp;D$716&amp;", "&amp;E$716&amp;", "&amp;F$716&amp;")
+values ('"&amp;B717&amp;"', '"&amp;C717&amp;"', "&amp;D717+1&amp;", "&amp;G717&amp;", "&amp;H717&amp;");"</f>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Goblin Archer', 'D2E', 3, 1, 3);</v>
+      </c>
+      <c r="M717" t="str">
+        <f>"insert into "&amp;A$716&amp;" ("&amp;B$716&amp;", "&amp;C$716&amp;", "&amp;D$716&amp;", "&amp;E$716&amp;", "&amp;F$716&amp;")
+values ('"&amp;B717&amp;"', '"&amp;C717&amp;"', "&amp;D717+2&amp;", "&amp;I717&amp;", "&amp;J717&amp;");"</f>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Goblin Archer', 'D2E', 4, 1, 4);</v>
+      </c>
+    </row>
+    <row r="718" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B718" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C718" t="s">
+        <v>63</v>
+      </c>
+      <c r="D718">
+        <v>2</v>
+      </c>
+      <c r="E718">
+        <v>1</v>
+      </c>
+      <c r="F718">
+        <v>2</v>
+      </c>
+      <c r="G718">
+        <v>1</v>
+      </c>
+      <c r="H718">
+        <v>3</v>
+      </c>
+      <c r="I718">
+        <v>1</v>
+      </c>
+      <c r="J718">
+        <v>4</v>
+      </c>
+      <c r="K718" t="str">
+        <f t="shared" ref="K718:K764" si="109">"insert into "&amp;A$716&amp;" ("&amp;B$716&amp;", "&amp;C$716&amp;", "&amp;D$716&amp;", "&amp;E$716&amp;", "&amp;F$716&amp;")
+values ('"&amp;B718&amp;"', '"&amp;C718&amp;"', "&amp;D718&amp;", "&amp;E718&amp;", "&amp;F718&amp;");"</f>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Zombie', 'D2E', 2, 1, 2);</v>
+      </c>
+      <c r="L718" t="str">
+        <f t="shared" ref="L718:L764" si="110">"insert into "&amp;A$716&amp;" ("&amp;B$716&amp;", "&amp;C$716&amp;", "&amp;D$716&amp;", "&amp;E$716&amp;", "&amp;F$716&amp;")
+values ('"&amp;B718&amp;"', '"&amp;C718&amp;"', "&amp;D718+1&amp;", "&amp;G718&amp;", "&amp;H718&amp;");"</f>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Zombie', 'D2E', 3, 1, 3);</v>
+      </c>
+      <c r="M718" t="str">
+        <f t="shared" ref="M718:M764" si="111">"insert into "&amp;A$716&amp;" ("&amp;B$716&amp;", "&amp;C$716&amp;", "&amp;D$716&amp;", "&amp;E$716&amp;", "&amp;F$716&amp;")
+values ('"&amp;B718&amp;"', '"&amp;C718&amp;"', "&amp;D718+2&amp;", "&amp;I718&amp;", "&amp;J718&amp;");"</f>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Zombie', 'D2E', 4, 1, 4);</v>
+      </c>
+    </row>
+    <row r="719" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B719" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C719" t="s">
+        <v>63</v>
+      </c>
+      <c r="D719">
+        <v>2</v>
+      </c>
+      <c r="E719">
+        <v>1</v>
+      </c>
+      <c r="F719">
+        <v>2</v>
+      </c>
+      <c r="G719">
+        <v>1</v>
+      </c>
+      <c r="H719">
+        <v>3</v>
+      </c>
+      <c r="I719">
+        <v>1</v>
+      </c>
+      <c r="J719">
+        <v>4</v>
+      </c>
+      <c r="K719" t="str">
+        <f t="shared" si="109"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Cave Spider', 'D2E', 2, 1, 2);</v>
+      </c>
+      <c r="L719" t="str">
+        <f t="shared" si="110"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Cave Spider', 'D2E', 3, 1, 3);</v>
+      </c>
+      <c r="M719" t="str">
+        <f t="shared" si="111"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Cave Spider', 'D2E', 4, 1, 4);</v>
+      </c>
+    </row>
+    <row r="720" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B720" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C720" t="s">
+        <v>63</v>
+      </c>
+      <c r="D720">
+        <v>2</v>
+      </c>
+      <c r="E720">
+        <v>1</v>
+      </c>
+      <c r="F720">
+        <v>1</v>
+      </c>
+      <c r="G720">
+        <v>1</v>
+      </c>
+      <c r="H720">
+        <v>2</v>
+      </c>
+      <c r="I720">
+        <v>1</v>
+      </c>
+      <c r="J720">
+        <v>3</v>
+      </c>
+      <c r="K720" t="str">
+        <f t="shared" si="109"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Flesh Moulders', 'D2E', 2, 1, 1);</v>
+      </c>
+      <c r="L720" t="str">
+        <f t="shared" si="110"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Flesh Moulders', 'D2E', 3, 1, 2);</v>
+      </c>
+      <c r="M720" t="str">
+        <f t="shared" si="111"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Flesh Moulders', 'D2E', 4, 1, 3);</v>
+      </c>
+    </row>
+    <row r="721" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B721" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C721" t="s">
+        <v>63</v>
+      </c>
+      <c r="D721">
+        <v>2</v>
+      </c>
+      <c r="E721">
+        <v>1</v>
+      </c>
+      <c r="F721">
+        <v>1</v>
+      </c>
+      <c r="G721">
+        <v>1</v>
+      </c>
+      <c r="H721">
+        <v>2</v>
+      </c>
+      <c r="I721">
+        <v>1</v>
+      </c>
+      <c r="J721">
+        <v>3</v>
+      </c>
+      <c r="K721" t="str">
+        <f t="shared" si="109"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Barghest', 'D2E', 2, 1, 1);</v>
+      </c>
+      <c r="L721" t="str">
+        <f t="shared" si="110"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Barghest', 'D2E', 3, 1, 2);</v>
+      </c>
+      <c r="M721" t="str">
+        <f t="shared" si="111"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Barghest', 'D2E', 4, 1, 3);</v>
+      </c>
+    </row>
+    <row r="722" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B722" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C722" t="s">
+        <v>63</v>
+      </c>
+      <c r="D722">
+        <v>2</v>
+      </c>
+      <c r="E722">
+        <v>0</v>
+      </c>
+      <c r="F722">
+        <v>1</v>
+      </c>
+      <c r="G722">
+        <v>1</v>
+      </c>
+      <c r="H722">
+        <v>0</v>
+      </c>
+      <c r="I722">
+        <v>1</v>
+      </c>
+      <c r="J722">
+        <v>1</v>
+      </c>
+      <c r="K722" t="str">
+        <f t="shared" si="109"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Ettin', 'D2E', 2, 0, 1);</v>
+      </c>
+      <c r="L722" t="str">
+        <f t="shared" si="110"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Ettin', 'D2E', 3, 1, 0);</v>
+      </c>
+      <c r="M722" t="str">
+        <f t="shared" si="111"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Ettin', 'D2E', 4, 1, 1);</v>
+      </c>
+    </row>
+    <row r="723" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B723" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C723" t="s">
+        <v>63</v>
+      </c>
+      <c r="D723">
+        <v>2</v>
+      </c>
+      <c r="E723">
+        <v>0</v>
+      </c>
+      <c r="F723">
+        <v>1</v>
+      </c>
+      <c r="G723">
+        <v>1</v>
+      </c>
+      <c r="H723">
+        <v>0</v>
+      </c>
+      <c r="I723">
+        <v>1</v>
+      </c>
+      <c r="J723">
+        <v>1</v>
+      </c>
+      <c r="K723" t="str">
+        <f t="shared" si="109"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Elemental', 'D2E', 2, 0, 1);</v>
+      </c>
+      <c r="L723" t="str">
+        <f t="shared" si="110"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Elemental', 'D2E', 3, 1, 0);</v>
+      </c>
+      <c r="M723" t="str">
+        <f t="shared" si="111"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Elemental', 'D2E', 4, 1, 1);</v>
+      </c>
+    </row>
+    <row r="724" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B724" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C724" t="s">
+        <v>63</v>
+      </c>
+      <c r="D724">
+        <v>2</v>
+      </c>
+      <c r="E724">
+        <v>0</v>
+      </c>
+      <c r="F724">
+        <v>1</v>
+      </c>
+      <c r="G724">
+        <v>1</v>
+      </c>
+      <c r="H724">
+        <v>0</v>
+      </c>
+      <c r="I724">
+        <v>1</v>
+      </c>
+      <c r="J724">
+        <v>1</v>
+      </c>
+      <c r="K724" t="str">
+        <f t="shared" si="109"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Merriod', 'D2E', 2, 0, 1);</v>
+      </c>
+      <c r="L724" t="str">
+        <f t="shared" si="110"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Merriod', 'D2E', 3, 1, 0);</v>
+      </c>
+      <c r="M724" t="str">
+        <f t="shared" si="111"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Merriod', 'D2E', 4, 1, 1);</v>
+      </c>
+    </row>
+    <row r="725" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B725" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C725" t="s">
+        <v>63</v>
+      </c>
+      <c r="D725">
+        <v>2</v>
+      </c>
+      <c r="E725">
+        <v>0</v>
+      </c>
+      <c r="F725">
+        <v>1</v>
+      </c>
+      <c r="G725">
+        <v>1</v>
+      </c>
+      <c r="H725">
+        <v>0</v>
+      </c>
+      <c r="I725">
+        <v>1</v>
+      </c>
+      <c r="J725">
+        <v>1</v>
+      </c>
+      <c r="K725" t="str">
+        <f t="shared" si="109"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Shadow Dragon', 'D2E', 2, 0, 1);</v>
+      </c>
+      <c r="L725" t="str">
+        <f t="shared" si="110"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Shadow Dragon', 'D2E', 3, 1, 0);</v>
+      </c>
+      <c r="M725" t="str">
+        <f t="shared" si="111"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Shadow Dragon', 'D2E', 4, 1, 1);</v>
+      </c>
+    </row>
+    <row r="726" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B726" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C726" t="s">
+        <v>71</v>
+      </c>
+      <c r="D726">
+        <v>2</v>
+      </c>
+      <c r="E726">
+        <v>1</v>
+      </c>
+      <c r="F726">
+        <v>2</v>
+      </c>
+      <c r="G726">
+        <v>1</v>
+      </c>
+      <c r="H726">
+        <v>3</v>
+      </c>
+      <c r="I726">
+        <v>2</v>
+      </c>
+      <c r="J726">
+        <v>3</v>
+      </c>
+      <c r="K726" t="str">
+        <f t="shared" si="109"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Fire Imp', 'LotW', 2, 1, 2);</v>
+      </c>
+      <c r="L726" t="str">
+        <f t="shared" si="110"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Fire Imp', 'LotW', 3, 1, 3);</v>
+      </c>
+      <c r="M726" t="str">
+        <f t="shared" si="111"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Fire Imp', 'LotW', 4, 2, 3);</v>
+      </c>
+    </row>
+    <row r="727" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B727" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C727" t="s">
+        <v>71</v>
+      </c>
+      <c r="D727">
+        <v>2</v>
+      </c>
+      <c r="E727">
+        <v>1</v>
+      </c>
+      <c r="F727">
+        <v>0</v>
+      </c>
+      <c r="G727">
+        <v>1</v>
+      </c>
+      <c r="H727">
+        <v>1</v>
+      </c>
+      <c r="I727">
+        <v>1</v>
+      </c>
+      <c r="J727">
+        <v>2</v>
+      </c>
+      <c r="K727" t="str">
+        <f t="shared" si="109"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Hybrid Sentinel', 'LotW', 2, 1, 0);</v>
+      </c>
+      <c r="L727" t="str">
+        <f t="shared" si="110"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Hybrid Sentinel', 'LotW', 3, 1, 1);</v>
+      </c>
+      <c r="M727" t="str">
+        <f t="shared" si="111"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Hybrid Sentinel', 'LotW', 4, 1, 2);</v>
+      </c>
+    </row>
+    <row r="728" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B728" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C728" t="s">
+        <v>64</v>
+      </c>
+      <c r="D728">
+        <v>2</v>
+      </c>
+      <c r="E728">
+        <v>1</v>
+      </c>
+      <c r="F728">
+        <v>1</v>
+      </c>
+      <c r="G728">
+        <v>1</v>
+      </c>
+      <c r="H728">
+        <v>2</v>
+      </c>
+      <c r="I728">
+        <v>1</v>
+      </c>
+      <c r="J728">
+        <v>3</v>
+      </c>
+      <c r="K728" t="str">
+        <f t="shared" si="109"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Goblin Witcher', 'LoR', 2, 1, 1);</v>
+      </c>
+      <c r="L728" t="str">
+        <f t="shared" si="110"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Goblin Witcher', 'LoR', 3, 1, 2);</v>
+      </c>
+      <c r="M728" t="str">
+        <f t="shared" si="111"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Goblin Witcher', 'LoR', 4, 1, 3);</v>
+      </c>
+    </row>
+    <row r="729" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B729" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C729" t="s">
+        <v>64</v>
+      </c>
+      <c r="D729">
+        <v>2</v>
+      </c>
+      <c r="E729">
+        <v>0</v>
+      </c>
+      <c r="F729">
+        <v>2</v>
+      </c>
+      <c r="G729">
+        <v>1</v>
+      </c>
+      <c r="H729">
+        <v>2</v>
+      </c>
+      <c r="I729">
+        <v>1</v>
+      </c>
+      <c r="J729">
+        <v>3</v>
+      </c>
+      <c r="K729" t="str">
+        <f t="shared" si="109"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Volucrix Reaver', 'LoR', 2, 0, 2);</v>
+      </c>
+      <c r="L729" t="str">
+        <f t="shared" si="110"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Volucrix Reaver', 'LoR', 3, 1, 2);</v>
+      </c>
+      <c r="M729" t="str">
+        <f t="shared" si="111"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Volucrix Reaver', 'LoR', 4, 1, 3);</v>
+      </c>
+    </row>
+    <row r="730" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B730" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C730" t="s">
+        <v>64</v>
+      </c>
+      <c r="D730">
+        <v>2</v>
+      </c>
+      <c r="E730">
+        <v>0</v>
+      </c>
+      <c r="F730">
+        <v>1</v>
+      </c>
+      <c r="G730">
+        <v>1</v>
+      </c>
+      <c r="H730">
+        <v>0</v>
+      </c>
+      <c r="I730">
+        <v>1</v>
+      </c>
+      <c r="J730">
+        <v>1</v>
+      </c>
+      <c r="K730" t="str">
+        <f t="shared" si="109"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Arachyura', 'LoR', 2, 0, 1);</v>
+      </c>
+      <c r="L730" t="str">
+        <f t="shared" si="110"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Arachyura', 'LoR', 3, 1, 0);</v>
+      </c>
+      <c r="M730" t="str">
+        <f t="shared" si="111"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Arachyura', 'LoR', 4, 1, 1);</v>
+      </c>
+    </row>
+    <row r="731" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B731" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C731" t="s">
+        <v>64</v>
+      </c>
+      <c r="D731">
+        <v>2</v>
+      </c>
+      <c r="E731">
+        <v>1</v>
+      </c>
+      <c r="F731">
+        <v>0</v>
+      </c>
+      <c r="G731">
+        <v>1</v>
+      </c>
+      <c r="H731">
+        <v>1</v>
+      </c>
+      <c r="I731">
+        <v>1</v>
+      </c>
+      <c r="J731">
+        <v>2</v>
+      </c>
+      <c r="K731" t="str">
+        <f t="shared" si="109"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Carrion Drake', 'LoR', 2, 1, 0);</v>
+      </c>
+      <c r="L731" t="str">
+        <f t="shared" si="110"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Carrion Drake', 'LoR', 3, 1, 1);</v>
+      </c>
+      <c r="M731" t="str">
+        <f t="shared" si="111"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Carrion Drake', 'LoR', 4, 1, 2);</v>
+      </c>
+    </row>
+    <row r="732" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B732" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C732" t="s">
+        <v>72</v>
+      </c>
+      <c r="D732">
+        <v>2</v>
+      </c>
+      <c r="E732">
+        <v>1</v>
+      </c>
+      <c r="F732">
+        <v>1</v>
+      </c>
+      <c r="G732">
+        <v>1</v>
+      </c>
+      <c r="H732">
+        <v>2</v>
+      </c>
+      <c r="I732">
+        <v>1</v>
+      </c>
+      <c r="J732">
+        <v>3</v>
+      </c>
+      <c r="K732" t="str">
+        <f t="shared" si="109"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Harpy', 'TT', 2, 1, 1);</v>
+      </c>
+      <c r="L732" t="str">
+        <f t="shared" si="110"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Harpy', 'TT', 3, 1, 2);</v>
+      </c>
+      <c r="M732" t="str">
+        <f t="shared" si="111"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Harpy', 'TT', 4, 1, 3);</v>
+      </c>
+    </row>
+    <row r="733" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B733" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C733" t="s">
+        <v>72</v>
+      </c>
+      <c r="D733">
+        <v>2</v>
+      </c>
+      <c r="E733">
+        <v>1</v>
+      </c>
+      <c r="F733">
+        <v>0</v>
+      </c>
+      <c r="G733">
+        <v>1</v>
+      </c>
+      <c r="H733">
+        <v>1</v>
+      </c>
+      <c r="I733">
+        <v>1</v>
+      </c>
+      <c r="J733">
+        <v>2</v>
+      </c>
+      <c r="K733" t="str">
+        <f t="shared" si="109"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Plague Worm', 'TT', 2, 1, 0);</v>
+      </c>
+      <c r="L733" t="str">
+        <f t="shared" si="110"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Plague Worm', 'TT', 3, 1, 1);</v>
+      </c>
+      <c r="M733" t="str">
+        <f t="shared" si="111"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Plague Worm', 'TT', 4, 1, 2);</v>
+      </c>
+    </row>
+    <row r="734" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B734" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C734" t="s">
+        <v>66</v>
+      </c>
+      <c r="D734">
+        <v>2</v>
+      </c>
+      <c r="E734">
+        <v>0</v>
+      </c>
+      <c r="F734">
+        <v>2</v>
+      </c>
+      <c r="G734">
+        <v>1</v>
+      </c>
+      <c r="H734">
+        <v>2</v>
+      </c>
+      <c r="I734">
+        <v>1</v>
+      </c>
+      <c r="J734">
+        <v>3</v>
+      </c>
+      <c r="K734" t="str">
+        <f t="shared" si="109"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Rat Swarm', 'SoN', 2, 0, 2);</v>
+      </c>
+      <c r="L734" t="str">
+        <f t="shared" si="110"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Rat Swarm', 'SoN', 3, 1, 2);</v>
+      </c>
+      <c r="M734" t="str">
+        <f t="shared" si="111"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Rat Swarm', 'SoN', 4, 1, 3);</v>
+      </c>
+    </row>
+    <row r="735" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B735" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C735" t="s">
+        <v>66</v>
+      </c>
+      <c r="D735">
+        <v>2</v>
+      </c>
+      <c r="E735">
+        <v>1</v>
+      </c>
+      <c r="F735">
+        <v>1</v>
+      </c>
+      <c r="G735">
+        <v>1</v>
+      </c>
+      <c r="H735">
+        <v>2</v>
+      </c>
+      <c r="I735">
+        <v>1</v>
+      </c>
+      <c r="J735">
+        <v>3</v>
+      </c>
+      <c r="K735" t="str">
+        <f t="shared" si="109"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Changelin', 'SoN', 2, 1, 1);</v>
+      </c>
+      <c r="L735" t="str">
+        <f t="shared" si="110"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Changelin', 'SoN', 3, 1, 2);</v>
+      </c>
+      <c r="M735" t="str">
+        <f t="shared" si="111"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Changelin', 'SoN', 4, 1, 3);</v>
+      </c>
+    </row>
+    <row r="736" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B736" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C736" t="s">
+        <v>66</v>
+      </c>
+      <c r="D736">
+        <v>2</v>
+      </c>
+      <c r="E736">
+        <v>0</v>
+      </c>
+      <c r="F736">
+        <v>1</v>
+      </c>
+      <c r="G736">
+        <v>1</v>
+      </c>
+      <c r="H736">
+        <v>0</v>
+      </c>
+      <c r="I736">
+        <v>1</v>
+      </c>
+      <c r="J736">
+        <v>1</v>
+      </c>
+      <c r="K736" t="str">
+        <f t="shared" si="109"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Ironbound', 'SoN', 2, 0, 1);</v>
+      </c>
+      <c r="L736" t="str">
+        <f t="shared" si="110"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Ironbound', 'SoN', 3, 1, 0);</v>
+      </c>
+      <c r="M736" t="str">
+        <f t="shared" si="111"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Ironbound', 'SoN', 4, 1, 1);</v>
+      </c>
+    </row>
+    <row r="737" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B737" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C737" t="s">
+        <v>66</v>
+      </c>
+      <c r="D737">
+        <v>2</v>
+      </c>
+      <c r="E737">
+        <v>0</v>
+      </c>
+      <c r="F737">
+        <v>1</v>
+      </c>
+      <c r="G737">
+        <v>1</v>
+      </c>
+      <c r="H737">
+        <v>0</v>
+      </c>
+      <c r="I737">
+        <v>1</v>
+      </c>
+      <c r="J737">
+        <v>1</v>
+      </c>
+      <c r="K737" t="str">
+        <f t="shared" si="109"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Ynfernael Hulk', 'SoN', 2, 0, 1);</v>
+      </c>
+      <c r="L737" t="str">
+        <f t="shared" si="110"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Ynfernael Hulk', 'SoN', 3, 1, 0);</v>
+      </c>
+      <c r="M737" t="str">
+        <f t="shared" si="111"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Ynfernael Hulk', 'SoN', 4, 1, 1);</v>
+      </c>
+    </row>
+    <row r="738" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B738" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C738" t="s">
+        <v>67</v>
+      </c>
+      <c r="D738">
+        <v>2</v>
+      </c>
+      <c r="E738">
+        <v>1</v>
+      </c>
+      <c r="F738">
+        <v>2</v>
+      </c>
+      <c r="G738">
+        <v>1</v>
+      </c>
+      <c r="H738">
+        <v>3</v>
+      </c>
+      <c r="I738">
+        <v>1</v>
+      </c>
+      <c r="J738">
+        <v>4</v>
+      </c>
+      <c r="K738" t="str">
+        <f t="shared" si="109"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Bandit', 'MoR', 2, 1, 2);</v>
+      </c>
+      <c r="L738" t="str">
+        <f t="shared" si="110"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Bandit', 'MoR', 3, 1, 3);</v>
+      </c>
+      <c r="M738" t="str">
+        <f t="shared" si="111"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Bandit', 'MoR', 4, 1, 4);</v>
+      </c>
+    </row>
+    <row r="739" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B739" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C739" t="s">
+        <v>67</v>
+      </c>
+      <c r="D739">
+        <v>2</v>
+      </c>
+      <c r="E739">
+        <v>1</v>
+      </c>
+      <c r="F739">
+        <v>0</v>
+      </c>
+      <c r="G739">
+        <v>1</v>
+      </c>
+      <c r="H739">
+        <v>1</v>
+      </c>
+      <c r="I739">
+        <v>1</v>
+      </c>
+      <c r="J739">
+        <v>2</v>
+      </c>
+      <c r="K739" t="str">
+        <f t="shared" si="109"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Wraith', 'MoR', 2, 1, 0);</v>
+      </c>
+      <c r="L739" t="str">
+        <f t="shared" si="110"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Wraith', 'MoR', 3, 1, 1);</v>
+      </c>
+      <c r="M739" t="str">
+        <f t="shared" si="111"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Wraith', 'MoR', 4, 1, 2);</v>
+      </c>
+    </row>
+    <row r="740" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B740" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C740" t="s">
+        <v>65</v>
+      </c>
+      <c r="D740">
+        <v>2</v>
+      </c>
+      <c r="E740">
+        <v>1</v>
+      </c>
+      <c r="F740">
+        <v>1</v>
+      </c>
+      <c r="G740">
+        <v>1</v>
+      </c>
+      <c r="H740">
+        <v>2</v>
+      </c>
+      <c r="I740">
+        <v>1</v>
+      </c>
+      <c r="J740">
+        <v>3</v>
+      </c>
+      <c r="K740" t="str">
+        <f t="shared" si="109"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Beastman', 'DCK', 2, 1, 1);</v>
+      </c>
+      <c r="L740" t="str">
+        <f t="shared" si="110"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Beastman', 'DCK', 3, 1, 2);</v>
+      </c>
+      <c r="M740" t="str">
+        <f t="shared" si="111"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Beastman', 'DCK', 4, 1, 3);</v>
+      </c>
+    </row>
+    <row r="741" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B741" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C741" t="s">
+        <v>65</v>
+      </c>
+      <c r="D741">
+        <v>2</v>
+      </c>
+      <c r="E741">
+        <v>1</v>
+      </c>
+      <c r="F741">
+        <v>2</v>
+      </c>
+      <c r="G741">
+        <v>1</v>
+      </c>
+      <c r="H741">
+        <v>3</v>
+      </c>
+      <c r="I741">
+        <v>1</v>
+      </c>
+      <c r="J741">
+        <v>4</v>
+      </c>
+      <c r="K741" t="str">
+        <f t="shared" si="109"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Skeleton Archer', 'DCK', 2, 1, 2);</v>
+      </c>
+      <c r="L741" t="str">
+        <f t="shared" si="110"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Skeleton Archer', 'DCK', 3, 1, 3);</v>
+      </c>
+      <c r="M741" t="str">
+        <f t="shared" si="111"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Skeleton Archer', 'DCK', 4, 1, 4);</v>
+      </c>
+    </row>
+    <row r="742" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B742" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C742" t="s">
+        <v>65</v>
+      </c>
+      <c r="D742">
+        <v>2</v>
+      </c>
+      <c r="E742">
+        <v>1</v>
+      </c>
+      <c r="F742">
+        <v>0</v>
+      </c>
+      <c r="G742">
+        <v>1</v>
+      </c>
+      <c r="H742">
+        <v>1</v>
+      </c>
+      <c r="I742">
+        <v>1</v>
+      </c>
+      <c r="J742">
+        <v>2</v>
+      </c>
+      <c r="K742" t="str">
+        <f t="shared" si="109"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Bane Spider', 'DCK', 2, 1, 0);</v>
+      </c>
+      <c r="L742" t="str">
+        <f t="shared" si="110"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Bane Spider', 'DCK', 3, 1, 1);</v>
+      </c>
+      <c r="M742" t="str">
+        <f t="shared" si="111"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Bane Spider', 'DCK', 4, 1, 2);</v>
+      </c>
+    </row>
+    <row r="743" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B743" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C743" t="s">
+        <v>65</v>
+      </c>
+      <c r="D743">
+        <v>2</v>
+      </c>
+      <c r="E743">
+        <v>1</v>
+      </c>
+      <c r="F743">
+        <v>1</v>
+      </c>
+      <c r="G743">
+        <v>1</v>
+      </c>
+      <c r="H743">
+        <v>2</v>
+      </c>
+      <c r="I743">
+        <v>1</v>
+      </c>
+      <c r="J743">
+        <v>3</v>
+      </c>
+      <c r="K743" t="str">
+        <f t="shared" si="109"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Razorwing', 'DCK', 2, 1, 1);</v>
+      </c>
+      <c r="L743" t="str">
+        <f t="shared" si="110"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Razorwing', 'DCK', 3, 1, 2);</v>
+      </c>
+      <c r="M743" t="str">
+        <f t="shared" si="111"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Razorwing', 'DCK', 4, 1, 3);</v>
+      </c>
+    </row>
+    <row r="744" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B744" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C744" t="s">
+        <v>65</v>
+      </c>
+      <c r="D744">
+        <v>2</v>
+      </c>
+      <c r="E744">
+        <v>1</v>
+      </c>
+      <c r="F744">
+        <v>2</v>
+      </c>
+      <c r="G744">
+        <v>1</v>
+      </c>
+      <c r="H744">
+        <v>2</v>
+      </c>
+      <c r="I744">
+        <v>1</v>
+      </c>
+      <c r="J744">
+        <v>3</v>
+      </c>
+      <c r="K744" t="str">
+        <f t="shared" si="109"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Hell Hound', 'DCK', 2, 1, 2);</v>
+      </c>
+      <c r="L744" t="str">
+        <f t="shared" si="110"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Hell Hound', 'DCK', 3, 1, 2);</v>
+      </c>
+      <c r="M744" t="str">
+        <f t="shared" si="111"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Hell Hound', 'DCK', 4, 1, 3);</v>
+      </c>
+    </row>
+    <row r="745" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B745" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C745" t="s">
+        <v>65</v>
+      </c>
+      <c r="D745">
+        <v>2</v>
+      </c>
+      <c r="E745">
+        <v>1</v>
+      </c>
+      <c r="F745">
+        <v>1</v>
+      </c>
+      <c r="G745">
+        <v>1</v>
+      </c>
+      <c r="H745">
+        <v>2</v>
+      </c>
+      <c r="I745">
+        <v>1</v>
+      </c>
+      <c r="J745">
+        <v>3</v>
+      </c>
+      <c r="K745" t="str">
+        <f t="shared" si="109"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Sorcerer', 'DCK', 2, 1, 1);</v>
+      </c>
+      <c r="L745" t="str">
+        <f t="shared" si="110"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Sorcerer', 'DCK', 3, 1, 2);</v>
+      </c>
+      <c r="M745" t="str">
+        <f t="shared" si="111"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Sorcerer', 'DCK', 4, 1, 3);</v>
+      </c>
+    </row>
+    <row r="746" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B746" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C746" t="s">
+        <v>65</v>
+      </c>
+      <c r="D746">
+        <v>2</v>
+      </c>
+      <c r="E746">
+        <v>0</v>
+      </c>
+      <c r="F746">
+        <v>1</v>
+      </c>
+      <c r="G746">
+        <v>1</v>
+      </c>
+      <c r="H746">
+        <v>0</v>
+      </c>
+      <c r="I746">
+        <v>1</v>
+      </c>
+      <c r="J746">
+        <v>1</v>
+      </c>
+      <c r="K746" t="str">
+        <f t="shared" si="109"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Ogre', 'DCK', 2, 0, 1);</v>
+      </c>
+      <c r="L746" t="str">
+        <f t="shared" si="110"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Ogre', 'DCK', 3, 1, 0);</v>
+      </c>
+      <c r="M746" t="str">
+        <f t="shared" si="111"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Ogre', 'DCK', 4, 1, 1);</v>
+      </c>
+    </row>
+    <row r="747" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B747" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C747" t="s">
+        <v>65</v>
+      </c>
+      <c r="D747">
+        <v>2</v>
+      </c>
+      <c r="E747">
+        <v>0</v>
+      </c>
+      <c r="F747">
+        <v>1</v>
+      </c>
+      <c r="G747">
+        <v>1</v>
+      </c>
+      <c r="H747">
+        <v>0</v>
+      </c>
+      <c r="I747">
+        <v>1</v>
+      </c>
+      <c r="J747">
+        <v>1</v>
+      </c>
+      <c r="K747" t="str">
+        <f t="shared" si="109"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Manticore', 'DCK', 2, 0, 1);</v>
+      </c>
+      <c r="L747" t="str">
+        <f t="shared" si="110"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Manticore', 'DCK', 3, 1, 0);</v>
+      </c>
+      <c r="M747" t="str">
+        <f t="shared" si="111"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Manticore', 'DCK', 4, 1, 1);</v>
+      </c>
+    </row>
+    <row r="748" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B748" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C748" t="s">
+        <v>65</v>
+      </c>
+      <c r="D748">
+        <v>2</v>
+      </c>
+      <c r="E748">
+        <v>1</v>
+      </c>
+      <c r="F748">
+        <v>0</v>
+      </c>
+      <c r="G748">
+        <v>1</v>
+      </c>
+      <c r="H748">
+        <v>1</v>
+      </c>
+      <c r="I748">
+        <v>1</v>
+      </c>
+      <c r="J748">
+        <v>2</v>
+      </c>
+      <c r="K748" t="str">
+        <f t="shared" si="109"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Naga', 'DCK', 2, 1, 0);</v>
+      </c>
+      <c r="L748" t="str">
+        <f t="shared" si="110"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Naga', 'DCK', 3, 1, 1);</v>
+      </c>
+      <c r="M748" t="str">
+        <f t="shared" si="111"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Naga', 'DCK', 4, 1, 2);</v>
+      </c>
+    </row>
+    <row r="749" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B749" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C749" t="s">
+        <v>65</v>
+      </c>
+      <c r="D749">
+        <v>2</v>
+      </c>
+      <c r="E749">
+        <v>0</v>
+      </c>
+      <c r="F749">
+        <v>1</v>
+      </c>
+      <c r="G749">
+        <v>1</v>
+      </c>
+      <c r="H749">
+        <v>0</v>
+      </c>
+      <c r="I749">
+        <v>1</v>
+      </c>
+      <c r="J749">
+        <v>1</v>
+      </c>
+      <c r="K749" t="str">
+        <f t="shared" si="109"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Giant', 'DCK', 2, 0, 1);</v>
+      </c>
+      <c r="L749" t="str">
+        <f t="shared" si="110"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Giant', 'DCK', 3, 1, 0);</v>
+      </c>
+      <c r="M749" t="str">
+        <f t="shared" si="111"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Giant', 'DCK', 4, 1, 1);</v>
+      </c>
+    </row>
+    <row r="750" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B750" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C750" t="s">
+        <v>65</v>
+      </c>
+      <c r="D750">
+        <v>2</v>
+      </c>
+      <c r="E750">
+        <v>0</v>
+      </c>
+      <c r="F750">
+        <v>1</v>
+      </c>
+      <c r="G750">
+        <v>1</v>
+      </c>
+      <c r="H750">
+        <v>0</v>
+      </c>
+      <c r="I750">
+        <v>1</v>
+      </c>
+      <c r="J750">
+        <v>1</v>
+      </c>
+      <c r="K750" t="str">
+        <f t="shared" si="109"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Crypt Dragon', 'DCK', 2, 0, 1);</v>
+      </c>
+      <c r="L750" t="str">
+        <f t="shared" si="110"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Crypt Dragon', 'DCK', 3, 1, 0);</v>
+      </c>
+      <c r="M750" t="str">
+        <f t="shared" si="111"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Crypt Dragon', 'DCK', 4, 1, 1);</v>
+      </c>
+    </row>
+    <row r="751" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B751" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C751" t="s">
+        <v>65</v>
+      </c>
+      <c r="D751">
+        <v>2</v>
+      </c>
+      <c r="E751">
+        <v>0</v>
+      </c>
+      <c r="F751">
+        <v>1</v>
+      </c>
+      <c r="G751">
+        <v>1</v>
+      </c>
+      <c r="H751">
+        <v>0</v>
+      </c>
+      <c r="I751">
+        <v>1</v>
+      </c>
+      <c r="J751">
+        <v>1</v>
+      </c>
+      <c r="K751" t="str">
+        <f t="shared" si="109"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Demon Lord', 'DCK', 2, 0, 1);</v>
+      </c>
+      <c r="L751" t="str">
+        <f t="shared" si="110"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Demon Lord', 'DCK', 3, 1, 0);</v>
+      </c>
+      <c r="M751" t="str">
+        <f t="shared" si="111"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Demon Lord', 'DCK', 4, 1, 1);</v>
+      </c>
+    </row>
+    <row r="752" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B752" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C752" t="s">
+        <v>65</v>
+      </c>
+      <c r="D752">
+        <v>2</v>
+      </c>
+      <c r="E752">
+        <v>2</v>
+      </c>
+      <c r="F752">
+        <v>4</v>
+      </c>
+      <c r="G752">
+        <v>2</v>
+      </c>
+      <c r="H752">
+        <v>8</v>
+      </c>
+      <c r="I752">
+        <v>3</v>
+      </c>
+      <c r="J752">
+        <v>9</v>
+      </c>
+      <c r="K752" t="str">
+        <f t="shared" si="109"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Kobold', 'DCK', 2, 2, 4);</v>
+      </c>
+      <c r="L752" t="str">
+        <f t="shared" si="110"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Kobold', 'DCK', 3, 2, 8);</v>
+      </c>
+      <c r="M752" t="str">
+        <f t="shared" si="111"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Kobold', 'DCK', 4, 3, 9);</v>
+      </c>
+    </row>
+    <row r="753" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B753" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C753" t="s">
+        <v>65</v>
+      </c>
+      <c r="D753">
+        <v>2</v>
+      </c>
+      <c r="E753">
+        <v>1</v>
+      </c>
+      <c r="F753">
+        <v>1</v>
+      </c>
+      <c r="G753">
+        <v>1</v>
+      </c>
+      <c r="H753">
+        <v>2</v>
+      </c>
+      <c r="I753">
+        <v>1</v>
+      </c>
+      <c r="J753">
+        <v>3</v>
+      </c>
+      <c r="K753" t="str">
+        <f t="shared" si="109"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Ferrox', 'DCK', 2, 1, 1);</v>
+      </c>
+      <c r="L753" t="str">
+        <f t="shared" si="110"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Ferrox', 'DCK', 3, 1, 2);</v>
+      </c>
+      <c r="M753" t="str">
+        <f t="shared" si="111"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Ferrox', 'DCK', 4, 1, 3);</v>
+      </c>
+    </row>
+    <row r="754" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B754" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C754" t="s">
+        <v>65</v>
+      </c>
+      <c r="D754">
+        <v>2</v>
+      </c>
+      <c r="E754">
+        <v>0</v>
+      </c>
+      <c r="F754">
+        <v>1</v>
+      </c>
+      <c r="G754">
+        <v>1</v>
+      </c>
+      <c r="H754">
+        <v>0</v>
+      </c>
+      <c r="I754">
+        <v>1</v>
+      </c>
+      <c r="J754">
+        <v>1</v>
+      </c>
+      <c r="K754" t="str">
+        <f t="shared" si="109"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Golem', 'DCK', 2, 0, 1);</v>
+      </c>
+      <c r="L754" t="str">
+        <f t="shared" si="110"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Golem', 'DCK', 3, 1, 0);</v>
+      </c>
+      <c r="M754" t="str">
+        <f t="shared" si="111"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Golem', 'DCK', 4, 1, 1);</v>
+      </c>
+    </row>
+    <row r="755" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B755" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C755" t="s">
+        <v>65</v>
+      </c>
+      <c r="D755">
+        <v>2</v>
+      </c>
+      <c r="E755">
+        <v>1</v>
+      </c>
+      <c r="F755">
+        <v>1</v>
+      </c>
+      <c r="G755">
+        <v>1</v>
+      </c>
+      <c r="H755">
+        <v>2</v>
+      </c>
+      <c r="I755">
+        <v>1</v>
+      </c>
+      <c r="J755">
+        <v>3</v>
+      </c>
+      <c r="K755" t="str">
+        <f t="shared" si="109"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Dark Priest', 'DCK', 2, 1, 1);</v>
+      </c>
+      <c r="L755" t="str">
+        <f t="shared" si="110"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Dark Priest', 'DCK', 3, 1, 2);</v>
+      </c>
+      <c r="M755" t="str">
+        <f t="shared" si="111"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Dark Priest', 'DCK', 4, 1, 3);</v>
+      </c>
+    </row>
+    <row r="756" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B756" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C756" t="s">
+        <v>65</v>
+      </c>
+      <c r="D756">
+        <v>2</v>
+      </c>
+      <c r="E756">
+        <v>1</v>
+      </c>
+      <c r="F756">
+        <v>0</v>
+      </c>
+      <c r="G756">
+        <v>1</v>
+      </c>
+      <c r="H756">
+        <v>1</v>
+      </c>
+      <c r="I756">
+        <v>1</v>
+      </c>
+      <c r="J756">
+        <v>2</v>
+      </c>
+      <c r="K756" t="str">
+        <f t="shared" si="109"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Blood Ape', 'DCK', 2, 1, 0);</v>
+      </c>
+      <c r="L756" t="str">
+        <f t="shared" si="110"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Blood Ape', 'DCK', 3, 1, 1);</v>
+      </c>
+      <c r="M756" t="str">
+        <f t="shared" si="111"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Blood Ape', 'DCK', 4, 1, 2);</v>
+      </c>
+    </row>
+    <row r="757" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B757" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C757" t="s">
+        <v>65</v>
+      </c>
+      <c r="D757">
+        <v>2</v>
+      </c>
+      <c r="E757">
+        <v>1</v>
+      </c>
+      <c r="F757">
+        <v>0</v>
+      </c>
+      <c r="G757">
+        <v>1</v>
+      </c>
+      <c r="H757">
+        <v>1</v>
+      </c>
+      <c r="I757">
+        <v>1</v>
+      </c>
+      <c r="J757">
+        <v>2</v>
+      </c>
+      <c r="K757" t="str">
+        <f t="shared" si="109"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Chaos Beast', 'DCK', 2, 1, 0);</v>
+      </c>
+      <c r="L757" t="str">
+        <f t="shared" si="110"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Chaos Beast', 'DCK', 3, 1, 1);</v>
+      </c>
+      <c r="M757" t="str">
+        <f t="shared" si="111"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Chaos Beast', 'DCK', 4, 1, 2);</v>
+      </c>
+    </row>
+    <row r="758" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B758" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C758" t="s">
+        <v>65</v>
+      </c>
+      <c r="D758">
+        <v>2</v>
+      </c>
+      <c r="E758">
+        <v>0</v>
+      </c>
+      <c r="F758">
+        <v>1</v>
+      </c>
+      <c r="G758">
+        <v>1</v>
+      </c>
+      <c r="H758">
+        <v>0</v>
+      </c>
+      <c r="I758">
+        <v>1</v>
+      </c>
+      <c r="J758">
+        <v>1</v>
+      </c>
+      <c r="K758" t="str">
+        <f t="shared" si="109"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Deep Elf', 'DCK', 2, 0, 1);</v>
+      </c>
+      <c r="L758" t="str">
+        <f t="shared" si="110"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Deep Elf', 'DCK', 3, 1, 0);</v>
+      </c>
+      <c r="M758" t="str">
+        <f t="shared" si="111"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Deep Elf', 'DCK', 4, 1, 1);</v>
+      </c>
+    </row>
+    <row r="759" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B759" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C759" t="s">
+        <v>65</v>
+      </c>
+      <c r="D759">
+        <v>2</v>
+      </c>
+      <c r="E759">
+        <v>0</v>
+      </c>
+      <c r="F759">
+        <v>1</v>
+      </c>
+      <c r="G759">
+        <v>1</v>
+      </c>
+      <c r="H759">
+        <v>0</v>
+      </c>
+      <c r="I759">
+        <v>1</v>
+      </c>
+      <c r="J759">
+        <v>1</v>
+      </c>
+      <c r="K759" t="str">
+        <f t="shared" si="109"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Troll', 'DCK', 2, 0, 1);</v>
+      </c>
+      <c r="L759" t="str">
+        <f t="shared" si="110"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Troll', 'DCK', 3, 1, 0);</v>
+      </c>
+      <c r="M759" t="str">
+        <f t="shared" si="111"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Troll', 'DCK', 4, 1, 1);</v>
+      </c>
+    </row>
+    <row r="760" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B760" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C760" t="s">
+        <v>65</v>
+      </c>
+      <c r="D760">
+        <v>2</v>
+      </c>
+      <c r="E760">
+        <v>1</v>
+      </c>
+      <c r="F760">
+        <v>2</v>
+      </c>
+      <c r="G760">
+        <v>1</v>
+      </c>
+      <c r="H760">
+        <v>3</v>
+      </c>
+      <c r="I760">
+        <v>1</v>
+      </c>
+      <c r="J760">
+        <v>4</v>
+      </c>
+      <c r="K760" t="str">
+        <f t="shared" si="109"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Shade', 'DCK', 2, 1, 2);</v>
+      </c>
+      <c r="L760" t="str">
+        <f t="shared" si="110"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Shade', 'DCK', 3, 1, 3);</v>
+      </c>
+      <c r="M760" t="str">
+        <f t="shared" si="111"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Shade', 'DCK', 4, 1, 4);</v>
+      </c>
+    </row>
+    <row r="761" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B761" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C761" t="s">
+        <v>65</v>
+      </c>
+      <c r="D761">
+        <v>2</v>
+      </c>
+      <c r="E761">
+        <v>1</v>
+      </c>
+      <c r="F761">
+        <v>1</v>
+      </c>
+      <c r="G761">
+        <v>1</v>
+      </c>
+      <c r="H761">
+        <v>2</v>
+      </c>
+      <c r="I761">
+        <v>1</v>
+      </c>
+      <c r="J761">
+        <v>3</v>
+      </c>
+      <c r="K761" t="str">
+        <f t="shared" si="109"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Lava Beetle', 'DCK', 2, 1, 1);</v>
+      </c>
+      <c r="L761" t="str">
+        <f t="shared" si="110"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Lava Beetle', 'DCK', 3, 1, 2);</v>
+      </c>
+      <c r="M761" t="str">
+        <f t="shared" si="111"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Lava Beetle', 'DCK', 4, 1, 3);</v>
+      </c>
+    </row>
+    <row r="762" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B762" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C762" t="s">
+        <v>65</v>
+      </c>
+      <c r="D762">
+        <v>2</v>
+      </c>
+      <c r="E762">
+        <v>0</v>
+      </c>
+      <c r="F762">
+        <v>2</v>
+      </c>
+      <c r="G762">
+        <v>1</v>
+      </c>
+      <c r="H762">
+        <v>1</v>
+      </c>
+      <c r="I762">
+        <v>1</v>
+      </c>
+      <c r="J762">
+        <v>2</v>
+      </c>
+      <c r="K762" t="str">
+        <f t="shared" si="109"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Medusa', 'DCK', 2, 0, 2);</v>
+      </c>
+      <c r="L762" t="str">
+        <f t="shared" si="110"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Medusa', 'DCK', 3, 1, 1);</v>
+      </c>
+      <c r="M762" t="str">
+        <f t="shared" si="111"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Medusa', 'DCK', 4, 1, 2);</v>
+      </c>
+    </row>
+    <row r="763" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B763" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C763" t="s">
+        <v>65</v>
+      </c>
+      <c r="D763">
+        <v>2</v>
+      </c>
+      <c r="E763">
+        <v>1</v>
+      </c>
+      <c r="F763">
+        <v>0</v>
+      </c>
+      <c r="G763">
+        <v>1</v>
+      </c>
+      <c r="H763">
+        <v>1</v>
+      </c>
+      <c r="I763">
+        <v>1</v>
+      </c>
+      <c r="J763">
+        <v>2</v>
+      </c>
+      <c r="K763" t="str">
+        <f t="shared" si="109"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Wendigo', 'DCK', 2, 1, 0);</v>
+      </c>
+      <c r="L763" t="str">
+        <f t="shared" si="110"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Wendigo', 'DCK', 3, 1, 1);</v>
+      </c>
+      <c r="M763" t="str">
+        <f t="shared" si="111"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Wendigo', 'DCK', 4, 1, 2);</v>
+      </c>
+    </row>
+    <row r="764" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B764" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C764" t="s">
+        <v>65</v>
+      </c>
+      <c r="D764">
+        <v>2</v>
+      </c>
+      <c r="E764">
+        <v>0</v>
+      </c>
+      <c r="F764">
+        <v>1</v>
+      </c>
+      <c r="G764">
+        <v>1</v>
+      </c>
+      <c r="H764">
+        <v>0</v>
+      </c>
+      <c r="I764">
+        <v>1</v>
+      </c>
+      <c r="J764">
+        <v>1</v>
+      </c>
+      <c r="K764" t="str">
+        <f t="shared" si="109"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Ice Wyrm', 'DCK', 2, 0, 1);</v>
+      </c>
+      <c r="L764" t="str">
+        <f t="shared" si="110"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Ice Wyrm', 'DCK', 3, 1, 0);</v>
+      </c>
+      <c r="M764" t="str">
+        <f t="shared" si="111"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Ice Wyrm', 'DCK', 4, 1, 1);</v>
+      </c>
+    </row>
+    <row r="765" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B765" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C765" t="s">
+        <v>74</v>
+      </c>
+      <c r="D765">
+        <v>2</v>
+      </c>
+      <c r="E765">
+        <v>1</v>
+      </c>
+      <c r="F765">
+        <v>1</v>
+      </c>
+      <c r="G765">
+        <v>1</v>
+      </c>
+      <c r="H765">
+        <v>2</v>
+      </c>
+      <c r="I765">
+        <v>1</v>
+      </c>
+      <c r="J765">
+        <v>3</v>
+      </c>
+      <c r="K765" t="str">
+        <f t="shared" ref="K765:K788" si="112">"insert into "&amp;A$716&amp;" ("&amp;B$716&amp;", "&amp;C$716&amp;", "&amp;D$716&amp;", "&amp;E$716&amp;", "&amp;F$716&amp;")
+values ('"&amp;B765&amp;"', '"&amp;C765&amp;"', "&amp;D765&amp;", "&amp;E765&amp;", "&amp;F765&amp;");"</f>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Beastman', 'OotO', 2, 1, 1);</v>
+      </c>
+      <c r="L765" t="str">
+        <f t="shared" ref="L765:L788" si="113">"insert into "&amp;A$716&amp;" ("&amp;B$716&amp;", "&amp;C$716&amp;", "&amp;D$716&amp;", "&amp;E$716&amp;", "&amp;F$716&amp;")
+values ('"&amp;B765&amp;"', '"&amp;C765&amp;"', "&amp;D765+1&amp;", "&amp;G765&amp;", "&amp;H765&amp;");"</f>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Beastman', 'OotO', 3, 1, 2);</v>
+      </c>
+      <c r="M765" t="str">
+        <f t="shared" ref="M765:M788" si="114">"insert into "&amp;A$716&amp;" ("&amp;B$716&amp;", "&amp;C$716&amp;", "&amp;D$716&amp;", "&amp;E$716&amp;", "&amp;F$716&amp;")
+values ('"&amp;B765&amp;"', '"&amp;C765&amp;"', "&amp;D765+2&amp;", "&amp;I765&amp;", "&amp;J765&amp;");"</f>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Beastman', 'OotO', 4, 1, 3);</v>
+      </c>
+    </row>
+    <row r="766" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B766" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C766" t="s">
+        <v>74</v>
+      </c>
+      <c r="D766">
+        <v>2</v>
+      </c>
+      <c r="E766">
+        <v>1</v>
+      </c>
+      <c r="F766">
+        <v>0</v>
+      </c>
+      <c r="G766">
+        <v>1</v>
+      </c>
+      <c r="H766">
+        <v>1</v>
+      </c>
+      <c r="I766">
+        <v>1</v>
+      </c>
+      <c r="J766">
+        <v>2</v>
+      </c>
+      <c r="K766" t="str">
+        <f t="shared" si="112"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Bane Spider', 'OotO', 2, 1, 0);</v>
+      </c>
+      <c r="L766" t="str">
+        <f t="shared" si="113"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Bane Spider', 'OotO', 3, 1, 1);</v>
+      </c>
+      <c r="M766" t="str">
+        <f t="shared" si="114"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Bane Spider', 'OotO', 4, 1, 2);</v>
+      </c>
+    </row>
+    <row r="767" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B767" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C767" t="s">
+        <v>74</v>
+      </c>
+      <c r="D767">
+        <v>2</v>
+      </c>
+      <c r="E767">
+        <v>1</v>
+      </c>
+      <c r="F767">
+        <v>1</v>
+      </c>
+      <c r="G767">
+        <v>1</v>
+      </c>
+      <c r="H767">
+        <v>2</v>
+      </c>
+      <c r="I767">
+        <v>1</v>
+      </c>
+      <c r="J767">
+        <v>3</v>
+      </c>
+      <c r="K767" t="str">
+        <f t="shared" si="112"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Razorwing', 'OotO', 2, 1, 1);</v>
+      </c>
+      <c r="L767" t="str">
+        <f t="shared" si="113"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Razorwing', 'OotO', 3, 1, 2);</v>
+      </c>
+      <c r="M767" t="str">
+        <f t="shared" si="114"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Razorwing', 'OotO', 4, 1, 3);</v>
+      </c>
+    </row>
+    <row r="768" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B768" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C768" t="s">
+        <v>68</v>
+      </c>
+      <c r="D768">
+        <v>2</v>
+      </c>
+      <c r="E768">
+        <v>0</v>
+      </c>
+      <c r="F768">
+        <v>1</v>
+      </c>
+      <c r="G768">
+        <v>1</v>
+      </c>
+      <c r="H768">
+        <v>0</v>
+      </c>
+      <c r="I768">
+        <v>1</v>
+      </c>
+      <c r="J768">
+        <v>1</v>
+      </c>
+      <c r="K768" t="str">
+        <f t="shared" si="112"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Giant', 'CoD', 2, 0, 1);</v>
+      </c>
+      <c r="L768" t="str">
+        <f t="shared" si="113"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Giant', 'CoD', 3, 1, 0);</v>
+      </c>
+      <c r="M768" t="str">
+        <f t="shared" si="114"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Giant', 'CoD', 4, 1, 1);</v>
+      </c>
+    </row>
+    <row r="769" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B769" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C769" t="s">
+        <v>68</v>
+      </c>
+      <c r="D769">
+        <v>2</v>
+      </c>
+      <c r="E769">
+        <v>1</v>
+      </c>
+      <c r="F769">
+        <v>0</v>
+      </c>
+      <c r="G769">
+        <v>1</v>
+      </c>
+      <c r="H769">
+        <v>1</v>
+      </c>
+      <c r="I769">
+        <v>1</v>
+      </c>
+      <c r="J769">
+        <v>2</v>
+      </c>
+      <c r="K769" t="str">
+        <f t="shared" si="112"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Chaos Beast', 'CoD', 2, 1, 0);</v>
+      </c>
+      <c r="L769" t="str">
+        <f t="shared" si="113"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Chaos Beast', 'CoD', 3, 1, 1);</v>
+      </c>
+      <c r="M769" t="str">
+        <f t="shared" si="114"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Chaos Beast', 'CoD', 4, 1, 2);</v>
+      </c>
+    </row>
+    <row r="770" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B770" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C770" t="s">
+        <v>68</v>
+      </c>
+      <c r="D770">
+        <v>2</v>
+      </c>
+      <c r="E770">
+        <v>1</v>
+      </c>
+      <c r="F770">
+        <v>1</v>
+      </c>
+      <c r="G770">
+        <v>1</v>
+      </c>
+      <c r="H770">
+        <v>2</v>
+      </c>
+      <c r="I770">
+        <v>1</v>
+      </c>
+      <c r="J770">
+        <v>3</v>
+      </c>
+      <c r="K770" t="str">
+        <f t="shared" si="112"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Lava Beetle', 'CoD', 2, 1, 1);</v>
+      </c>
+      <c r="L770" t="str">
+        <f t="shared" si="113"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Lava Beetle', 'CoD', 3, 1, 2);</v>
+      </c>
+      <c r="M770" t="str">
+        <f t="shared" si="114"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Lava Beetle', 'CoD', 4, 1, 3);</v>
+      </c>
+    </row>
+    <row r="771" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B771" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C771" t="s">
+        <v>73</v>
+      </c>
+      <c r="D771">
+        <v>2</v>
+      </c>
+      <c r="E771">
+        <v>1</v>
+      </c>
+      <c r="F771">
+        <v>1</v>
+      </c>
+      <c r="G771">
+        <v>1</v>
+      </c>
+      <c r="H771">
+        <v>2</v>
+      </c>
+      <c r="I771">
+        <v>1</v>
+      </c>
+      <c r="J771">
+        <v>3</v>
+      </c>
+      <c r="K771" t="str">
+        <f t="shared" si="112"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Sorcerer', 'CotF', 2, 1, 1);</v>
+      </c>
+      <c r="L771" t="str">
+        <f t="shared" si="113"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Sorcerer', 'CotF', 3, 1, 2);</v>
+      </c>
+      <c r="M771" t="str">
+        <f t="shared" si="114"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Sorcerer', 'CotF', 4, 1, 3);</v>
+      </c>
+    </row>
+    <row r="772" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B772" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C772" t="s">
+        <v>73</v>
+      </c>
+      <c r="D772">
+        <v>2</v>
+      </c>
+      <c r="E772">
+        <v>0</v>
+      </c>
+      <c r="F772">
+        <v>1</v>
+      </c>
+      <c r="G772">
+        <v>1</v>
+      </c>
+      <c r="H772">
+        <v>0</v>
+      </c>
+      <c r="I772">
+        <v>1</v>
+      </c>
+      <c r="J772">
+        <v>1</v>
+      </c>
+      <c r="K772" t="str">
+        <f t="shared" si="112"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Golem', 'CotF', 2, 0, 1);</v>
+      </c>
+      <c r="L772" t="str">
+        <f t="shared" si="113"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Golem', 'CotF', 3, 1, 0);</v>
+      </c>
+      <c r="M772" t="str">
+        <f t="shared" si="114"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Golem', 'CotF', 4, 1, 1);</v>
+      </c>
+    </row>
+    <row r="773" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B773" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C773" t="s">
+        <v>73</v>
+      </c>
+      <c r="D773">
+        <v>2</v>
+      </c>
+      <c r="E773">
+        <v>0</v>
+      </c>
+      <c r="F773">
+        <v>2</v>
+      </c>
+      <c r="G773">
+        <v>1</v>
+      </c>
+      <c r="H773">
+        <v>1</v>
+      </c>
+      <c r="I773">
+        <v>1</v>
+      </c>
+      <c r="J773">
+        <v>2</v>
+      </c>
+      <c r="K773" t="str">
+        <f t="shared" si="112"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Medusa', 'CotF', 2, 0, 2);</v>
+      </c>
+      <c r="L773" t="str">
+        <f t="shared" si="113"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Medusa', 'CotF', 3, 1, 1);</v>
+      </c>
+      <c r="M773" t="str">
+        <f t="shared" si="114"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Medusa', 'CotF', 4, 1, 2);</v>
+      </c>
+    </row>
+    <row r="774" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B774" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C774" t="s">
+        <v>69</v>
+      </c>
+      <c r="D774">
+        <v>2</v>
+      </c>
+      <c r="E774">
+        <v>0</v>
+      </c>
+      <c r="F774">
+        <v>1</v>
+      </c>
+      <c r="G774">
+        <v>1</v>
+      </c>
+      <c r="H774">
+        <v>0</v>
+      </c>
+      <c r="I774">
+        <v>1</v>
+      </c>
+      <c r="J774">
+        <v>1</v>
+      </c>
+      <c r="K774" t="str">
+        <f t="shared" si="112"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Crypt Dragon', 'GoD', 2, 0, 1);</v>
+      </c>
+      <c r="L774" t="str">
+        <f t="shared" si="113"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Crypt Dragon', 'GoD', 3, 1, 0);</v>
+      </c>
+      <c r="M774" t="str">
+        <f t="shared" si="114"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Crypt Dragon', 'GoD', 4, 1, 1);</v>
+      </c>
+    </row>
+    <row r="775" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B775" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C775" t="s">
+        <v>69</v>
+      </c>
+      <c r="D775">
+        <v>2</v>
+      </c>
+      <c r="E775">
+        <v>1</v>
+      </c>
+      <c r="F775">
+        <v>1</v>
+      </c>
+      <c r="G775">
+        <v>1</v>
+      </c>
+      <c r="H775">
+        <v>2</v>
+      </c>
+      <c r="I775">
+        <v>1</v>
+      </c>
+      <c r="J775">
+        <v>3</v>
+      </c>
+      <c r="K775" t="str">
+        <f t="shared" si="112"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Dark Priest', 'GoD', 2, 1, 1);</v>
+      </c>
+      <c r="L775" t="str">
+        <f t="shared" si="113"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Dark Priest', 'GoD', 3, 1, 2);</v>
+      </c>
+      <c r="M775" t="str">
+        <f t="shared" si="114"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Dark Priest', 'GoD', 4, 1, 3);</v>
+      </c>
+    </row>
+    <row r="776" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B776" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C776" t="s">
+        <v>69</v>
+      </c>
+      <c r="D776">
+        <v>2</v>
+      </c>
+      <c r="E776">
+        <v>1</v>
+      </c>
+      <c r="F776">
+        <v>0</v>
+      </c>
+      <c r="G776">
+        <v>1</v>
+      </c>
+      <c r="H776">
+        <v>1</v>
+      </c>
+      <c r="I776">
+        <v>1</v>
+      </c>
+      <c r="J776">
+        <v>2</v>
+      </c>
+      <c r="K776" t="str">
+        <f t="shared" si="112"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Wendigo', 'GoD', 2, 1, 0);</v>
+      </c>
+      <c r="L776" t="str">
+        <f t="shared" si="113"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Wendigo', 'GoD', 3, 1, 1);</v>
+      </c>
+      <c r="M776" t="str">
+        <f t="shared" si="114"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Wendigo', 'GoD', 4, 1, 2);</v>
+      </c>
+    </row>
+    <row r="777" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B777" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C777" t="s">
+        <v>70</v>
+      </c>
+      <c r="D777">
+        <v>2</v>
+      </c>
+      <c r="E777">
+        <v>0</v>
+      </c>
+      <c r="F777">
+        <v>1</v>
+      </c>
+      <c r="G777">
+        <v>1</v>
+      </c>
+      <c r="H777">
+        <v>0</v>
+      </c>
+      <c r="I777">
+        <v>1</v>
+      </c>
+      <c r="J777">
+        <v>1</v>
+      </c>
+      <c r="K777" t="str">
+        <f t="shared" si="112"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Ogre', 'VoD', 2, 0, 1);</v>
+      </c>
+      <c r="L777" t="str">
+        <f t="shared" si="113"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Ogre', 'VoD', 3, 1, 0);</v>
+      </c>
+      <c r="M777" t="str">
+        <f t="shared" si="114"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Ogre', 'VoD', 4, 1, 1);</v>
+      </c>
+    </row>
+    <row r="778" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B778" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C778" t="s">
+        <v>70</v>
+      </c>
+      <c r="D778">
+        <v>2</v>
+      </c>
+      <c r="E778">
+        <v>0</v>
+      </c>
+      <c r="F778">
+        <v>1</v>
+      </c>
+      <c r="G778">
+        <v>1</v>
+      </c>
+      <c r="H778">
+        <v>0</v>
+      </c>
+      <c r="I778">
+        <v>1</v>
+      </c>
+      <c r="J778">
+        <v>1</v>
+      </c>
+      <c r="K778" t="str">
+        <f t="shared" si="112"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Manticore', 'VoD', 2, 0, 1);</v>
+      </c>
+      <c r="L778" t="str">
+        <f t="shared" si="113"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Manticore', 'VoD', 3, 1, 0);</v>
+      </c>
+      <c r="M778" t="str">
+        <f t="shared" si="114"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Manticore', 'VoD', 4, 1, 1);</v>
+      </c>
+    </row>
+    <row r="779" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B779" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C779" t="s">
+        <v>70</v>
+      </c>
+      <c r="D779">
+        <v>2</v>
+      </c>
+      <c r="E779">
+        <v>0</v>
+      </c>
+      <c r="F779">
+        <v>1</v>
+      </c>
+      <c r="G779">
+        <v>1</v>
+      </c>
+      <c r="H779">
+        <v>0</v>
+      </c>
+      <c r="I779">
+        <v>1</v>
+      </c>
+      <c r="J779">
+        <v>1</v>
+      </c>
+      <c r="K779" t="str">
+        <f t="shared" si="112"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Troll', 'VoD', 2, 0, 1);</v>
+      </c>
+      <c r="L779" t="str">
+        <f t="shared" si="113"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Troll', 'VoD', 3, 1, 0);</v>
+      </c>
+      <c r="M779" t="str">
+        <f t="shared" si="114"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Troll', 'VoD', 4, 1, 1);</v>
+      </c>
+    </row>
+    <row r="780" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B780" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C780" t="s">
+        <v>75</v>
+      </c>
+      <c r="D780">
+        <v>2</v>
+      </c>
+      <c r="E780">
+        <v>1</v>
+      </c>
+      <c r="F780">
+        <v>2</v>
+      </c>
+      <c r="G780">
+        <v>1</v>
+      </c>
+      <c r="H780">
+        <v>2</v>
+      </c>
+      <c r="I780">
+        <v>1</v>
+      </c>
+      <c r="J780">
+        <v>3</v>
+      </c>
+      <c r="K780" t="str">
+        <f t="shared" si="112"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Hell Hound', 'BotW', 2, 1, 2);</v>
+      </c>
+      <c r="L780" t="str">
+        <f t="shared" si="113"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Hell Hound', 'BotW', 3, 1, 2);</v>
+      </c>
+      <c r="M780" t="str">
+        <f t="shared" si="114"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Hell Hound', 'BotW', 4, 1, 3);</v>
+      </c>
+    </row>
+    <row r="781" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B781" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C781" t="s">
+        <v>75</v>
+      </c>
+      <c r="D781">
+        <v>2</v>
+      </c>
+      <c r="E781">
+        <v>2</v>
+      </c>
+      <c r="F781">
+        <v>4</v>
+      </c>
+      <c r="G781">
+        <v>2</v>
+      </c>
+      <c r="H781">
+        <v>8</v>
+      </c>
+      <c r="I781">
+        <v>3</v>
+      </c>
+      <c r="J781">
+        <v>9</v>
+      </c>
+      <c r="K781" t="str">
+        <f t="shared" si="112"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Kobold', 'BotW', 2, 2, 4);</v>
+      </c>
+      <c r="L781" t="str">
+        <f t="shared" si="113"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Kobold', 'BotW', 3, 2, 8);</v>
+      </c>
+      <c r="M781" t="str">
+        <f t="shared" si="114"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Kobold', 'BotW', 4, 3, 9);</v>
+      </c>
+    </row>
+    <row r="782" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B782" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C782" t="s">
+        <v>75</v>
+      </c>
+      <c r="D782">
+        <v>2</v>
+      </c>
+      <c r="E782">
+        <v>0</v>
+      </c>
+      <c r="F782">
+        <v>1</v>
+      </c>
+      <c r="G782">
+        <v>1</v>
+      </c>
+      <c r="H782">
+        <v>0</v>
+      </c>
+      <c r="I782">
+        <v>1</v>
+      </c>
+      <c r="J782">
+        <v>1</v>
+      </c>
+      <c r="K782" t="str">
+        <f t="shared" si="112"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Deep Elf', 'BotW', 2, 0, 1);</v>
+      </c>
+      <c r="L782" t="str">
+        <f t="shared" si="113"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Deep Elf', 'BotW', 3, 1, 0);</v>
+      </c>
+      <c r="M782" t="str">
+        <f t="shared" si="114"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Deep Elf', 'BotW', 4, 1, 1);</v>
+      </c>
+    </row>
+    <row r="783" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B783" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C783" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D783">
+        <v>2</v>
+      </c>
+      <c r="E783">
+        <v>1</v>
+      </c>
+      <c r="F783">
+        <v>2</v>
+      </c>
+      <c r="G783">
+        <v>1</v>
+      </c>
+      <c r="H783">
+        <v>3</v>
+      </c>
+      <c r="I783">
+        <v>1</v>
+      </c>
+      <c r="J783">
+        <v>4</v>
+      </c>
+      <c r="K783" t="str">
+        <f t="shared" si="112"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Skeleton Archer', 'ToC', 2, 1, 2);</v>
+      </c>
+      <c r="L783" t="str">
+        <f t="shared" si="113"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Skeleton Archer', 'ToC', 3, 1, 3);</v>
+      </c>
+      <c r="M783" t="str">
+        <f t="shared" si="114"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Skeleton Archer', 'ToC', 4, 1, 4);</v>
+      </c>
+    </row>
+    <row r="784" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B784" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C784" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D784">
+        <v>2</v>
+      </c>
+      <c r="E784">
+        <v>0</v>
+      </c>
+      <c r="F784">
+        <v>1</v>
+      </c>
+      <c r="G784">
+        <v>1</v>
+      </c>
+      <c r="H784">
+        <v>0</v>
+      </c>
+      <c r="I784">
+        <v>1</v>
+      </c>
+      <c r="J784">
+        <v>1</v>
+      </c>
+      <c r="K784" t="str">
+        <f t="shared" si="112"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Demon Lord', 'ToC', 2, 0, 1);</v>
+      </c>
+      <c r="L784" t="str">
+        <f t="shared" si="113"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Demon Lord', 'ToC', 3, 1, 0);</v>
+      </c>
+      <c r="M784" t="str">
+        <f t="shared" si="114"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Demon Lord', 'ToC', 4, 1, 1);</v>
+      </c>
+    </row>
+    <row r="785" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B785" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C785" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D785">
+        <v>2</v>
+      </c>
+      <c r="E785">
+        <v>1</v>
+      </c>
+      <c r="F785">
+        <v>0</v>
+      </c>
+      <c r="G785">
+        <v>1</v>
+      </c>
+      <c r="H785">
+        <v>1</v>
+      </c>
+      <c r="I785">
+        <v>1</v>
+      </c>
+      <c r="J785">
+        <v>2</v>
+      </c>
+      <c r="K785" t="str">
+        <f t="shared" si="112"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Crow Hag', 'ToC', 2, 1, 0);</v>
+      </c>
+      <c r="L785" t="str">
+        <f t="shared" si="113"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Crow Hag', 'ToC', 3, 1, 1);</v>
+      </c>
+      <c r="M785" t="str">
+        <f t="shared" si="114"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Crow Hag', 'ToC', 4, 1, 2);</v>
+      </c>
+    </row>
+    <row r="786" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B786" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C786" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="D786">
+        <v>2</v>
+      </c>
+      <c r="E786">
+        <v>1</v>
+      </c>
+      <c r="F786">
+        <v>0</v>
+      </c>
+      <c r="G786">
+        <v>1</v>
+      </c>
+      <c r="H786">
+        <v>1</v>
+      </c>
+      <c r="I786">
+        <v>1</v>
+      </c>
+      <c r="J786">
+        <v>2</v>
+      </c>
+      <c r="K786" t="str">
+        <f t="shared" si="112"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Naga', 'SotS', 2, 1, 0);</v>
+      </c>
+      <c r="L786" t="str">
+        <f t="shared" si="113"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Naga', 'SotS', 3, 1, 1);</v>
+      </c>
+      <c r="M786" t="str">
+        <f t="shared" si="114"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Naga', 'SotS', 4, 1, 2);</v>
+      </c>
+    </row>
+    <row r="787" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B787" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C787" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="D787">
+        <v>2</v>
+      </c>
+      <c r="E787">
+        <v>1</v>
+      </c>
+      <c r="F787">
+        <v>1</v>
+      </c>
+      <c r="G787">
+        <v>1</v>
+      </c>
+      <c r="H787">
+        <v>2</v>
+      </c>
+      <c r="I787">
+        <v>1</v>
+      </c>
+      <c r="J787">
+        <v>3</v>
+      </c>
+      <c r="K787" t="str">
+        <f t="shared" si="112"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Ferrox', 'SotS', 2, 1, 1);</v>
+      </c>
+      <c r="L787" t="str">
+        <f t="shared" si="113"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Ferrox', 'SotS', 3, 1, 2);</v>
+      </c>
+      <c r="M787" t="str">
+        <f t="shared" si="114"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Ferrox', 'SotS', 4, 1, 3);</v>
+      </c>
+    </row>
+    <row r="788" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B788" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C788" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="D788">
+        <v>2</v>
+      </c>
+      <c r="E788">
+        <v>1</v>
+      </c>
+      <c r="F788">
+        <v>0</v>
+      </c>
+      <c r="G788">
+        <v>1</v>
+      </c>
+      <c r="H788">
+        <v>1</v>
+      </c>
+      <c r="I788">
+        <v>1</v>
+      </c>
+      <c r="J788">
+        <v>2</v>
+      </c>
+      <c r="K788" t="str">
+        <f t="shared" si="112"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Blood Ape', 'SotS', 2, 1, 0);</v>
+      </c>
+      <c r="L788" t="str">
+        <f t="shared" si="113"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Blood Ape', 'SotS', 3, 1, 1);</v>
+      </c>
+      <c r="M788" t="str">
+        <f t="shared" si="114"/>
+        <v>insert into MONSTER_COUNT (MONSTER_GROUP, EXPANSION, HEROS, MASTER, MINION)
+values ('Blood Ape', 'SotS', 4, 1, 2);</v>
+      </c>
+    </row>
+    <row r="790" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A790" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B790" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C790" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D790" s="3" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E790" s="3" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F790" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G790" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="794" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A794" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B794" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C794" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D794" s="3" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E794" s="3" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F794" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="797" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A797" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B797" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C797" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D797" s="3" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E797" s="3" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F797" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G797" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -28560,8 +33663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M283"/>
   <sheetViews>
-    <sheetView topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="H282" sqref="H282:I283"/>
+    <sheetView topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="C280" sqref="C280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/descent/src/descent-bdd.xlsx
+++ b/descent/src/descent-bdd.xlsx
@@ -4657,77 +4657,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="125">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="115">
     <dxf>
       <fill>
         <patternFill>
@@ -5811,8 +5741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK959"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A904" workbookViewId="0">
-      <selection activeCell="B927" sqref="B927"/>
+    <sheetView tabSelected="1" topLeftCell="B898" workbookViewId="0">
+      <selection activeCell="C931" sqref="C931"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32808,7 +32738,7 @@
         <v>75</v>
       </c>
       <c r="D807" t="str">
-        <f t="shared" ref="D807:D838" si="109">LOWER(REPLACE(A$742,SEARCH("_",A$742),1,""))&amp;"."&amp;LOWER(K807)&amp;"."&amp;LOWER(C807)</f>
+        <f t="shared" ref="D807:D814" si="109">LOWER(REPLACE(A$742,SEARCH("_",A$742),1,""))&amp;"."&amp;LOWER(K807)&amp;"."&amp;LOWER(C807)</f>
         <v>monstergroup.kobold.botw</v>
       </c>
       <c r="E807" t="s">
@@ -41075,7 +41005,7 @@
         <v/>
       </c>
       <c r="AE939" t="str">
-        <f t="shared" ref="AE927:AE958" si="145">IF(M939="","","insert into "&amp;A$891&amp;" ("&amp;B$891&amp;", "&amp;C$891&amp;", "&amp;D$891&amp;", "&amp;E$891&amp;", "&amp;F$891&amp;", "&amp;G$891&amp;", "&amp;H$891&amp;")
+        <f t="shared" ref="AE939:AE958" si="145">IF(M939="","","insert into "&amp;A$891&amp;" ("&amp;B$891&amp;", "&amp;C$891&amp;", "&amp;D$891&amp;", "&amp;E$891&amp;", "&amp;F$891&amp;", "&amp;G$891&amp;", "&amp;H$891&amp;")
 values ('"&amp;B939&amp;"', '"&amp;C939&amp;"', '"&amp;D939&amp;"', '"&amp;E939&amp;"', '"&amp;M939&amp;"', "&amp;IF(N939="","null",N939)&amp;", "&amp;IF(O939="","null",N939)&amp;");")</f>
         <v/>
       </c>
@@ -42469,421 +42399,421 @@
     <sortCondition ref="B178"/>
   </sortState>
   <conditionalFormatting sqref="B197:B198 B200:B218 B233:B258 R288 B287:B290">
-    <cfRule type="expression" dxfId="124" priority="144">
+    <cfRule type="expression" dxfId="114" priority="144">
       <formula>$H197="Eclaireur"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="145">
+    <cfRule type="expression" dxfId="113" priority="145">
       <formula>$H197="Mage"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="146">
+    <cfRule type="expression" dxfId="112" priority="146">
       <formula>$H197="Guerrier"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="147">
+    <cfRule type="expression" dxfId="111" priority="147">
       <formula>$H197="Soigneur"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R197:R198">
-    <cfRule type="expression" dxfId="120" priority="140">
+    <cfRule type="expression" dxfId="110" priority="140">
       <formula>$H197="Eclaireur"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="141">
+    <cfRule type="expression" dxfId="109" priority="141">
       <formula>$H197="Mage"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="142">
+    <cfRule type="expression" dxfId="108" priority="142">
       <formula>$H197="Guerrier"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="143">
+    <cfRule type="expression" dxfId="107" priority="143">
       <formula>$H197="Soigneur"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B199">
-    <cfRule type="expression" dxfId="116" priority="136">
+    <cfRule type="expression" dxfId="106" priority="136">
       <formula>$H199="Eclaireur"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="137">
+    <cfRule type="expression" dxfId="105" priority="137">
       <formula>$H199="Mage"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="138">
+    <cfRule type="expression" dxfId="104" priority="138">
       <formula>$H199="Guerrier"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="139">
+    <cfRule type="expression" dxfId="103" priority="139">
       <formula>$H199="Soigneur"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R216">
-    <cfRule type="expression" dxfId="112" priority="132">
+    <cfRule type="expression" dxfId="102" priority="132">
       <formula>$H216="Eclaireur"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="133">
+    <cfRule type="expression" dxfId="101" priority="133">
       <formula>$H216="Mage"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="134">
+    <cfRule type="expression" dxfId="100" priority="134">
       <formula>$H216="Guerrier"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="135">
+    <cfRule type="expression" dxfId="99" priority="135">
       <formula>$H216="Soigneur"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B229:B232">
-    <cfRule type="expression" dxfId="108" priority="128">
+    <cfRule type="expression" dxfId="98" priority="128">
       <formula>$H229="Eclaireur"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="129">
+    <cfRule type="expression" dxfId="97" priority="129">
       <formula>$H229="Mage"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="130">
+    <cfRule type="expression" dxfId="96" priority="130">
       <formula>$H229="Guerrier"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="131">
+    <cfRule type="expression" dxfId="95" priority="131">
       <formula>$H229="Soigneur"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B223:B228">
-    <cfRule type="expression" dxfId="104" priority="124">
+    <cfRule type="expression" dxfId="94" priority="124">
       <formula>$H223="Eclaireur"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="125">
+    <cfRule type="expression" dxfId="93" priority="125">
       <formula>$H223="Mage"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="126">
+    <cfRule type="expression" dxfId="92" priority="126">
       <formula>$H223="Guerrier"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="127">
+    <cfRule type="expression" dxfId="91" priority="127">
       <formula>$H223="Soigneur"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B219:B222">
-    <cfRule type="expression" dxfId="100" priority="120">
+    <cfRule type="expression" dxfId="90" priority="120">
       <formula>$H219="Eclaireur"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="121">
+    <cfRule type="expression" dxfId="89" priority="121">
       <formula>$H219="Mage"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="122">
+    <cfRule type="expression" dxfId="88" priority="122">
       <formula>$H219="Guerrier"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="123">
+    <cfRule type="expression" dxfId="87" priority="123">
       <formula>$H219="Soigneur"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R223:R224">
-    <cfRule type="expression" dxfId="96" priority="116">
+    <cfRule type="expression" dxfId="86" priority="116">
       <formula>$H223="Eclaireur"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="117">
+    <cfRule type="expression" dxfId="85" priority="117">
       <formula>$H223="Mage"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="118">
+    <cfRule type="expression" dxfId="84" priority="118">
       <formula>$H223="Guerrier"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="119">
+    <cfRule type="expression" dxfId="83" priority="119">
       <formula>$H223="Soigneur"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R222">
-    <cfRule type="expression" dxfId="92" priority="112">
+    <cfRule type="expression" dxfId="82" priority="112">
       <formula>$H222="Eclaireur"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="113">
+    <cfRule type="expression" dxfId="81" priority="113">
       <formula>$H222="Mage"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="114">
+    <cfRule type="expression" dxfId="80" priority="114">
       <formula>$H222="Guerrier"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="115">
+    <cfRule type="expression" dxfId="79" priority="115">
       <formula>$H222="Soigneur"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R229:R230">
-    <cfRule type="expression" dxfId="88" priority="108">
+    <cfRule type="expression" dxfId="78" priority="108">
       <formula>$H229="Eclaireur"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="109">
+    <cfRule type="expression" dxfId="77" priority="109">
       <formula>$H229="Mage"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="110">
+    <cfRule type="expression" dxfId="76" priority="110">
       <formula>$H229="Guerrier"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="111">
+    <cfRule type="expression" dxfId="75" priority="111">
       <formula>$H229="Soigneur"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R228">
-    <cfRule type="expression" dxfId="84" priority="104">
+    <cfRule type="expression" dxfId="74" priority="104">
       <formula>$H228="Eclaireur"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="105">
+    <cfRule type="expression" dxfId="73" priority="105">
       <formula>$H228="Mage"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="106">
+    <cfRule type="expression" dxfId="72" priority="106">
       <formula>$H228="Guerrier"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="107">
+    <cfRule type="expression" dxfId="71" priority="107">
       <formula>$H228="Soigneur"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R233:R235">
-    <cfRule type="expression" dxfId="80" priority="100">
+    <cfRule type="expression" dxfId="70" priority="100">
       <formula>$H233="Eclaireur"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="101">
+    <cfRule type="expression" dxfId="69" priority="101">
       <formula>$H233="Mage"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="102">
+    <cfRule type="expression" dxfId="68" priority="102">
       <formula>$H233="Guerrier"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="103">
+    <cfRule type="expression" dxfId="67" priority="103">
       <formula>$H233="Soigneur"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R232">
-    <cfRule type="expression" dxfId="76" priority="96">
+    <cfRule type="expression" dxfId="66" priority="96">
       <formula>$H232="Eclaireur"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="97">
+    <cfRule type="expression" dxfId="65" priority="97">
       <formula>$H232="Mage"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="98">
+    <cfRule type="expression" dxfId="64" priority="98">
       <formula>$H232="Guerrier"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="99">
+    <cfRule type="expression" dxfId="63" priority="99">
       <formula>$H232="Soigneur"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B259:B286">
-    <cfRule type="expression" dxfId="72" priority="92">
+    <cfRule type="expression" dxfId="62" priority="92">
       <formula>$H259="Eclaireur"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="93">
+    <cfRule type="expression" dxfId="61" priority="93">
       <formula>$H259="Mage"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="94">
+    <cfRule type="expression" dxfId="60" priority="94">
       <formula>$H259="Guerrier"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="95">
+    <cfRule type="expression" dxfId="59" priority="95">
       <formula>$H259="Soigneur"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R263:R270">
-    <cfRule type="expression" dxfId="68" priority="88">
+    <cfRule type="expression" dxfId="58" priority="88">
       <formula>$H263="Eclaireur"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="89">
+    <cfRule type="expression" dxfId="57" priority="89">
       <formula>$H263="Mage"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="90">
+    <cfRule type="expression" dxfId="56" priority="90">
       <formula>$H263="Guerrier"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="91">
+    <cfRule type="expression" dxfId="55" priority="91">
       <formula>$H263="Soigneur"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R271">
-    <cfRule type="expression" dxfId="64" priority="84">
+    <cfRule type="expression" dxfId="54" priority="84">
       <formula>$H271="Eclaireur"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="85">
+    <cfRule type="expression" dxfId="53" priority="85">
       <formula>$H271="Mage"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="86">
+    <cfRule type="expression" dxfId="52" priority="86">
       <formula>$H271="Guerrier"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="87">
+    <cfRule type="expression" dxfId="51" priority="87">
       <formula>$H271="Soigneur"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R274:R276">
-    <cfRule type="expression" dxfId="60" priority="80">
+    <cfRule type="expression" dxfId="50" priority="80">
       <formula>$H274="Eclaireur"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="81">
+    <cfRule type="expression" dxfId="49" priority="81">
       <formula>$H274="Mage"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="82">
+    <cfRule type="expression" dxfId="48" priority="82">
       <formula>$H274="Guerrier"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="83">
+    <cfRule type="expression" dxfId="47" priority="83">
       <formula>$H274="Soigneur"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R272">
-    <cfRule type="expression" dxfId="56" priority="76">
+    <cfRule type="expression" dxfId="46" priority="76">
       <formula>$H272="Eclaireur"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="77">
+    <cfRule type="expression" dxfId="45" priority="77">
       <formula>$H272="Mage"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="78">
+    <cfRule type="expression" dxfId="44" priority="78">
       <formula>$H272="Guerrier"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="79">
+    <cfRule type="expression" dxfId="43" priority="79">
       <formula>$H272="Soigneur"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R282">
-    <cfRule type="expression" dxfId="52" priority="72">
+    <cfRule type="expression" dxfId="42" priority="72">
       <formula>$H282="Eclaireur"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="73">
+    <cfRule type="expression" dxfId="41" priority="73">
       <formula>$H282="Mage"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="74">
+    <cfRule type="expression" dxfId="40" priority="74">
       <formula>$H282="Guerrier"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="75">
+    <cfRule type="expression" dxfId="39" priority="75">
       <formula>$H282="Soigneur"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R284:R286">
-    <cfRule type="expression" dxfId="48" priority="68">
+    <cfRule type="expression" dxfId="38" priority="68">
       <formula>$H284="Eclaireur"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="69">
+    <cfRule type="expression" dxfId="37" priority="69">
       <formula>$H284="Mage"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="70">
+    <cfRule type="expression" dxfId="36" priority="70">
       <formula>$H284="Guerrier"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="71">
+    <cfRule type="expression" dxfId="35" priority="71">
       <formula>$H284="Soigneur"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B291">
-    <cfRule type="expression" dxfId="44" priority="40">
+    <cfRule type="expression" dxfId="34" priority="40">
       <formula>$H291="Eclaireur"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="41">
+    <cfRule type="expression" dxfId="33" priority="41">
       <formula>$H291="Mage"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="42">
+    <cfRule type="expression" dxfId="32" priority="42">
       <formula>$H291="Guerrier"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="43">
+    <cfRule type="expression" dxfId="31" priority="43">
       <formula>$H291="Soigneur"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B292">
-    <cfRule type="expression" dxfId="40" priority="36">
+    <cfRule type="expression" dxfId="30" priority="36">
       <formula>$H292="Eclaireur"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="37">
+    <cfRule type="expression" dxfId="29" priority="37">
       <formula>$H292="Mage"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="38">
+    <cfRule type="expression" dxfId="28" priority="38">
       <formula>$H292="Guerrier"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="39">
+    <cfRule type="expression" dxfId="27" priority="39">
       <formula>$H292="Soigneur"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B293">
-    <cfRule type="expression" dxfId="36" priority="32">
+    <cfRule type="expression" dxfId="26" priority="32">
       <formula>$H293="Eclaireur"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="33">
+    <cfRule type="expression" dxfId="25" priority="33">
       <formula>$H293="Mage"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="34">
+    <cfRule type="expression" dxfId="24" priority="34">
       <formula>$H293="Guerrier"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="35">
+    <cfRule type="expression" dxfId="23" priority="35">
       <formula>$H293="Soigneur"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R293">
-    <cfRule type="expression" dxfId="32" priority="28">
+    <cfRule type="expression" dxfId="22" priority="28">
       <formula>$H293="Eclaireur"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="29">
+    <cfRule type="expression" dxfId="21" priority="29">
       <formula>$H293="Mage"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="30">
+    <cfRule type="expression" dxfId="20" priority="30">
       <formula>$H293="Guerrier"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="31">
+    <cfRule type="expression" dxfId="19" priority="31">
       <formula>$H293="Soigneur"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B294">
-    <cfRule type="expression" dxfId="28" priority="24">
+    <cfRule type="expression" dxfId="18" priority="24">
       <formula>$H294="Eclaireur"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="25">
+    <cfRule type="expression" dxfId="17" priority="25">
       <formula>$H294="Mage"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="26">
+    <cfRule type="expression" dxfId="16" priority="26">
       <formula>$H294="Guerrier"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="27">
+    <cfRule type="expression" dxfId="15" priority="27">
       <formula>$H294="Soigneur"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R294">
-    <cfRule type="expression" dxfId="24" priority="20">
+    <cfRule type="expression" dxfId="14" priority="20">
       <formula>$H294="Eclaireur"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="21">
+    <cfRule type="expression" dxfId="13" priority="21">
       <formula>$H294="Mage"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="22">
+    <cfRule type="expression" dxfId="12" priority="22">
       <formula>$H294="Guerrier"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="23">
+    <cfRule type="expression" dxfId="11" priority="23">
       <formula>$H294="Soigneur"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A895:C895 F895:XFD895 Z896:AA958 AI896:AK918 AE896:AE938">
-    <cfRule type="expression" dxfId="5" priority="19">
+    <cfRule type="expression" dxfId="10" priority="19">
       <formula>$D895="Master"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E895">
-    <cfRule type="expression" dxfId="20" priority="12">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>$D895="Master"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A896:C957 AL896:XFD918 AB939:AH957 AL923:XFD957 F896:Y957 AB896:AD938 AF923:AH938 AF896:AH918 AF919:XFD922">
-    <cfRule type="expression" dxfId="19" priority="8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>$D896="Master"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A895:AK895 Z896:AA958 AI896:AK918 AE896:AE938">
-    <cfRule type="expression" dxfId="4" priority="10">
+    <cfRule type="expression" dxfId="7" priority="10">
       <formula>$E895="Master"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E896:E957">
-    <cfRule type="expression" dxfId="18" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>$D896="Master"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB939:AH957 A896:Y957 AB896:AD938 AF923:AH938 AF896:AH918 AF919:AK922">
-    <cfRule type="expression" dxfId="17" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$E896="Master"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A958:C958 F958:Y958 AB958:AH958 AL958:XFD958">
-    <cfRule type="expression" dxfId="16" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$D958="Master"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E958">
-    <cfRule type="expression" dxfId="15" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$D958="Master"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A958:Y958 AB958:AH958">
-    <cfRule type="expression" dxfId="14" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$E958="Master"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI923:AK958">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$D923="Master"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI923:AK958">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$E923="Master"</formula>
     </cfRule>
   </conditionalFormatting>
